--- a/outputs/SORs/SOR Testing_IPS Couplings Division.xlsx
+++ b/outputs/SORs/SOR Testing_IPS Couplings Division.xlsx
@@ -75,7 +75,7 @@
     <t xml:space="preserve">cvd</t>
   </si>
   <si>
-    <t xml:space="preserve">ytd_value</t>
+    <t xml:space="preserve">ytd</t>
   </si>
   <si>
     <t xml:space="preserve">data_source</t>
@@ -2322,7 +2322,7 @@
         <v>27</v>
       </c>
       <c r="G2" s="14" t="n">
-        <v>0.0364</v>
+        <v>0.037</v>
       </c>
       <c r="H2" s="14" t="n">
         <v>0</v>
@@ -2331,31 +2331,31 @@
         <v>0</v>
       </c>
       <c r="J2" s="14" t="n">
-        <v>0.0362</v>
+        <v>0.0368</v>
       </c>
       <c r="K2" s="14" t="n">
         <v>0</v>
       </c>
       <c r="L2" s="14" t="n">
+        <v>0.0185</v>
+      </c>
+      <c r="M2" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" s="14" t="n">
         <v>0.0182</v>
       </c>
-      <c r="M2" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" s="14" t="n">
-        <v>0.0179</v>
-      </c>
       <c r="O2" s="14" t="n">
         <v>0</v>
       </c>
       <c r="P2" s="14" t="n">
-        <v>0.0179</v>
+        <v>0.0182</v>
       </c>
       <c r="Q2" s="14" t="n">
         <v>0</v>
       </c>
       <c r="R2" s="14" t="n">
-        <v>0.0178</v>
+        <v>0.0181</v>
       </c>
       <c r="S2" s="14" t="n">
         <v>0</v>
@@ -2364,13 +2364,13 @@
         <v>0</v>
       </c>
       <c r="U2" s="14" t="n">
-        <v>0.037</v>
+        <v>0.0377</v>
       </c>
       <c r="V2" s="14" t="n">
-        <v>0.0362</v>
+        <v>0.0368</v>
       </c>
       <c r="W2" s="14" t="n">
-        <v>0.1075</v>
+        <v>0.1095</v>
       </c>
     </row>
     <row r="3">
@@ -2393,7 +2393,7 @@
         <v>28</v>
       </c>
       <c r="G3" s="14" t="n">
-        <v>0.03276</v>
+        <v>0.0333</v>
       </c>
       <c r="H3" s="14" t="n">
         <v>0</v>
@@ -2402,31 +2402,31 @@
         <v>0</v>
       </c>
       <c r="J3" s="14" t="n">
-        <v>0.03258</v>
+        <v>0.03312</v>
       </c>
       <c r="K3" s="14" t="n">
         <v>0</v>
       </c>
       <c r="L3" s="14" t="n">
+        <v>0.01665</v>
+      </c>
+      <c r="M3" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" s="14" t="n">
         <v>0.01638</v>
       </c>
-      <c r="M3" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" s="14" t="n">
-        <v>0.01611</v>
-      </c>
       <c r="O3" s="14" t="n">
         <v>0</v>
       </c>
       <c r="P3" s="14" t="n">
-        <v>0.01611</v>
+        <v>0.01638</v>
       </c>
       <c r="Q3" s="14" t="n">
         <v>0</v>
       </c>
       <c r="R3" s="14" t="n">
-        <v>0.01602</v>
+        <v>0.01629</v>
       </c>
       <c r="S3" s="14" t="n">
         <v>0</v>
@@ -2435,13 +2435,13 @@
         <v>0</v>
       </c>
       <c r="U3" s="14" t="n">
-        <v>0.0333</v>
+        <v>0.03393</v>
       </c>
       <c r="V3" s="14" t="n">
-        <v>0.03258</v>
+        <v>0.03312</v>
       </c>
       <c r="W3" s="14" t="n">
-        <v>0.09675</v>
+        <v>0.09855</v>
       </c>
     </row>
     <row r="4">
@@ -2720,7 +2720,7 @@
         <v>33</v>
       </c>
       <c r="E8" s="14" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -2791,7 +2791,7 @@
         <v>33</v>
       </c>
       <c r="E9" s="14" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -2862,7 +2862,7 @@
         <v>33</v>
       </c>
       <c r="E10" s="14" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -3027,40 +3027,40 @@
         <v>0</v>
       </c>
       <c r="H2" s="15" t="n">
+        <v>0.0294</v>
+      </c>
+      <c r="I2" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="15" t="n">
+        <v>0.0292</v>
+      </c>
+      <c r="K2" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" s="15" t="n">
+        <v>0.0286</v>
+      </c>
+      <c r="M2" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" s="15" t="n">
+        <v>0.0288</v>
+      </c>
+      <c r="O2" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" s="15" t="n">
         <v>0.0263</v>
       </c>
-      <c r="I2" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" s="15" t="n">
-        <v>0.0261</v>
-      </c>
-      <c r="K2" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" s="15" t="n">
+      <c r="Q2" s="15" t="n">
         <v>0.0256</v>
       </c>
-      <c r="M2" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" s="15" t="n">
-        <v>0.0258</v>
-      </c>
-      <c r="O2" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" s="15" t="n">
-        <v>0.0238</v>
-      </c>
-      <c r="Q2" s="15" t="n">
-        <v>0.0233</v>
-      </c>
       <c r="R2" s="15" t="n">
-        <v>0.0468</v>
+        <v>0.0517</v>
       </c>
       <c r="S2" s="15" t="n">
-        <v>0.0233</v>
+        <v>0.0256</v>
       </c>
       <c r="T2" s="15" t="n">
         <v>0</v>
@@ -3069,10 +3069,10 @@
         <v>0</v>
       </c>
       <c r="V2" s="15" t="n">
-        <v>0.0229</v>
+        <v>0.0252</v>
       </c>
       <c r="W2" s="15" t="n">
-        <v>0.1225</v>
+        <v>0.1359</v>
       </c>
     </row>
     <row r="3">
@@ -3098,40 +3098,40 @@
         <v>0</v>
       </c>
       <c r="H3" s="15" t="n">
+        <v>0.02646</v>
+      </c>
+      <c r="I3" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" s="15" t="n">
+        <v>0.02628</v>
+      </c>
+      <c r="K3" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" s="15" t="n">
+        <v>0.02574</v>
+      </c>
+      <c r="M3" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" s="15" t="n">
+        <v>0.02592</v>
+      </c>
+      <c r="O3" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" s="15" t="n">
         <v>0.02367</v>
       </c>
-      <c r="I3" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="15" t="n">
-        <v>0.02349</v>
-      </c>
-      <c r="K3" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" s="15" t="n">
+      <c r="Q3" s="15" t="n">
         <v>0.02304</v>
       </c>
-      <c r="M3" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" s="15" t="n">
-        <v>0.02322</v>
-      </c>
-      <c r="O3" s="15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" s="15" t="n">
-        <v>0.02142</v>
-      </c>
-      <c r="Q3" s="15" t="n">
-        <v>0.02097</v>
-      </c>
       <c r="R3" s="15" t="n">
-        <v>0.04212</v>
+        <v>0.04653</v>
       </c>
       <c r="S3" s="15" t="n">
-        <v>0.02097</v>
+        <v>0.02304</v>
       </c>
       <c r="T3" s="15" t="n">
         <v>0</v>
@@ -3140,10 +3140,10 @@
         <v>0</v>
       </c>
       <c r="V3" s="15" t="n">
-        <v>0.02061</v>
+        <v>0.02268</v>
       </c>
       <c r="W3" s="15" t="n">
-        <v>0.11025</v>
+        <v>0.12231</v>
       </c>
     </row>
     <row r="4">
@@ -3420,7 +3420,7 @@
         <v>33</v>
       </c>
       <c r="E8" s="15" t="n">
-        <v>1</v>
+        <v>0.0639</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -3491,7 +3491,7 @@
         <v>33</v>
       </c>
       <c r="E9" s="15" t="n">
-        <v>1</v>
+        <v>0.0639</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -3562,7 +3562,7 @@
         <v>33</v>
       </c>
       <c r="E10" s="15" t="n">
-        <v>1</v>
+        <v>0.0639</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -3718,7 +3718,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -3727,13 +3727,13 @@
         <v>0</v>
       </c>
       <c r="H2" s="16" t="n">
-        <v>0.008</v>
+        <v>0.0081</v>
       </c>
       <c r="I2" s="16" t="n">
         <v>0</v>
       </c>
       <c r="J2" s="16" t="n">
-        <v>0.008</v>
+        <v>0.0081</v>
       </c>
       <c r="K2" s="16" t="n">
         <v>0</v>
@@ -3754,10 +3754,10 @@
         <v>0</v>
       </c>
       <c r="Q2" s="16" t="n">
-        <v>0.0084</v>
+        <v>0.0085</v>
       </c>
       <c r="R2" s="16" t="n">
-        <v>0.0084</v>
+        <v>0.0085</v>
       </c>
       <c r="S2" s="16" t="n">
         <v>0</v>
@@ -3769,10 +3769,10 @@
         <v>0.0085</v>
       </c>
       <c r="V2" s="16" t="n">
-        <v>0.0085</v>
+        <v>0.0086</v>
       </c>
       <c r="W2" s="16" t="n">
-        <v>0.0247</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="3">
@@ -3789,7 +3789,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -3798,13 +3798,13 @@
         <v>0</v>
       </c>
       <c r="H3" s="16" t="n">
-        <v>0.0072</v>
+        <v>0.00729</v>
       </c>
       <c r="I3" s="16" t="n">
         <v>0</v>
       </c>
       <c r="J3" s="16" t="n">
-        <v>0.0072</v>
+        <v>0.00729</v>
       </c>
       <c r="K3" s="16" t="n">
         <v>0</v>
@@ -3825,10 +3825,10 @@
         <v>0</v>
       </c>
       <c r="Q3" s="16" t="n">
-        <v>0.00756</v>
+        <v>0.00765</v>
       </c>
       <c r="R3" s="16" t="n">
-        <v>0.00756</v>
+        <v>0.00765</v>
       </c>
       <c r="S3" s="16" t="n">
         <v>0</v>
@@ -3840,10 +3840,10 @@
         <v>0.00765</v>
       </c>
       <c r="V3" s="16" t="n">
-        <v>0.00765</v>
+        <v>0.00774</v>
       </c>
       <c r="W3" s="16" t="n">
-        <v>0.02223</v>
+        <v>0.0225</v>
       </c>
     </row>
     <row r="4">
@@ -3860,7 +3860,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -4132,7 +4132,7 @@
         <v>33</v>
       </c>
       <c r="E8" s="16" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -4203,7 +4203,7 @@
         <v>33</v>
       </c>
       <c r="E9" s="16" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -4274,7 +4274,7 @@
         <v>33</v>
       </c>
       <c r="E10" s="16" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -4757,7 +4757,7 @@
         <v>33</v>
       </c>
       <c r="E7" s="17" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -4828,7 +4828,7 @@
         <v>33</v>
       </c>
       <c r="E8" s="17" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -4899,7 +4899,7 @@
         <v>33</v>
       </c>
       <c r="E9" s="17" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -5073,7 +5073,7 @@
         <v>0</v>
       </c>
       <c r="K2" s="18" t="n">
-        <v>0.25</v>
+        <v>0.1667</v>
       </c>
       <c r="L2" s="18" t="n">
         <v>0</v>
@@ -5082,7 +5082,7 @@
         <v>0</v>
       </c>
       <c r="N2" s="18" t="n">
-        <v>0.25</v>
+        <v>0.1667</v>
       </c>
       <c r="O2" s="18" t="n">
         <v>0</v>
@@ -5109,7 +5109,7 @@
         <v>0</v>
       </c>
       <c r="W2" s="18" t="n">
-        <v>0.25</v>
+        <v>0.1667</v>
       </c>
     </row>
     <row r="3">
@@ -5144,7 +5144,7 @@
         <v>0</v>
       </c>
       <c r="K3" s="18" t="n">
-        <v>0.225</v>
+        <v>0.15003</v>
       </c>
       <c r="L3" s="18" t="n">
         <v>0</v>
@@ -5153,7 +5153,7 @@
         <v>0</v>
       </c>
       <c r="N3" s="18" t="n">
-        <v>0.225</v>
+        <v>0.15003</v>
       </c>
       <c r="O3" s="18" t="n">
         <v>0</v>
@@ -5180,7 +5180,7 @@
         <v>0</v>
       </c>
       <c r="W3" s="18" t="n">
-        <v>0.225</v>
+        <v>0.15003</v>
       </c>
     </row>
     <row r="4">
@@ -5398,16 +5398,16 @@
         <v>0</v>
       </c>
       <c r="T2" s="19" t="n">
-        <v>0.0147</v>
+        <v>0</v>
       </c>
       <c r="U2" s="19" t="n">
         <v>0.0149</v>
       </c>
       <c r="V2" s="19" t="n">
-        <v>0.0297</v>
+        <v>0.0149</v>
       </c>
       <c r="W2" s="19" t="n">
-        <v>0.2104</v>
+        <v>0.1964</v>
       </c>
     </row>
     <row r="3">
@@ -5469,16 +5469,16 @@
         <v>0</v>
       </c>
       <c r="T3" s="19" t="n">
-        <v>0.01323</v>
+        <v>0</v>
       </c>
       <c r="U3" s="19" t="n">
         <v>0.01341</v>
       </c>
       <c r="V3" s="19" t="n">
-        <v>0.02673</v>
+        <v>0.01341</v>
       </c>
       <c r="W3" s="19" t="n">
-        <v>0.18936</v>
+        <v>0.17676</v>
       </c>
     </row>
     <row r="4">
@@ -5676,7 +5676,7 @@
         <v>33</v>
       </c>
       <c r="E7" s="19" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
@@ -5831,7 +5831,9 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="2"/>
+      <c r="E2" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -5874,7 +5876,9 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="2"/>
+      <c r="E3" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -6326,7 +6330,7 @@
         <v>33</v>
       </c>
       <c r="E7" s="20" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -6397,7 +6401,7 @@
         <v>33</v>
       </c>
       <c r="E8" s="20" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -6468,7 +6472,7 @@
         <v>33</v>
       </c>
       <c r="E9" s="20" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -6624,7 +6628,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -6645,14 +6649,14 @@
         <v>0</v>
       </c>
       <c r="L2" s="21" t="n">
+        <v>0.0156</v>
+      </c>
+      <c r="M2" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" s="21" t="n">
         <v>0.0159</v>
       </c>
-      <c r="M2" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" s="21" t="n">
-        <v>0.0161</v>
-      </c>
       <c r="O2" s="21" t="n">
         <v>0</v>
       </c>
@@ -6669,16 +6673,16 @@
         <v>0</v>
       </c>
       <c r="T2" s="21" t="n">
-        <v>0.0323</v>
+        <v>0.0484</v>
       </c>
       <c r="U2" s="21" t="n">
         <v>0</v>
       </c>
       <c r="V2" s="21" t="n">
-        <v>0.0319</v>
+        <v>0.0476</v>
       </c>
       <c r="W2" s="21" t="n">
-        <v>0.0813</v>
+        <v>0.0968</v>
       </c>
     </row>
     <row r="3">
@@ -6695,7 +6699,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -6716,14 +6720,14 @@
         <v>0</v>
       </c>
       <c r="L3" s="21" t="n">
+        <v>0.01404</v>
+      </c>
+      <c r="M3" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" s="21" t="n">
         <v>0.01431</v>
       </c>
-      <c r="M3" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" s="21" t="n">
-        <v>0.01449</v>
-      </c>
       <c r="O3" s="21" t="n">
         <v>0</v>
       </c>
@@ -6740,16 +6744,16 @@
         <v>0</v>
       </c>
       <c r="T3" s="21" t="n">
-        <v>0.02907</v>
+        <v>0.04356</v>
       </c>
       <c r="U3" s="21" t="n">
         <v>0</v>
       </c>
       <c r="V3" s="21" t="n">
-        <v>0.02871</v>
+        <v>0.04284</v>
       </c>
       <c r="W3" s="21" t="n">
-        <v>0.07317</v>
+        <v>0.08712</v>
       </c>
     </row>
     <row r="4">
@@ -6766,7 +6770,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -7020,7 +7024,7 @@
         <v>33</v>
       </c>
       <c r="E8" s="21" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -7091,7 +7095,7 @@
         <v>33</v>
       </c>
       <c r="E9" s="21" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -7162,7 +7166,7 @@
         <v>33</v>
       </c>
       <c r="E10" s="21" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -7531,7 +7535,7 @@
         <v>33</v>
       </c>
       <c r="E5" s="22" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -7602,7 +7606,7 @@
         <v>33</v>
       </c>
       <c r="E6" s="22" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -7673,7 +7677,7 @@
         <v>33</v>
       </c>
       <c r="E7" s="22" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
@@ -8703,7 +8707,7 @@
         <v>33</v>
       </c>
       <c r="E6" s="25" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F6" t="s">
         <v>27</v>
@@ -8774,7 +8778,7 @@
         <v>33</v>
       </c>
       <c r="E7" s="25" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F7" t="s">
         <v>28</v>
@@ -8845,7 +8849,7 @@
         <v>33</v>
       </c>
       <c r="E8" s="25" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F8" t="s">
         <v>29</v>
@@ -9332,28 +9336,28 @@
         <v>0</v>
       </c>
       <c r="P2" s="27" t="n">
+        <v>0.0476</v>
+      </c>
+      <c r="Q2" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" s="27" t="n">
+        <v>0.0469</v>
+      </c>
+      <c r="S2" s="27" t="n">
         <v>0.05</v>
       </c>
-      <c r="Q2" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" s="27" t="n">
-        <v>0.0493</v>
-      </c>
-      <c r="S2" s="27" t="n">
-        <v>0.0526</v>
-      </c>
       <c r="T2" s="27" t="n">
         <v>0</v>
       </c>
       <c r="U2" s="27" t="n">
-        <v>0.1111</v>
+        <v>0.1053</v>
       </c>
       <c r="V2" s="27" t="n">
-        <v>0.1604</v>
+        <v>0.1523</v>
       </c>
       <c r="W2" s="27" t="n">
-        <v>0.198</v>
+        <v>0.1887</v>
       </c>
     </row>
     <row r="3">
@@ -9403,28 +9407,28 @@
         <v>0</v>
       </c>
       <c r="P3" s="27" t="n">
+        <v>0.04284</v>
+      </c>
+      <c r="Q3" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" s="27" t="n">
+        <v>0.04221</v>
+      </c>
+      <c r="S3" s="27" t="n">
         <v>0.045</v>
       </c>
-      <c r="Q3" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" s="27" t="n">
-        <v>0.04437</v>
-      </c>
-      <c r="S3" s="27" t="n">
-        <v>0.04734</v>
-      </c>
       <c r="T3" s="27" t="n">
         <v>0</v>
       </c>
       <c r="U3" s="27" t="n">
-        <v>0.09999</v>
+        <v>0.09477</v>
       </c>
       <c r="V3" s="27" t="n">
-        <v>0.14436</v>
+        <v>0.13707</v>
       </c>
       <c r="W3" s="27" t="n">
-        <v>0.1782</v>
+        <v>0.16983</v>
       </c>
     </row>
     <row r="4">
@@ -9512,7 +9516,7 @@
         <v>33</v>
       </c>
       <c r="E5" s="27" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -9583,7 +9587,7 @@
         <v>33</v>
       </c>
       <c r="E6" s="27" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -9654,7 +9658,7 @@
         <v>33</v>
       </c>
       <c r="E7" s="27" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
@@ -10141,7 +10145,7 @@
         <v>33</v>
       </c>
       <c r="E7" s="28" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -10212,7 +10216,7 @@
         <v>33</v>
       </c>
       <c r="E8" s="28" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -10283,7 +10287,7 @@
         <v>33</v>
       </c>
       <c r="E9" s="28" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -10439,22 +10443,22 @@
         <v>26</v>
       </c>
       <c r="E2" s="29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
       </c>
       <c r="G2" s="29" t="n">
+        <v>0.0323</v>
+      </c>
+      <c r="H2" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="29" t="n">
         <v>0.0333</v>
       </c>
-      <c r="H2" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" s="29" t="n">
-        <v>0.0345</v>
-      </c>
       <c r="J2" s="29" t="n">
-        <v>0.0673</v>
+        <v>0.0651</v>
       </c>
       <c r="K2" s="29" t="n">
         <v>0</v>
@@ -10493,7 +10497,7 @@
         <v>0</v>
       </c>
       <c r="W2" s="29" t="n">
-        <v>0.061</v>
+        <v>0.0592</v>
       </c>
     </row>
     <row r="3">
@@ -10510,22 +10514,22 @@
         <v>26</v>
       </c>
       <c r="E3" s="29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
       </c>
       <c r="G3" s="29" t="n">
+        <v>0.02907</v>
+      </c>
+      <c r="H3" s="29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="29" t="n">
         <v>0.02997</v>
       </c>
-      <c r="H3" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="29" t="n">
-        <v>0.03105</v>
-      </c>
       <c r="J3" s="29" t="n">
-        <v>0.06057</v>
+        <v>0.05859</v>
       </c>
       <c r="K3" s="29" t="n">
         <v>0</v>
@@ -10564,7 +10568,7 @@
         <v>0</v>
       </c>
       <c r="W3" s="29" t="n">
-        <v>0.0549</v>
+        <v>0.05328</v>
       </c>
     </row>
     <row r="4">
@@ -10581,7 +10585,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -10948,22 +10952,22 @@
         <v>0</v>
       </c>
       <c r="I2" s="3" t="n">
-        <v>0.0513</v>
+        <v>0.05</v>
       </c>
       <c r="J2" s="3" t="n">
-        <v>0.0496</v>
+        <v>0.0484</v>
       </c>
       <c r="K2" s="3" t="n">
         <v>0</v>
       </c>
       <c r="L2" s="3" t="n">
-        <v>0.0263</v>
+        <v>0.0256</v>
       </c>
       <c r="M2" s="3" t="n">
-        <v>0.0556</v>
+        <v>0.0541</v>
       </c>
       <c r="N2" s="3" t="n">
-        <v>0.0796</v>
+        <v>0.0775</v>
       </c>
       <c r="O2" s="3" t="n">
         <v>0</v>
@@ -10984,13 +10988,13 @@
         <v>0</v>
       </c>
       <c r="U2" s="3" t="n">
-        <v>0.0263</v>
+        <v>0.0256</v>
       </c>
       <c r="V2" s="3" t="n">
-        <v>0.0258</v>
+        <v>0.0252</v>
       </c>
       <c r="W2" s="3" t="n">
-        <v>0.1554</v>
+        <v>0.1515</v>
       </c>
     </row>
     <row r="3">
@@ -11019,22 +11023,22 @@
         <v>0</v>
       </c>
       <c r="I3" s="3" t="n">
-        <v>0.04617</v>
+        <v>0.045</v>
       </c>
       <c r="J3" s="3" t="n">
-        <v>0.04464</v>
+        <v>0.04356</v>
       </c>
       <c r="K3" s="3" t="n">
         <v>0</v>
       </c>
       <c r="L3" s="3" t="n">
-        <v>0.02367</v>
+        <v>0.02304</v>
       </c>
       <c r="M3" s="3" t="n">
-        <v>0.05004</v>
+        <v>0.04869</v>
       </c>
       <c r="N3" s="3" t="n">
-        <v>0.07164</v>
+        <v>0.06975</v>
       </c>
       <c r="O3" s="3" t="n">
         <v>0</v>
@@ -11055,13 +11059,13 @@
         <v>0</v>
       </c>
       <c r="U3" s="3" t="n">
-        <v>0.02367</v>
+        <v>0.02304</v>
       </c>
       <c r="V3" s="3" t="n">
-        <v>0.02322</v>
+        <v>0.02268</v>
       </c>
       <c r="W3" s="3" t="n">
-        <v>0.13986</v>
+        <v>0.13635</v>
       </c>
     </row>
     <row r="4">
@@ -11336,7 +11340,7 @@
         <v>33</v>
       </c>
       <c r="E8" s="3" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -11407,7 +11411,7 @@
         <v>33</v>
       </c>
       <c r="E9" s="3" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -11478,7 +11482,7 @@
         <v>33</v>
       </c>
       <c r="E10" s="3" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -11967,7 +11971,7 @@
         <v>33</v>
       </c>
       <c r="E7" s="30" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -12038,7 +12042,7 @@
         <v>33</v>
       </c>
       <c r="E8" s="30" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -12109,7 +12113,7 @@
         <v>33</v>
       </c>
       <c r="E9" s="30" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -12659,7 +12663,7 @@
         <v>33</v>
       </c>
       <c r="E8" s="31" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -12730,7 +12734,7 @@
         <v>33</v>
       </c>
       <c r="E9" s="31" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -12801,7 +12805,7 @@
         <v>33</v>
       </c>
       <c r="E10" s="31" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -12957,7 +12961,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -13028,7 +13032,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -13099,7 +13103,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -13377,37 +13381,37 @@
         <v>0</v>
       </c>
       <c r="I2" s="33" t="n">
-        <v>0.0222</v>
+        <v>0.0217</v>
       </c>
       <c r="J2" s="33" t="n">
-        <v>0.0219</v>
+        <v>0.0214</v>
       </c>
       <c r="K2" s="33" t="n">
-        <v>0.0233</v>
+        <v>0.0227</v>
       </c>
       <c r="L2" s="33" t="n">
-        <v>0.0488</v>
+        <v>0.0476</v>
       </c>
       <c r="M2" s="33" t="n">
+        <v>0.0244</v>
+      </c>
+      <c r="N2" s="33" t="n">
+        <v>0.0946</v>
+      </c>
+      <c r="O2" s="33" t="n">
         <v>0.025</v>
       </c>
-      <c r="N2" s="33" t="n">
-        <v>0.0969</v>
-      </c>
-      <c r="O2" s="33" t="n">
-        <v>0.0256</v>
-      </c>
       <c r="P2" s="33" t="n">
         <v>0</v>
       </c>
       <c r="Q2" s="33" t="n">
-        <v>0.0833</v>
+        <v>0.0811</v>
       </c>
       <c r="R2" s="33" t="n">
-        <v>0.1053</v>
+        <v>0.1026</v>
       </c>
       <c r="S2" s="33" t="n">
-        <v>0.0286</v>
+        <v>0.0278</v>
       </c>
       <c r="T2" s="33" t="n">
         <v>0</v>
@@ -13416,10 +13420,10 @@
         <v>0</v>
       </c>
       <c r="V2" s="33" t="n">
-        <v>0.0315</v>
+        <v>0.0306</v>
       </c>
       <c r="W2" s="33" t="n">
-        <v>0.2551</v>
+        <v>0.2488</v>
       </c>
     </row>
     <row r="3">
@@ -13448,37 +13452,37 @@
         <v>0</v>
       </c>
       <c r="I3" s="33" t="n">
-        <v>0.01998</v>
+        <v>0.01953</v>
       </c>
       <c r="J3" s="33" t="n">
-        <v>0.01971</v>
+        <v>0.01926</v>
       </c>
       <c r="K3" s="33" t="n">
-        <v>0.02097</v>
+        <v>0.02043</v>
       </c>
       <c r="L3" s="33" t="n">
-        <v>0.04392</v>
+        <v>0.04284</v>
       </c>
       <c r="M3" s="33" t="n">
+        <v>0.02196</v>
+      </c>
+      <c r="N3" s="33" t="n">
+        <v>0.08514</v>
+      </c>
+      <c r="O3" s="33" t="n">
         <v>0.0225</v>
       </c>
-      <c r="N3" s="33" t="n">
-        <v>0.08721</v>
-      </c>
-      <c r="O3" s="33" t="n">
-        <v>0.02304</v>
-      </c>
       <c r="P3" s="33" t="n">
         <v>0</v>
       </c>
       <c r="Q3" s="33" t="n">
-        <v>0.07497</v>
+        <v>0.07299</v>
       </c>
       <c r="R3" s="33" t="n">
-        <v>0.09477</v>
+        <v>0.09234</v>
       </c>
       <c r="S3" s="33" t="n">
-        <v>0.02574</v>
+        <v>0.02502</v>
       </c>
       <c r="T3" s="33" t="n">
         <v>0</v>
@@ -13487,10 +13491,10 @@
         <v>0</v>
       </c>
       <c r="V3" s="33" t="n">
-        <v>0.02835</v>
+        <v>0.02754</v>
       </c>
       <c r="W3" s="33" t="n">
-        <v>0.22959</v>
+        <v>0.22392</v>
       </c>
     </row>
     <row r="4">
@@ -13690,7 +13694,7 @@
         <v>33</v>
       </c>
       <c r="E7" s="33" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -13761,7 +13765,7 @@
         <v>33</v>
       </c>
       <c r="E8" s="33" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -13832,7 +13836,7 @@
         <v>33</v>
       </c>
       <c r="E9" s="33" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -14311,7 +14315,7 @@
         <v>33</v>
       </c>
       <c r="E7" s="34" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -14382,7 +14386,7 @@
         <v>33</v>
       </c>
       <c r="E8" s="34" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -14453,7 +14457,7 @@
         <v>33</v>
       </c>
       <c r="E9" s="34" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -14608,7 +14612,9 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="35"/>
+      <c r="E2" s="35" t="n">
+        <v>0</v>
+      </c>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -14649,7 +14655,9 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="35"/>
+      <c r="E3" s="35" t="n">
+        <v>0</v>
+      </c>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -15119,16 +15127,16 @@
         <v>0</v>
       </c>
       <c r="T2" s="37" t="n">
-        <v>0.0909</v>
+        <v>0.0769</v>
       </c>
       <c r="U2" s="37" t="n">
         <v>0</v>
       </c>
       <c r="V2" s="37" t="n">
-        <v>0.0885</v>
+        <v>0.0752</v>
       </c>
       <c r="W2" s="37" t="n">
-        <v>0.0855</v>
+        <v>0.073</v>
       </c>
     </row>
     <row r="3">
@@ -15190,16 +15198,16 @@
         <v>0</v>
       </c>
       <c r="T3" s="37" t="n">
-        <v>0.08181</v>
+        <v>0.06921</v>
       </c>
       <c r="U3" s="37" t="n">
         <v>0</v>
       </c>
       <c r="V3" s="37" t="n">
-        <v>0.07965</v>
+        <v>0.06768</v>
       </c>
       <c r="W3" s="37" t="n">
-        <v>0.07695</v>
+        <v>0.0657</v>
       </c>
     </row>
     <row r="4">
@@ -15779,7 +15787,9 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="39"/>
+      <c r="E2" s="39" t="n">
+        <v>0</v>
+      </c>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -15848,7 +15858,9 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="39"/>
+      <c r="E3" s="39" t="n">
+        <v>0</v>
+      </c>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -16801,7 +16813,7 @@
         <v>33</v>
       </c>
       <c r="E5" s="40" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -16858,7 +16870,7 @@
         <v>33</v>
       </c>
       <c r="E6" s="40" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -16915,7 +16927,7 @@
         <v>33</v>
       </c>
       <c r="E7" s="40" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
@@ -17457,7 +17469,7 @@
         <v>33</v>
       </c>
       <c r="E8" s="41" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -17528,7 +17540,7 @@
         <v>33</v>
       </c>
       <c r="E9" s="41" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -17599,7 +17611,7 @@
         <v>33</v>
       </c>
       <c r="E10" s="41" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -17755,7 +17767,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -17767,10 +17779,10 @@
         <v>0</v>
       </c>
       <c r="I2" s="42" t="n">
-        <v>0.0294</v>
+        <v>0.0303</v>
       </c>
       <c r="J2" s="42" t="n">
-        <v>0.0288</v>
+        <v>0.0297</v>
       </c>
       <c r="K2" s="42" t="n">
         <v>0</v>
@@ -17785,7 +17797,7 @@
         <v>0</v>
       </c>
       <c r="O2" s="42" t="n">
-        <v>0.0303</v>
+        <v>0.0312</v>
       </c>
       <c r="P2" s="42" t="n">
         <v>0</v>
@@ -17794,7 +17806,7 @@
         <v>0</v>
       </c>
       <c r="R2" s="42" t="n">
-        <v>0.03</v>
+        <v>0.031</v>
       </c>
       <c r="S2" s="42" t="n">
         <v>0</v>
@@ -17803,13 +17815,13 @@
         <v>0</v>
       </c>
       <c r="U2" s="42" t="n">
-        <v>0.0303</v>
+        <v>0.0312</v>
       </c>
       <c r="V2" s="42" t="n">
-        <v>0.0297</v>
+        <v>0.0306</v>
       </c>
       <c r="W2" s="42" t="n">
-        <v>0.0885</v>
+        <v>0.0912</v>
       </c>
     </row>
     <row r="3">
@@ -17826,7 +17838,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -17838,10 +17850,10 @@
         <v>0</v>
       </c>
       <c r="I3" s="42" t="n">
-        <v>0.02646</v>
+        <v>0.02727</v>
       </c>
       <c r="J3" s="42" t="n">
-        <v>0.02592</v>
+        <v>0.02673</v>
       </c>
       <c r="K3" s="42" t="n">
         <v>0</v>
@@ -17856,7 +17868,7 @@
         <v>0</v>
       </c>
       <c r="O3" s="42" t="n">
-        <v>0.02727</v>
+        <v>0.02808</v>
       </c>
       <c r="P3" s="42" t="n">
         <v>0</v>
@@ -17865,7 +17877,7 @@
         <v>0</v>
       </c>
       <c r="R3" s="42" t="n">
-        <v>0.027</v>
+        <v>0.0279</v>
       </c>
       <c r="S3" s="42" t="n">
         <v>0</v>
@@ -17874,13 +17886,13 @@
         <v>0</v>
       </c>
       <c r="U3" s="42" t="n">
-        <v>0.02727</v>
+        <v>0.02808</v>
       </c>
       <c r="V3" s="42" t="n">
-        <v>0.02673</v>
+        <v>0.02754</v>
       </c>
       <c r="W3" s="42" t="n">
-        <v>0.07965</v>
+        <v>0.08208</v>
       </c>
     </row>
     <row r="4">
@@ -17897,7 +17909,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -18153,7 +18165,7 @@
         <v>33</v>
       </c>
       <c r="E8" s="42" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -18224,7 +18236,7 @@
         <v>33</v>
       </c>
       <c r="E9" s="42" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -18295,7 +18307,7 @@
         <v>33</v>
       </c>
       <c r="E10" s="42" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -18450,7 +18462,9 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="43"/>
+      <c r="E2" s="43" t="n">
+        <v>0</v>
+      </c>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -18491,7 +18505,9 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="43"/>
+      <c r="E3" s="43" t="n">
+        <v>0</v>
+      </c>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -19194,7 +19210,9 @@
       <c r="D3" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="45"/>
+      <c r="E3" s="45" t="n">
+        <v>0.0639</v>
+      </c>
       <c r="F3" t="s">
         <v>27</v>
       </c>
@@ -19243,7 +19261,9 @@
       <c r="D4" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="45"/>
+      <c r="E4" s="45" t="n">
+        <v>0.0639</v>
+      </c>
       <c r="F4" t="s">
         <v>28</v>
       </c>
@@ -19533,7 +19553,9 @@
       <c r="D2" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="47"/>
+      <c r="E2" s="47" t="n">
+        <v>0.0639</v>
+      </c>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -19582,7 +19604,9 @@
       <c r="D3" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="47"/>
+      <c r="E3" s="47" t="n">
+        <v>0.0639</v>
+      </c>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -19716,7 +19740,9 @@
       <c r="D2" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="48"/>
+      <c r="E2" s="48" t="n">
+        <v>0.0639</v>
+      </c>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -19763,7 +19789,9 @@
       <c r="D3" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="48"/>
+      <c r="E3" s="48" t="n">
+        <v>0.0639</v>
+      </c>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -19895,7 +19923,9 @@
       <c r="D2" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="49"/>
+      <c r="E2" s="49" t="n">
+        <v>0.0639</v>
+      </c>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -19938,7 +19968,9 @@
       <c r="D3" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="49"/>
+      <c r="E3" s="49" t="n">
+        <v>0.0639</v>
+      </c>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -20365,7 +20397,7 @@
         <v>33</v>
       </c>
       <c r="E2" s="50" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F2" t="s">
         <v>29</v>
@@ -20535,16 +20567,16 @@
         <v>0</v>
       </c>
       <c r="K2" s="6" t="n">
+        <v>0.0278</v>
+      </c>
+      <c r="L2" s="6" t="n">
+        <v>0.0278</v>
+      </c>
+      <c r="M2" s="6" t="n">
         <v>0.0286</v>
       </c>
-      <c r="L2" s="6" t="n">
-        <v>0.0286</v>
-      </c>
-      <c r="M2" s="6" t="n">
-        <v>0.0294</v>
-      </c>
       <c r="N2" s="6" t="n">
-        <v>0.0865</v>
+        <v>0.084</v>
       </c>
       <c r="O2" s="6" t="n">
         <v>0</v>
@@ -20565,13 +20597,13 @@
         <v>0</v>
       </c>
       <c r="U2" s="6" t="n">
-        <v>0.0312</v>
+        <v>0.0303</v>
       </c>
       <c r="V2" s="6" t="n">
-        <v>0.0306</v>
+        <v>0.0297</v>
       </c>
       <c r="W2" s="6" t="n">
-        <v>0.118</v>
+        <v>0.1146</v>
       </c>
     </row>
     <row r="3">
@@ -20606,16 +20638,16 @@
         <v>0</v>
       </c>
       <c r="K3" s="6" t="n">
+        <v>0.02502</v>
+      </c>
+      <c r="L3" s="6" t="n">
+        <v>0.02502</v>
+      </c>
+      <c r="M3" s="6" t="n">
         <v>0.02574</v>
       </c>
-      <c r="L3" s="6" t="n">
-        <v>0.02574</v>
-      </c>
-      <c r="M3" s="6" t="n">
-        <v>0.02646</v>
-      </c>
       <c r="N3" s="6" t="n">
-        <v>0.07785</v>
+        <v>0.0756</v>
       </c>
       <c r="O3" s="6" t="n">
         <v>0</v>
@@ -20636,13 +20668,13 @@
         <v>0</v>
       </c>
       <c r="U3" s="6" t="n">
-        <v>0.02808</v>
+        <v>0.02727</v>
       </c>
       <c r="V3" s="6" t="n">
-        <v>0.02754</v>
+        <v>0.02673</v>
       </c>
       <c r="W3" s="6" t="n">
-        <v>0.1062</v>
+        <v>0.10314</v>
       </c>
     </row>
     <row r="4">
@@ -20917,7 +20949,7 @@
         <v>33</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -20988,7 +21020,7 @@
         <v>33</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -21059,7 +21091,7 @@
         <v>33</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>0</v>
+        <v>0.0639</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>

--- a/outputs/SORs/SOR Testing_IPS Couplings Division.xlsx
+++ b/outputs/SORs/SOR Testing_IPS Couplings Division.xlsx
@@ -2479,7 +2479,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="14" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="M4" s="14" t="n">
         <v>0</v>
@@ -2669,9 +2669,7 @@
         <v>0.5</v>
       </c>
       <c r="K7" s="14"/>
-      <c r="L7" s="14" t="n">
-        <v>0.5</v>
-      </c>
+      <c r="L7" s="14"/>
       <c r="M7" s="14" t="n">
         <v>0.5</v>
       </c>
@@ -2720,7 +2718,7 @@
         <v>33</v>
       </c>
       <c r="E8" s="14" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -2791,7 +2789,7 @@
         <v>33</v>
       </c>
       <c r="E9" s="14" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -2862,7 +2860,7 @@
         <v>33</v>
       </c>
       <c r="E10" s="14" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -2871,19 +2869,19 @@
         <v>0</v>
       </c>
       <c r="H10" s="14" t="n">
+        <v>0.0213</v>
+      </c>
+      <c r="I10" s="14" t="n">
+        <v>0.0208</v>
+      </c>
+      <c r="J10" s="14" t="n">
+        <v>0.0428</v>
+      </c>
+      <c r="K10" s="14" t="n">
         <v>0.0217</v>
       </c>
-      <c r="I10" s="14" t="n">
-        <v>0.0213</v>
-      </c>
-      <c r="J10" s="14" t="n">
-        <v>0.0438</v>
-      </c>
-      <c r="K10" s="14" t="n">
-        <v>0.0222</v>
-      </c>
       <c r="L10" s="14" t="n">
-        <v>0</v>
+        <v>0.0444</v>
       </c>
       <c r="M10" s="14" t="n">
         <v>0</v>
@@ -3172,16 +3170,16 @@
         <v>0</v>
       </c>
       <c r="I4" s="15" t="n">
-        <v>0.0222</v>
+        <v>0.0217</v>
       </c>
       <c r="J4" s="15" t="n">
-        <v>0.0226</v>
+        <v>0.0221</v>
       </c>
       <c r="K4" s="15" t="n">
+        <v>0.0444</v>
+      </c>
+      <c r="L4" s="15" t="n">
         <v>0.0227</v>
-      </c>
-      <c r="L4" s="15" t="n">
-        <v>0</v>
       </c>
       <c r="M4" s="15" t="n">
         <v>0</v>
@@ -3369,9 +3367,7 @@
         <v>0.5</v>
       </c>
       <c r="K7" s="15"/>
-      <c r="L7" s="15" t="n">
-        <v>0.5</v>
-      </c>
+      <c r="L7" s="15"/>
       <c r="M7" s="15" t="n">
         <v>0.5</v>
       </c>
@@ -3420,7 +3416,7 @@
         <v>33</v>
       </c>
       <c r="E8" s="15" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -3491,7 +3487,7 @@
         <v>33</v>
       </c>
       <c r="E9" s="15" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -3562,13 +3558,13 @@
         <v>33</v>
       </c>
       <c r="E10" s="15" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
       </c>
       <c r="G10" s="15" t="n">
-        <v>0.0156</v>
+        <v>0.0149</v>
       </c>
       <c r="H10" s="15" t="n">
         <v>0</v>
@@ -3577,46 +3573,46 @@
         <v>0</v>
       </c>
       <c r="J10" s="15" t="n">
-        <v>0.0154</v>
+        <v>0.0147</v>
       </c>
       <c r="K10" s="15" t="n">
         <v>0</v>
       </c>
       <c r="L10" s="15" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.0597</v>
       </c>
       <c r="M10" s="15" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="N10" s="15" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="O10" s="15" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="P10" s="15" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="15" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="R10" s="15" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S10" s="15" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="T10" s="15" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="U10" s="15" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="V10" s="15" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="W10" s="15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3881,40 +3877,40 @@
         <v>0</v>
       </c>
       <c r="L4" s="16" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="M4" s="16" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="N4" s="16" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="O4" s="16" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="P4" s="16" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="16" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="R4" s="16" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S4" s="16" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="T4" s="16" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="U4" s="16" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="V4" s="16" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="W4" s="16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -4081,9 +4077,7 @@
       <c r="K7" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="L7" s="16" t="n">
-        <v>0</v>
-      </c>
+      <c r="L7" s="16"/>
       <c r="M7" s="16" t="n">
         <v>0</v>
       </c>
@@ -4132,7 +4126,7 @@
         <v>33</v>
       </c>
       <c r="E8" s="16" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -4203,7 +4197,7 @@
         <v>33</v>
       </c>
       <c r="E9" s="16" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -4274,7 +4268,7 @@
         <v>33</v>
       </c>
       <c r="E10" s="16" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -4757,7 +4751,7 @@
         <v>33</v>
       </c>
       <c r="E7" s="17" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -4828,7 +4822,7 @@
         <v>33</v>
       </c>
       <c r="E8" s="17" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -4899,7 +4893,7 @@
         <v>33</v>
       </c>
       <c r="E9" s="17" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -5676,7 +5670,7 @@
         <v>33</v>
       </c>
       <c r="E7" s="19" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
@@ -6167,10 +6161,10 @@
         <v>0</v>
       </c>
       <c r="K4" s="20" t="n">
-        <v>0</v>
+        <v>0.0185</v>
       </c>
       <c r="L4" s="20" t="n">
-        <v>0</v>
+        <v>0.0385</v>
       </c>
       <c r="M4" s="20" t="n">
         <v>0</v>
@@ -6330,7 +6324,7 @@
         <v>33</v>
       </c>
       <c r="E7" s="20" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -6401,7 +6395,7 @@
         <v>33</v>
       </c>
       <c r="E8" s="20" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -6472,7 +6466,7 @@
         <v>33</v>
       </c>
       <c r="E9" s="20" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -6788,43 +6782,43 @@
         <v>0.0159</v>
       </c>
       <c r="K4" s="21" t="n">
-        <v>0</v>
+        <v>0.0164</v>
       </c>
       <c r="L4" s="21" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="M4" s="21" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="N4" s="21" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="O4" s="21" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="P4" s="21" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="21" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="R4" s="21" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S4" s="21" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="T4" s="21" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="U4" s="21" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="V4" s="21" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="W4" s="21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -6973,9 +6967,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="21"/>
-      <c r="L7" s="21" t="n">
-        <v>0</v>
-      </c>
+      <c r="L7" s="21"/>
       <c r="M7" s="21" t="n">
         <v>0</v>
       </c>
@@ -7024,7 +7016,7 @@
         <v>33</v>
       </c>
       <c r="E8" s="21" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -7095,7 +7087,7 @@
         <v>33</v>
       </c>
       <c r="E9" s="21" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -7166,7 +7158,7 @@
         <v>33</v>
       </c>
       <c r="E10" s="21" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -7535,7 +7527,7 @@
         <v>33</v>
       </c>
       <c r="E5" s="22" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -7606,7 +7598,7 @@
         <v>33</v>
       </c>
       <c r="E6" s="22" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -7677,7 +7669,7 @@
         <v>33</v>
       </c>
       <c r="E7" s="22" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
@@ -7961,77 +7953,6 @@
         <v>0.43902</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" s="23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W4" s="23" t="n">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -8656,9 +8577,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="25"/>
-      <c r="L5" s="25" t="n">
-        <v>0</v>
-      </c>
+      <c r="L5" s="25"/>
       <c r="M5" s="25" t="n">
         <v>0</v>
       </c>
@@ -8707,7 +8626,7 @@
         <v>33</v>
       </c>
       <c r="E6" s="25" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F6" t="s">
         <v>27</v>
@@ -8778,7 +8697,7 @@
         <v>33</v>
       </c>
       <c r="E7" s="25" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F7" t="s">
         <v>28</v>
@@ -8849,7 +8768,7 @@
         <v>33</v>
       </c>
       <c r="E8" s="25" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F8" t="s">
         <v>29</v>
@@ -9516,7 +9435,7 @@
         <v>33</v>
       </c>
       <c r="E5" s="27" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -9587,7 +9506,7 @@
         <v>33</v>
       </c>
       <c r="E6" s="27" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -9658,7 +9577,7 @@
         <v>33</v>
       </c>
       <c r="E7" s="27" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
@@ -9977,7 +9896,7 @@
         <v>0.0588</v>
       </c>
       <c r="L4" s="28" t="n">
-        <v>0</v>
+        <v>0.0625</v>
       </c>
       <c r="M4" s="28" t="n">
         <v>0</v>
@@ -10026,7 +9945,9 @@
       <c r="D5" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="28"/>
+      <c r="E5" s="28" t="n">
+        <v>1</v>
+      </c>
       <c r="F5" t="s">
         <v>27</v>
       </c>
@@ -10075,7 +9996,9 @@
       <c r="D6" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="28"/>
+      <c r="E6" s="28" t="n">
+        <v>1</v>
+      </c>
       <c r="F6" t="s">
         <v>28</v>
       </c>
@@ -10142,64 +10065,54 @@
         <v>58</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E7" s="28" t="n">
-        <v>0.0639</v>
+        <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="28" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="I7" s="28" t="n">
-        <v>0.1176</v>
-      </c>
-      <c r="J7" s="28" t="n">
-        <v>0.203</v>
-      </c>
-      <c r="K7" s="28" t="n">
-        <v>0</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
       <c r="L7" s="28" t="n">
-        <v>0.0625</v>
+        <v>1</v>
       </c>
       <c r="M7" s="28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" s="28" t="n">
-        <v>0.0588</v>
+        <v>1</v>
       </c>
       <c r="O7" s="28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" s="28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7" s="28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7" s="28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S7" s="28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T7" s="28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U7" s="28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V7" s="28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W7" s="28" t="n">
-        <v>0.2591</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -10216,34 +10129,34 @@
         <v>33</v>
       </c>
       <c r="E8" s="28" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G8" s="28" t="n">
         <v>0</v>
       </c>
       <c r="H8" s="28" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="I8" s="28" t="n">
-        <v>0.10584</v>
+        <v>0.1176</v>
       </c>
       <c r="J8" s="28" t="n">
-        <v>0.1827</v>
+        <v>0.203</v>
       </c>
       <c r="K8" s="28" t="n">
         <v>0</v>
       </c>
       <c r="L8" s="28" t="n">
-        <v>0.05625</v>
+        <v>0.0625</v>
       </c>
       <c r="M8" s="28" t="n">
         <v>0</v>
       </c>
       <c r="N8" s="28" t="n">
-        <v>0.05292</v>
+        <v>0.0588</v>
       </c>
       <c r="O8" s="28" t="n">
         <v>0</v>
@@ -10270,7 +10183,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="28" t="n">
-        <v>0.23319</v>
+        <v>0.2591</v>
       </c>
     </row>
     <row r="9">
@@ -10287,60 +10200,131 @@
         <v>33</v>
       </c>
       <c r="E9" s="28" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="28" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I9" s="28" t="n">
+        <v>0.10584</v>
+      </c>
+      <c r="J9" s="28" t="n">
+        <v>0.1827</v>
+      </c>
+      <c r="K9" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" s="28" t="n">
+        <v>0.05625</v>
+      </c>
+      <c r="M9" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" s="28" t="n">
+        <v>0.05292</v>
+      </c>
+      <c r="O9" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" s="28" t="n">
+        <v>0.23319</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="28" t="n">
+        <v>0.0776</v>
+      </c>
+      <c r="F10" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="28" t="n">
+      <c r="G10" s="28" t="n">
         <v>0.05</v>
       </c>
-      <c r="H9" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="28" t="n">
+      <c r="H10" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="28" t="n">
         <v>0.0493</v>
       </c>
-      <c r="K9" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" s="28" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" s="28" t="n">
+      <c r="K10" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" s="28" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="M10" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" s="28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" s="28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10606,40 +10590,40 @@
         <v>0</v>
       </c>
       <c r="L4" s="29" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="M4" s="29" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="N4" s="29" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="O4" s="29" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="P4" s="29" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="29" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="R4" s="29" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S4" s="29" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="T4" s="29" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="U4" s="29" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="V4" s="29" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="W4" s="29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -10656,7 +10640,7 @@
         <v>32</v>
       </c>
       <c r="E5" s="29" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -10715,7 +10699,7 @@
         <v>32</v>
       </c>
       <c r="E6" s="29" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -10786,7 +10770,7 @@
         <v>32</v>
       </c>
       <c r="E7" s="29" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
@@ -10805,40 +10789,40 @@
         <v>0.5</v>
       </c>
       <c r="L7" s="29" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="M7" s="29" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="N7" s="29" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="O7" s="29" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="P7" s="29" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="Q7" s="29" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="R7" s="29" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="S7" s="29" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="T7" s="29" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="U7" s="29" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="V7" s="29" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="W7" s="29" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>
@@ -11103,7 +11087,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="3" t="n">
-        <v>0</v>
+        <v>0.0256</v>
       </c>
       <c r="M4" s="3" t="n">
         <v>0</v>
@@ -11289,9 +11273,7 @@
         <v>0.5</v>
       </c>
       <c r="K7" s="3"/>
-      <c r="L7" s="3" t="n">
-        <v>0.5</v>
-      </c>
+      <c r="L7" s="3"/>
       <c r="M7" s="3" t="n">
         <v>0.5</v>
       </c>
@@ -11340,7 +11322,7 @@
         <v>33</v>
       </c>
       <c r="E8" s="3" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -11411,7 +11393,7 @@
         <v>33</v>
       </c>
       <c r="E9" s="3" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -11482,7 +11464,7 @@
         <v>33</v>
       </c>
       <c r="E10" s="3" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -11503,7 +11485,7 @@
         <v>0.0258</v>
       </c>
       <c r="L10" s="3" t="n">
-        <v>0</v>
+        <v>0.0064</v>
       </c>
       <c r="M10" s="3" t="n">
         <v>0</v>
@@ -11971,7 +11953,7 @@
         <v>33</v>
       </c>
       <c r="E7" s="30" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -12042,7 +12024,7 @@
         <v>33</v>
       </c>
       <c r="E8" s="30" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -12113,7 +12095,7 @@
         <v>33</v>
       </c>
       <c r="E9" s="30" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -12134,7 +12116,7 @@
         <v>0.0172</v>
       </c>
       <c r="L9" s="30" t="n">
-        <v>0</v>
+        <v>0.0179</v>
       </c>
       <c r="M9" s="30" t="n">
         <v>0</v>
@@ -12663,7 +12645,7 @@
         <v>33</v>
       </c>
       <c r="E8" s="31" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -12734,7 +12716,7 @@
         <v>33</v>
       </c>
       <c r="E9" s="31" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -12805,7 +12787,7 @@
         <v>33</v>
       </c>
       <c r="E10" s="31" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -13124,40 +13106,40 @@
         <v>0</v>
       </c>
       <c r="L4" s="32" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="M4" s="32" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="N4" s="32" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="O4" s="32" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="P4" s="32" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="32" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="R4" s="32" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S4" s="32" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="T4" s="32" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="U4" s="32" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="V4" s="32" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="W4" s="32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -13523,10 +13505,10 @@
         <v>0</v>
       </c>
       <c r="I4" s="33" t="n">
-        <v>0.1111</v>
+        <v>0.1176</v>
       </c>
       <c r="J4" s="33" t="n">
-        <v>0.081</v>
+        <v>0.0844</v>
       </c>
       <c r="K4" s="33" t="n">
         <v>0</v>
@@ -13694,7 +13676,7 @@
         <v>33</v>
       </c>
       <c r="E7" s="33" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -13765,7 +13747,7 @@
         <v>33</v>
       </c>
       <c r="E8" s="33" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -13836,7 +13818,7 @@
         <v>33</v>
       </c>
       <c r="E9" s="33" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -13856,9 +13838,7 @@
       <c r="K9" s="33" t="n">
         <v>0</v>
       </c>
-      <c r="L9" s="33" t="n">
-        <v>0</v>
-      </c>
+      <c r="L9" s="33"/>
       <c r="M9" s="33" t="n">
         <v>0</v>
       </c>
@@ -14315,7 +14295,7 @@
         <v>33</v>
       </c>
       <c r="E7" s="34" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -14386,7 +14366,7 @@
         <v>33</v>
       </c>
       <c r="E8" s="34" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -14457,7 +14437,7 @@
         <v>33</v>
       </c>
       <c r="E9" s="34" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -16337,9 +16317,7 @@
       <c r="D5" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="4" t="n">
-        <v>1</v>
-      </c>
+      <c r="E5" s="4"/>
       <c r="F5" t="s">
         <v>27</v>
       </c>
@@ -16380,9 +16358,7 @@
       <c r="D6" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="4" t="n">
-        <v>1</v>
-      </c>
+      <c r="E6" s="4"/>
       <c r="F6" t="s">
         <v>28</v>
       </c>
@@ -16436,69 +16412,6 @@
       </c>
       <c r="W6" s="4" t="n">
         <v>0.5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>1</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -16813,7 +16726,7 @@
         <v>33</v>
       </c>
       <c r="E5" s="40" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -16870,7 +16783,7 @@
         <v>33</v>
       </c>
       <c r="E6" s="40" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -16927,7 +16840,7 @@
         <v>33</v>
       </c>
       <c r="E7" s="40" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
@@ -16941,9 +16854,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="40"/>
-      <c r="L7" s="40" t="n">
-        <v>0</v>
-      </c>
+      <c r="L7" s="40"/>
       <c r="M7" s="40" t="n">
         <v>0</v>
       </c>
@@ -17418,9 +17329,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="41"/>
-      <c r="L7" s="41" t="n">
-        <v>0</v>
-      </c>
+      <c r="L7" s="41"/>
       <c r="M7" s="41" t="n">
         <v>0</v>
       </c>
@@ -17469,7 +17378,7 @@
         <v>33</v>
       </c>
       <c r="E8" s="41" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -17540,7 +17449,7 @@
         <v>33</v>
       </c>
       <c r="E9" s="41" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -17611,7 +17520,7 @@
         <v>33</v>
       </c>
       <c r="E10" s="41" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -17930,40 +17839,40 @@
         <v>0</v>
       </c>
       <c r="L4" s="42" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="M4" s="42" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="N4" s="42" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="O4" s="42" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="P4" s="42" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="42" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="R4" s="42" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="S4" s="42" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="T4" s="42" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="U4" s="42" t="n">
-        <v>0.0833333333333333</v>
+        <v>0</v>
       </c>
       <c r="V4" s="42" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="W4" s="42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -18114,9 +18023,7 @@
         <v>1</v>
       </c>
       <c r="K7" s="42"/>
-      <c r="L7" s="42" t="n">
-        <v>1</v>
-      </c>
+      <c r="L7" s="42"/>
       <c r="M7" s="42" t="n">
         <v>1</v>
       </c>
@@ -18165,7 +18072,7 @@
         <v>33</v>
       </c>
       <c r="E8" s="42" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -18236,7 +18143,7 @@
         <v>33</v>
       </c>
       <c r="E9" s="42" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -18307,7 +18214,7 @@
         <v>33</v>
       </c>
       <c r="E10" s="42" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -18328,7 +18235,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="42" t="n">
-        <v>0</v>
+        <v>0.0278</v>
       </c>
       <c r="M10" s="42" t="n">
         <v>0</v>
@@ -19211,7 +19118,7 @@
         <v>33</v>
       </c>
       <c r="E3" s="45" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F3" t="s">
         <v>27</v>
@@ -19262,7 +19169,7 @@
         <v>33</v>
       </c>
       <c r="E4" s="45" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F4" t="s">
         <v>28</v>
@@ -19554,7 +19461,7 @@
         <v>33</v>
       </c>
       <c r="E2" s="47" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -19605,7 +19512,7 @@
         <v>33</v>
       </c>
       <c r="E3" s="47" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -19741,7 +19648,7 @@
         <v>33</v>
       </c>
       <c r="E2" s="48" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -19790,7 +19697,7 @@
         <v>33</v>
       </c>
       <c r="E3" s="48" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -19924,7 +19831,7 @@
         <v>33</v>
       </c>
       <c r="E2" s="49" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -19969,7 +19876,7 @@
         <v>33</v>
       </c>
       <c r="E3" s="49" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -20397,7 +20304,7 @@
         <v>33</v>
       </c>
       <c r="E2" s="50" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F2" t="s">
         <v>29</v>
@@ -20898,9 +20805,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="6"/>
-      <c r="L7" s="6" t="n">
-        <v>0</v>
-      </c>
+      <c r="L7" s="6"/>
       <c r="M7" s="6" t="n">
         <v>0</v>
       </c>
@@ -20949,7 +20854,7 @@
         <v>33</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -21020,7 +20925,7 @@
         <v>33</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -21091,7 +20996,7 @@
         <v>33</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -22107,49 +22012,49 @@
         <v>0</v>
       </c>
       <c r="I4" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" s="9" t="n">
+        <v>0.5882</v>
+      </c>
+      <c r="K4" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" s="9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" s="9" t="n">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="N4" s="9" t="n">
         <v>0.25</v>
       </c>
-      <c r="J4" s="9" t="n">
-        <v>0.2128</v>
-      </c>
-      <c r="K4" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" s="9" t="n">
-        <v>0</v>
-      </c>
       <c r="O4" s="9" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="P4" s="9" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Q4" s="9" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="R4" s="9" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="S4" s="9" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="T4" s="9" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="U4" s="9" t="n">
-        <v>0</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="V4" s="9" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="W4" s="9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/SORs/SOR Testing_IPS Couplings Division.xlsx
+++ b/outputs/SORs/SOR Testing_IPS Couplings Division.xlsx
@@ -2316,7 +2316,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="14" t="n">
-        <v>0</v>
+        <v>0.0766</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -2387,7 +2387,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="14" t="n">
-        <v>0</v>
+        <v>0.0766</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -2458,7 +2458,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="14" t="n">
-        <v>0</v>
+        <v>0.0766</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -2482,37 +2482,37 @@
         <v>0.02</v>
       </c>
       <c r="M4" s="14" t="n">
-        <v>0</v>
+        <v>0.0153166666666667</v>
       </c>
       <c r="N4" s="14" t="n">
-        <v>0</v>
+        <v>0.04595</v>
       </c>
       <c r="O4" s="14" t="n">
-        <v>0</v>
+        <v>0.0153166666666667</v>
       </c>
       <c r="P4" s="14" t="n">
-        <v>0</v>
+        <v>0.0153166666666667</v>
       </c>
       <c r="Q4" s="14" t="n">
-        <v>0</v>
+        <v>0.0153166666666667</v>
       </c>
       <c r="R4" s="14" t="n">
-        <v>0</v>
+        <v>0.04595</v>
       </c>
       <c r="S4" s="14" t="n">
-        <v>0</v>
+        <v>0.0153166666666667</v>
       </c>
       <c r="T4" s="14" t="n">
-        <v>0</v>
+        <v>0.0153166666666667</v>
       </c>
       <c r="U4" s="14" t="n">
-        <v>0</v>
+        <v>0.0153166666666667</v>
       </c>
       <c r="V4" s="14" t="n">
-        <v>0</v>
+        <v>0.04595</v>
       </c>
       <c r="W4" s="14" t="n">
-        <v>0</v>
+        <v>0.1838</v>
       </c>
     </row>
     <row r="5">
@@ -2718,7 +2718,7 @@
         <v>33</v>
       </c>
       <c r="E8" s="14" t="n">
-        <v>0.0776</v>
+        <v>0.1082</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -2789,7 +2789,7 @@
         <v>33</v>
       </c>
       <c r="E9" s="14" t="n">
-        <v>0.0776</v>
+        <v>0.1082</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -2860,7 +2860,7 @@
         <v>33</v>
       </c>
       <c r="E10" s="14" t="n">
-        <v>0.0776</v>
+        <v>0.1082</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -2884,37 +2884,37 @@
         <v>0.0444</v>
       </c>
       <c r="M10" s="14" t="n">
-        <v>0</v>
+        <v>0.0216416666666667</v>
       </c>
       <c r="N10" s="14" t="n">
-        <v>0</v>
+        <v>0.064925</v>
       </c>
       <c r="O10" s="14" t="n">
-        <v>0</v>
+        <v>0.0216416666666667</v>
       </c>
       <c r="P10" s="14" t="n">
-        <v>0</v>
+        <v>0.0216416666666667</v>
       </c>
       <c r="Q10" s="14" t="n">
-        <v>0</v>
+        <v>0.0216416666666667</v>
       </c>
       <c r="R10" s="14" t="n">
-        <v>0</v>
+        <v>0.064925</v>
       </c>
       <c r="S10" s="14" t="n">
-        <v>0</v>
+        <v>0.0216416666666667</v>
       </c>
       <c r="T10" s="14" t="n">
-        <v>0</v>
+        <v>0.0216416666666667</v>
       </c>
       <c r="U10" s="14" t="n">
-        <v>0</v>
+        <v>0.0216416666666667</v>
       </c>
       <c r="V10" s="14" t="n">
-        <v>0</v>
+        <v>0.064925</v>
       </c>
       <c r="W10" s="14" t="n">
-        <v>0</v>
+        <v>0.2597</v>
       </c>
     </row>
   </sheetData>
@@ -3016,7 +3016,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="15" t="n">
-        <v>0</v>
+        <v>0.0889</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -3087,7 +3087,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="15" t="n">
-        <v>0</v>
+        <v>0.0889</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -3158,7 +3158,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="15" t="n">
-        <v>0</v>
+        <v>0.0889</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -3182,37 +3182,37 @@
         <v>0.0227</v>
       </c>
       <c r="M4" s="15" t="n">
-        <v>0</v>
+        <v>0.0177833333333333</v>
       </c>
       <c r="N4" s="15" t="n">
-        <v>0</v>
+        <v>0.05335</v>
       </c>
       <c r="O4" s="15" t="n">
-        <v>0</v>
+        <v>0.0177833333333333</v>
       </c>
       <c r="P4" s="15" t="n">
-        <v>0</v>
+        <v>0.0177833333333333</v>
       </c>
       <c r="Q4" s="15" t="n">
-        <v>0</v>
+        <v>0.0177833333333333</v>
       </c>
       <c r="R4" s="15" t="n">
-        <v>0</v>
+        <v>0.05335</v>
       </c>
       <c r="S4" s="15" t="n">
-        <v>0</v>
+        <v>0.0177833333333333</v>
       </c>
       <c r="T4" s="15" t="n">
-        <v>0</v>
+        <v>0.0177833333333333</v>
       </c>
       <c r="U4" s="15" t="n">
-        <v>0</v>
+        <v>0.0177833333333333</v>
       </c>
       <c r="V4" s="15" t="n">
-        <v>0</v>
+        <v>0.05335</v>
       </c>
       <c r="W4" s="15" t="n">
-        <v>0</v>
+        <v>0.2134</v>
       </c>
     </row>
     <row r="5">
@@ -3416,7 +3416,7 @@
         <v>33</v>
       </c>
       <c r="E8" s="15" t="n">
-        <v>0.0776</v>
+        <v>0.0731</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -3487,7 +3487,7 @@
         <v>33</v>
       </c>
       <c r="E9" s="15" t="n">
-        <v>0.0776</v>
+        <v>0.0731</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -3558,7 +3558,7 @@
         <v>33</v>
       </c>
       <c r="E10" s="15" t="n">
-        <v>0.0776</v>
+        <v>0.0731</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -3582,37 +3582,37 @@
         <v>0.0597</v>
       </c>
       <c r="M10" s="15" t="n">
-        <v>0</v>
+        <v>0.0146166666666667</v>
       </c>
       <c r="N10" s="15" t="n">
-        <v>0</v>
+        <v>0.04385</v>
       </c>
       <c r="O10" s="15" t="n">
-        <v>0</v>
+        <v>0.0146166666666667</v>
       </c>
       <c r="P10" s="15" t="n">
-        <v>0</v>
+        <v>0.0146166666666667</v>
       </c>
       <c r="Q10" s="15" t="n">
-        <v>0</v>
+        <v>0.0146166666666667</v>
       </c>
       <c r="R10" s="15" t="n">
-        <v>0</v>
+        <v>0.04385</v>
       </c>
       <c r="S10" s="15" t="n">
-        <v>0</v>
+        <v>0.0146166666666667</v>
       </c>
       <c r="T10" s="15" t="n">
-        <v>0</v>
+        <v>0.0146166666666667</v>
       </c>
       <c r="U10" s="15" t="n">
-        <v>0</v>
+        <v>0.0146166666666667</v>
       </c>
       <c r="V10" s="15" t="n">
-        <v>0</v>
+        <v>0.04385</v>
       </c>
       <c r="W10" s="15" t="n">
-        <v>0</v>
+        <v>0.1754</v>
       </c>
     </row>
   </sheetData>
@@ -3714,7 +3714,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="16" t="n">
-        <v>0</v>
+        <v>0.0174</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -3785,7 +3785,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="16" t="n">
-        <v>0</v>
+        <v>0.0174</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -3856,7 +3856,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="16" t="n">
-        <v>0</v>
+        <v>0.0174</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -3880,37 +3880,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="16" t="n">
-        <v>0</v>
+        <v>0.00348333333333333</v>
       </c>
       <c r="N4" s="16" t="n">
-        <v>0</v>
+        <v>0.01045</v>
       </c>
       <c r="O4" s="16" t="n">
-        <v>0</v>
+        <v>0.00348333333333333</v>
       </c>
       <c r="P4" s="16" t="n">
-        <v>0</v>
+        <v>0.00348333333333333</v>
       </c>
       <c r="Q4" s="16" t="n">
-        <v>0</v>
+        <v>0.00348333333333333</v>
       </c>
       <c r="R4" s="16" t="n">
-        <v>0</v>
+        <v>0.01045</v>
       </c>
       <c r="S4" s="16" t="n">
-        <v>0</v>
+        <v>0.00348333333333333</v>
       </c>
       <c r="T4" s="16" t="n">
-        <v>0</v>
+        <v>0.00348333333333333</v>
       </c>
       <c r="U4" s="16" t="n">
-        <v>0</v>
+        <v>0.00348333333333333</v>
       </c>
       <c r="V4" s="16" t="n">
-        <v>0</v>
+        <v>0.01045</v>
       </c>
       <c r="W4" s="16" t="n">
-        <v>0</v>
+        <v>0.0418</v>
       </c>
     </row>
     <row r="5">
@@ -4126,7 +4126,7 @@
         <v>33</v>
       </c>
       <c r="E8" s="16" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -4197,7 +4197,7 @@
         <v>33</v>
       </c>
       <c r="E9" s="16" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -4268,7 +4268,7 @@
         <v>33</v>
       </c>
       <c r="E10" s="16" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -4751,7 +4751,7 @@
         <v>33</v>
       </c>
       <c r="E7" s="17" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -4822,7 +4822,7 @@
         <v>33</v>
       </c>
       <c r="E8" s="17" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -4893,7 +4893,7 @@
         <v>33</v>
       </c>
       <c r="E9" s="17" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -5670,7 +5670,7 @@
         <v>33</v>
       </c>
       <c r="E7" s="19" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
@@ -5825,9 +5825,7 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="2" t="n">
-        <v>0</v>
-      </c>
+      <c r="E2" s="2"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -5870,9 +5868,7 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="2" t="n">
-        <v>0</v>
-      </c>
+      <c r="E3" s="2"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -6001,7 +5997,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="20" t="n">
-        <v>0</v>
+        <v>0.0554</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -6072,7 +6068,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="20" t="n">
-        <v>0</v>
+        <v>0.0554</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -6143,7 +6139,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="20" t="n">
-        <v>0</v>
+        <v>0.0554</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -6167,37 +6163,37 @@
         <v>0.0385</v>
       </c>
       <c r="M4" s="20" t="n">
-        <v>0</v>
+        <v>0.0110833333333333</v>
       </c>
       <c r="N4" s="20" t="n">
-        <v>0</v>
+        <v>0.03325</v>
       </c>
       <c r="O4" s="20" t="n">
-        <v>0</v>
+        <v>0.0110833333333333</v>
       </c>
       <c r="P4" s="20" t="n">
-        <v>0</v>
+        <v>0.0110833333333333</v>
       </c>
       <c r="Q4" s="20" t="n">
-        <v>0</v>
+        <v>0.0110833333333333</v>
       </c>
       <c r="R4" s="20" t="n">
-        <v>0</v>
+        <v>0.03325</v>
       </c>
       <c r="S4" s="20" t="n">
-        <v>0</v>
+        <v>0.0110833333333333</v>
       </c>
       <c r="T4" s="20" t="n">
-        <v>0</v>
+        <v>0.0110833333333333</v>
       </c>
       <c r="U4" s="20" t="n">
-        <v>0</v>
+        <v>0.0110833333333333</v>
       </c>
       <c r="V4" s="20" t="n">
-        <v>0</v>
+        <v>0.03325</v>
       </c>
       <c r="W4" s="20" t="n">
-        <v>0</v>
+        <v>0.133</v>
       </c>
     </row>
     <row r="5">
@@ -6324,7 +6320,7 @@
         <v>33</v>
       </c>
       <c r="E7" s="20" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -6395,7 +6391,7 @@
         <v>33</v>
       </c>
       <c r="E8" s="20" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -6466,7 +6462,7 @@
         <v>33</v>
       </c>
       <c r="E9" s="20" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -6622,7 +6618,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="21" t="n">
-        <v>0</v>
+        <v>0.0323</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -6693,7 +6689,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="21" t="n">
-        <v>0</v>
+        <v>0.0323</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -6764,7 +6760,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="21" t="n">
-        <v>0</v>
+        <v>0.0323</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -6788,37 +6784,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="21" t="n">
-        <v>0</v>
+        <v>0.00645833333333333</v>
       </c>
       <c r="N4" s="21" t="n">
-        <v>0</v>
+        <v>0.019375</v>
       </c>
       <c r="O4" s="21" t="n">
-        <v>0</v>
+        <v>0.00645833333333333</v>
       </c>
       <c r="P4" s="21" t="n">
-        <v>0</v>
+        <v>0.00645833333333333</v>
       </c>
       <c r="Q4" s="21" t="n">
-        <v>0</v>
+        <v>0.00645833333333333</v>
       </c>
       <c r="R4" s="21" t="n">
-        <v>0</v>
+        <v>0.019375</v>
       </c>
       <c r="S4" s="21" t="n">
-        <v>0</v>
+        <v>0.00645833333333333</v>
       </c>
       <c r="T4" s="21" t="n">
-        <v>0</v>
+        <v>0.00645833333333333</v>
       </c>
       <c r="U4" s="21" t="n">
-        <v>0</v>
+        <v>0.00645833333333333</v>
       </c>
       <c r="V4" s="21" t="n">
-        <v>0</v>
+        <v>0.019375</v>
       </c>
       <c r="W4" s="21" t="n">
-        <v>0</v>
+        <v>0.0775</v>
       </c>
     </row>
     <row r="5">
@@ -7016,7 +7012,7 @@
         <v>33</v>
       </c>
       <c r="E8" s="21" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -7087,7 +7083,7 @@
         <v>33</v>
       </c>
       <c r="E9" s="21" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -7158,7 +7154,7 @@
         <v>33</v>
       </c>
       <c r="E10" s="21" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -7527,7 +7523,7 @@
         <v>33</v>
       </c>
       <c r="E5" s="22" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -7598,7 +7594,7 @@
         <v>33</v>
       </c>
       <c r="E6" s="22" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -7669,7 +7665,7 @@
         <v>33</v>
       </c>
       <c r="E7" s="22" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
@@ -7824,9 +7820,7 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="23" t="n">
-        <v>0</v>
-      </c>
+      <c r="E2" s="23"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -7895,9 +7889,7 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="23" t="n">
-        <v>0</v>
-      </c>
+      <c r="E3" s="23"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -8052,7 +8044,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="24" t="n">
-        <v>0</v>
+        <v>0.3333</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -8123,7 +8115,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="24" t="n">
-        <v>0</v>
+        <v>0.3333</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -8194,7 +8186,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="24" t="n">
-        <v>0</v>
+        <v>0.3333</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -8218,37 +8210,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="24" t="n">
-        <v>0</v>
+        <v>0.0666583333333333</v>
       </c>
       <c r="N4" s="24" t="n">
-        <v>0</v>
+        <v>0.199975</v>
       </c>
       <c r="O4" s="24" t="n">
-        <v>0</v>
+        <v>0.0666583333333333</v>
       </c>
       <c r="P4" s="24" t="n">
-        <v>0</v>
+        <v>0.0666583333333333</v>
       </c>
       <c r="Q4" s="24" t="n">
-        <v>0</v>
+        <v>0.0666583333333333</v>
       </c>
       <c r="R4" s="24" t="n">
-        <v>0</v>
+        <v>0.199975</v>
       </c>
       <c r="S4" s="24" t="n">
-        <v>0</v>
+        <v>0.0666583333333333</v>
       </c>
       <c r="T4" s="24" t="n">
-        <v>0</v>
+        <v>0.0666583333333333</v>
       </c>
       <c r="U4" s="24" t="n">
-        <v>0</v>
+        <v>0.0666583333333333</v>
       </c>
       <c r="V4" s="24" t="n">
-        <v>0</v>
+        <v>0.199975</v>
       </c>
       <c r="W4" s="24" t="n">
-        <v>0</v>
+        <v>0.7999</v>
       </c>
     </row>
   </sheetData>
@@ -8350,7 +8342,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="25" t="n">
-        <v>0</v>
+        <v>0.1136</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -8421,7 +8413,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="25" t="n">
-        <v>0</v>
+        <v>0.1136</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -8492,7 +8484,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="25" t="n">
-        <v>0</v>
+        <v>0.1136</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -8516,37 +8508,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="25" t="n">
-        <v>0</v>
+        <v>0.0227166666666667</v>
       </c>
       <c r="N4" s="25" t="n">
-        <v>0</v>
+        <v>0.06815</v>
       </c>
       <c r="O4" s="25" t="n">
-        <v>0</v>
+        <v>0.0227166666666667</v>
       </c>
       <c r="P4" s="25" t="n">
-        <v>0</v>
+        <v>0.0227166666666667</v>
       </c>
       <c r="Q4" s="25" t="n">
-        <v>0</v>
+        <v>0.0227166666666667</v>
       </c>
       <c r="R4" s="25" t="n">
-        <v>0</v>
+        <v>0.06815</v>
       </c>
       <c r="S4" s="25" t="n">
-        <v>0</v>
+        <v>0.0227166666666667</v>
       </c>
       <c r="T4" s="25" t="n">
-        <v>0</v>
+        <v>0.0227166666666667</v>
       </c>
       <c r="U4" s="25" t="n">
-        <v>0</v>
+        <v>0.0227166666666667</v>
       </c>
       <c r="V4" s="25" t="n">
-        <v>0</v>
+        <v>0.06815</v>
       </c>
       <c r="W4" s="25" t="n">
-        <v>0</v>
+        <v>0.2726</v>
       </c>
     </row>
     <row r="5">
@@ -8626,7 +8618,7 @@
         <v>33</v>
       </c>
       <c r="E6" s="25" t="n">
-        <v>0.0776</v>
+        <v>0.0806</v>
       </c>
       <c r="F6" t="s">
         <v>27</v>
@@ -8697,7 +8689,7 @@
         <v>33</v>
       </c>
       <c r="E7" s="25" t="n">
-        <v>0.0776</v>
+        <v>0.0806</v>
       </c>
       <c r="F7" t="s">
         <v>28</v>
@@ -8768,7 +8760,7 @@
         <v>33</v>
       </c>
       <c r="E8" s="25" t="n">
-        <v>0.0776</v>
+        <v>0.0806</v>
       </c>
       <c r="F8" t="s">
         <v>29</v>
@@ -8792,37 +8784,37 @@
         <v>0</v>
       </c>
       <c r="M8" s="25" t="n">
-        <v>0</v>
+        <v>0.0161166666666667</v>
       </c>
       <c r="N8" s="25" t="n">
-        <v>0</v>
+        <v>0.04835</v>
       </c>
       <c r="O8" s="25" t="n">
-        <v>0</v>
+        <v>0.0161166666666667</v>
       </c>
       <c r="P8" s="25" t="n">
-        <v>0</v>
+        <v>0.0161166666666667</v>
       </c>
       <c r="Q8" s="25" t="n">
-        <v>0</v>
+        <v>0.0161166666666667</v>
       </c>
       <c r="R8" s="25" t="n">
-        <v>0</v>
+        <v>0.04835</v>
       </c>
       <c r="S8" s="25" t="n">
-        <v>0</v>
+        <v>0.0161166666666667</v>
       </c>
       <c r="T8" s="25" t="n">
-        <v>0</v>
+        <v>0.0161166666666667</v>
       </c>
       <c r="U8" s="25" t="n">
-        <v>0</v>
+        <v>0.0161166666666667</v>
       </c>
       <c r="V8" s="25" t="n">
-        <v>0</v>
+        <v>0.04835</v>
       </c>
       <c r="W8" s="25" t="n">
-        <v>0</v>
+        <v>0.1934</v>
       </c>
     </row>
   </sheetData>
@@ -9222,7 +9214,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="27" t="n">
-        <v>0</v>
+        <v>0.2273</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -9293,7 +9285,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="27" t="n">
-        <v>0</v>
+        <v>0.2273</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -9364,7 +9356,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="27" t="n">
-        <v>0</v>
+        <v>0.2273</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -9388,37 +9380,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="27" t="n">
-        <v>0</v>
+        <v>0.0454583333333333</v>
       </c>
       <c r="N4" s="27" t="n">
-        <v>0</v>
+        <v>0.136375</v>
       </c>
       <c r="O4" s="27" t="n">
-        <v>0</v>
+        <v>0.0454583333333333</v>
       </c>
       <c r="P4" s="27" t="n">
-        <v>0</v>
+        <v>0.0454583333333333</v>
       </c>
       <c r="Q4" s="27" t="n">
-        <v>0</v>
+        <v>0.0454583333333333</v>
       </c>
       <c r="R4" s="27" t="n">
-        <v>0</v>
+        <v>0.136375</v>
       </c>
       <c r="S4" s="27" t="n">
-        <v>0</v>
+        <v>0.0454583333333333</v>
       </c>
       <c r="T4" s="27" t="n">
-        <v>0</v>
+        <v>0.0454583333333333</v>
       </c>
       <c r="U4" s="27" t="n">
-        <v>0</v>
+        <v>0.0454583333333333</v>
       </c>
       <c r="V4" s="27" t="n">
-        <v>0</v>
+        <v>0.136375</v>
       </c>
       <c r="W4" s="27" t="n">
-        <v>0</v>
+        <v>0.5455</v>
       </c>
     </row>
     <row r="5">
@@ -9435,7 +9427,7 @@
         <v>33</v>
       </c>
       <c r="E5" s="27" t="n">
-        <v>0.0776</v>
+        <v>0.0513</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -9506,7 +9498,7 @@
         <v>33</v>
       </c>
       <c r="E6" s="27" t="n">
-        <v>0.0776</v>
+        <v>0.0513</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -9577,7 +9569,7 @@
         <v>33</v>
       </c>
       <c r="E7" s="27" t="n">
-        <v>0.0776</v>
+        <v>0.0513</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
@@ -9601,37 +9593,37 @@
         <v>0</v>
       </c>
       <c r="M7" s="27" t="n">
-        <v>0</v>
+        <v>0.0102583333333333</v>
       </c>
       <c r="N7" s="27" t="n">
-        <v>0</v>
+        <v>0.030775</v>
       </c>
       <c r="O7" s="27" t="n">
-        <v>0</v>
+        <v>0.0102583333333333</v>
       </c>
       <c r="P7" s="27" t="n">
-        <v>0</v>
+        <v>0.0102583333333333</v>
       </c>
       <c r="Q7" s="27" t="n">
-        <v>0</v>
+        <v>0.0102583333333333</v>
       </c>
       <c r="R7" s="27" t="n">
-        <v>0</v>
+        <v>0.030775</v>
       </c>
       <c r="S7" s="27" t="n">
-        <v>0</v>
+        <v>0.0102583333333333</v>
       </c>
       <c r="T7" s="27" t="n">
-        <v>0</v>
+        <v>0.0102583333333333</v>
       </c>
       <c r="U7" s="27" t="n">
-        <v>0</v>
+        <v>0.0102583333333333</v>
       </c>
       <c r="V7" s="27" t="n">
-        <v>0</v>
+        <v>0.030775</v>
       </c>
       <c r="W7" s="27" t="n">
-        <v>0</v>
+        <v>0.1231</v>
       </c>
     </row>
   </sheetData>
@@ -9733,7 +9725,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="28" t="n">
-        <v>0</v>
+        <v>0.1705</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -9804,7 +9796,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="28" t="n">
-        <v>0</v>
+        <v>0.1705</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -9875,7 +9867,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="28" t="n">
-        <v>0</v>
+        <v>0.1705</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -9899,37 +9891,37 @@
         <v>0.0625</v>
       </c>
       <c r="M4" s="28" t="n">
-        <v>0</v>
+        <v>0.0341</v>
       </c>
       <c r="N4" s="28" t="n">
-        <v>0</v>
+        <v>0.1023</v>
       </c>
       <c r="O4" s="28" t="n">
-        <v>0</v>
+        <v>0.0341</v>
       </c>
       <c r="P4" s="28" t="n">
-        <v>0</v>
+        <v>0.0341</v>
       </c>
       <c r="Q4" s="28" t="n">
-        <v>0</v>
+        <v>0.0341</v>
       </c>
       <c r="R4" s="28" t="n">
-        <v>0</v>
+        <v>0.1023</v>
       </c>
       <c r="S4" s="28" t="n">
-        <v>0</v>
+        <v>0.0341</v>
       </c>
       <c r="T4" s="28" t="n">
-        <v>0</v>
+        <v>0.0341</v>
       </c>
       <c r="U4" s="28" t="n">
-        <v>0</v>
+        <v>0.0341</v>
       </c>
       <c r="V4" s="28" t="n">
-        <v>0</v>
+        <v>0.1023</v>
       </c>
       <c r="W4" s="28" t="n">
-        <v>0</v>
+        <v>0.4092</v>
       </c>
     </row>
     <row r="5">
@@ -10129,7 +10121,7 @@
         <v>33</v>
       </c>
       <c r="E8" s="28" t="n">
-        <v>0.0776</v>
+        <v>0.098</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -10200,7 +10192,7 @@
         <v>33</v>
       </c>
       <c r="E9" s="28" t="n">
-        <v>0.0776</v>
+        <v>0.098</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -10271,7 +10263,7 @@
         <v>33</v>
       </c>
       <c r="E10" s="28" t="n">
-        <v>0.0776</v>
+        <v>0.098</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -10295,37 +10287,37 @@
         <v>0.05</v>
       </c>
       <c r="M10" s="28" t="n">
-        <v>0</v>
+        <v>0.0196</v>
       </c>
       <c r="N10" s="28" t="n">
-        <v>0</v>
+        <v>0.0588</v>
       </c>
       <c r="O10" s="28" t="n">
-        <v>0</v>
+        <v>0.0196</v>
       </c>
       <c r="P10" s="28" t="n">
-        <v>0</v>
+        <v>0.0196</v>
       </c>
       <c r="Q10" s="28" t="n">
-        <v>0</v>
+        <v>0.0196</v>
       </c>
       <c r="R10" s="28" t="n">
-        <v>0</v>
+        <v>0.0588</v>
       </c>
       <c r="S10" s="28" t="n">
-        <v>0</v>
+        <v>0.0196</v>
       </c>
       <c r="T10" s="28" t="n">
-        <v>0</v>
+        <v>0.0196</v>
       </c>
       <c r="U10" s="28" t="n">
-        <v>0</v>
+        <v>0.0196</v>
       </c>
       <c r="V10" s="28" t="n">
-        <v>0</v>
+        <v>0.0588</v>
       </c>
       <c r="W10" s="28" t="n">
-        <v>0</v>
+        <v>0.2352</v>
       </c>
     </row>
   </sheetData>
@@ -10427,7 +10419,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="29" t="n">
-        <v>0</v>
+        <v>0.0258</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -10498,7 +10490,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="29" t="n">
-        <v>0</v>
+        <v>0.0258</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -10569,7 +10561,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="29" t="n">
-        <v>0</v>
+        <v>0.0258</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -10593,37 +10585,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="29" t="n">
-        <v>0</v>
+        <v>0.00515833333333333</v>
       </c>
       <c r="N4" s="29" t="n">
-        <v>0</v>
+        <v>0.015475</v>
       </c>
       <c r="O4" s="29" t="n">
-        <v>0</v>
+        <v>0.00515833333333333</v>
       </c>
       <c r="P4" s="29" t="n">
-        <v>0</v>
+        <v>0.00515833333333333</v>
       </c>
       <c r="Q4" s="29" t="n">
-        <v>0</v>
+        <v>0.00515833333333333</v>
       </c>
       <c r="R4" s="29" t="n">
-        <v>0</v>
+        <v>0.015475</v>
       </c>
       <c r="S4" s="29" t="n">
-        <v>0</v>
+        <v>0.00515833333333333</v>
       </c>
       <c r="T4" s="29" t="n">
-        <v>0</v>
+        <v>0.00515833333333333</v>
       </c>
       <c r="U4" s="29" t="n">
-        <v>0</v>
+        <v>0.00515833333333333</v>
       </c>
       <c r="V4" s="29" t="n">
-        <v>0</v>
+        <v>0.015475</v>
       </c>
       <c r="W4" s="29" t="n">
-        <v>0</v>
+        <v>0.0619</v>
       </c>
     </row>
     <row r="5">
@@ -10924,7 +10916,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="3" t="n">
-        <v>0</v>
+        <v>0.0254</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -10995,7 +10987,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="3" t="n">
-        <v>0</v>
+        <v>0.0254</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -11066,7 +11058,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="3" t="n">
-        <v>0</v>
+        <v>0.0254</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -11090,37 +11082,37 @@
         <v>0.0256</v>
       </c>
       <c r="M4" s="3" t="n">
-        <v>0</v>
+        <v>0.00508333333333333</v>
       </c>
       <c r="N4" s="3" t="n">
-        <v>0</v>
+        <v>0.01525</v>
       </c>
       <c r="O4" s="3" t="n">
-        <v>0</v>
+        <v>0.00508333333333333</v>
       </c>
       <c r="P4" s="3" t="n">
-        <v>0</v>
+        <v>0.00508333333333333</v>
       </c>
       <c r="Q4" s="3" t="n">
-        <v>0</v>
+        <v>0.00508333333333333</v>
       </c>
       <c r="R4" s="3" t="n">
-        <v>0</v>
+        <v>0.01525</v>
       </c>
       <c r="S4" s="3" t="n">
-        <v>0</v>
+        <v>0.00508333333333333</v>
       </c>
       <c r="T4" s="3" t="n">
-        <v>0</v>
+        <v>0.00508333333333333</v>
       </c>
       <c r="U4" s="3" t="n">
-        <v>0</v>
+        <v>0.00508333333333333</v>
       </c>
       <c r="V4" s="3" t="n">
-        <v>0</v>
+        <v>0.01525</v>
       </c>
       <c r="W4" s="3" t="n">
-        <v>0</v>
+        <v>0.061</v>
       </c>
     </row>
     <row r="5">
@@ -11322,7 +11314,7 @@
         <v>33</v>
       </c>
       <c r="E8" s="3" t="n">
-        <v>0.0776</v>
+        <v>0.1014</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -11393,7 +11385,7 @@
         <v>33</v>
       </c>
       <c r="E9" s="3" t="n">
-        <v>0.0776</v>
+        <v>0.1014</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -11464,7 +11456,7 @@
         <v>33</v>
       </c>
       <c r="E10" s="3" t="n">
-        <v>0.0776</v>
+        <v>0.1014</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -11488,37 +11480,37 @@
         <v>0.0064</v>
       </c>
       <c r="M10" s="3" t="n">
-        <v>0</v>
+        <v>0.0202833333333333</v>
       </c>
       <c r="N10" s="3" t="n">
-        <v>0</v>
+        <v>0.06085</v>
       </c>
       <c r="O10" s="3" t="n">
-        <v>0</v>
+        <v>0.0202833333333333</v>
       </c>
       <c r="P10" s="3" t="n">
-        <v>0</v>
+        <v>0.0202833333333333</v>
       </c>
       <c r="Q10" s="3" t="n">
-        <v>0</v>
+        <v>0.0202833333333333</v>
       </c>
       <c r="R10" s="3" t="n">
-        <v>0</v>
+        <v>0.06085</v>
       </c>
       <c r="S10" s="3" t="n">
-        <v>0</v>
+        <v>0.0202833333333333</v>
       </c>
       <c r="T10" s="3" t="n">
-        <v>0</v>
+        <v>0.0202833333333333</v>
       </c>
       <c r="U10" s="3" t="n">
-        <v>0</v>
+        <v>0.0202833333333333</v>
       </c>
       <c r="V10" s="3" t="n">
-        <v>0</v>
+        <v>0.06085</v>
       </c>
       <c r="W10" s="3" t="n">
-        <v>0</v>
+        <v>0.2434</v>
       </c>
     </row>
   </sheetData>
@@ -11620,7 +11612,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="30" t="n">
-        <v>0</v>
+        <v>0.2381</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -11691,7 +11683,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="30" t="n">
-        <v>0</v>
+        <v>0.2381</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -11762,7 +11754,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="30" t="n">
-        <v>0</v>
+        <v>0.2381</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -11786,37 +11778,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="30" t="n">
-        <v>0</v>
+        <v>0.0476166666666667</v>
       </c>
       <c r="N4" s="30" t="n">
-        <v>0</v>
+        <v>0.14285</v>
       </c>
       <c r="O4" s="30" t="n">
-        <v>0</v>
+        <v>0.0476166666666667</v>
       </c>
       <c r="P4" s="30" t="n">
-        <v>0</v>
+        <v>0.0476166666666667</v>
       </c>
       <c r="Q4" s="30" t="n">
-        <v>0</v>
+        <v>0.0476166666666667</v>
       </c>
       <c r="R4" s="30" t="n">
-        <v>0</v>
+        <v>0.14285</v>
       </c>
       <c r="S4" s="30" t="n">
-        <v>0</v>
+        <v>0.0476166666666667</v>
       </c>
       <c r="T4" s="30" t="n">
-        <v>0</v>
+        <v>0.0476166666666667</v>
       </c>
       <c r="U4" s="30" t="n">
-        <v>0</v>
+        <v>0.0476166666666667</v>
       </c>
       <c r="V4" s="30" t="n">
-        <v>0</v>
+        <v>0.14285</v>
       </c>
       <c r="W4" s="30" t="n">
-        <v>0</v>
+        <v>0.5714</v>
       </c>
     </row>
     <row r="5">
@@ -11953,7 +11945,7 @@
         <v>33</v>
       </c>
       <c r="E7" s="30" t="n">
-        <v>0.0776</v>
+        <v>0.0692</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -12024,7 +12016,7 @@
         <v>33</v>
       </c>
       <c r="E8" s="30" t="n">
-        <v>0.0776</v>
+        <v>0.0692</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -12095,7 +12087,7 @@
         <v>33</v>
       </c>
       <c r="E9" s="30" t="n">
-        <v>0.0776</v>
+        <v>0.0692</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -12119,37 +12111,37 @@
         <v>0.0179</v>
       </c>
       <c r="M9" s="30" t="n">
-        <v>0</v>
+        <v>0.0138416666666667</v>
       </c>
       <c r="N9" s="30" t="n">
-        <v>0</v>
+        <v>0.041525</v>
       </c>
       <c r="O9" s="30" t="n">
-        <v>0</v>
+        <v>0.0138416666666667</v>
       </c>
       <c r="P9" s="30" t="n">
-        <v>0</v>
+        <v>0.0138416666666667</v>
       </c>
       <c r="Q9" s="30" t="n">
-        <v>0</v>
+        <v>0.0138416666666667</v>
       </c>
       <c r="R9" s="30" t="n">
-        <v>0</v>
+        <v>0.041525</v>
       </c>
       <c r="S9" s="30" t="n">
-        <v>0</v>
+        <v>0.0138416666666667</v>
       </c>
       <c r="T9" s="30" t="n">
-        <v>0</v>
+        <v>0.0138416666666667</v>
       </c>
       <c r="U9" s="30" t="n">
-        <v>0</v>
+        <v>0.0138416666666667</v>
       </c>
       <c r="V9" s="30" t="n">
-        <v>0</v>
+        <v>0.041525</v>
       </c>
       <c r="W9" s="30" t="n">
-        <v>0</v>
+        <v>0.1661</v>
       </c>
     </row>
   </sheetData>
@@ -12645,7 +12637,7 @@
         <v>33</v>
       </c>
       <c r="E8" s="31" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -12716,7 +12708,7 @@
         <v>33</v>
       </c>
       <c r="E9" s="31" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -12787,7 +12779,7 @@
         <v>33</v>
       </c>
       <c r="E10" s="31" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -12943,7 +12935,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="32" t="n">
-        <v>0</v>
+        <v>0.0196</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -13014,7 +13006,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="32" t="n">
-        <v>0</v>
+        <v>0.0196</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -13085,7 +13077,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="32" t="n">
-        <v>0</v>
+        <v>0.0196</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -13109,37 +13101,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="32" t="n">
-        <v>0</v>
+        <v>0.00391666666666667</v>
       </c>
       <c r="N4" s="32" t="n">
-        <v>0</v>
+        <v>0.01175</v>
       </c>
       <c r="O4" s="32" t="n">
-        <v>0</v>
+        <v>0.00391666666666667</v>
       </c>
       <c r="P4" s="32" t="n">
-        <v>0</v>
+        <v>0.00391666666666667</v>
       </c>
       <c r="Q4" s="32" t="n">
-        <v>0</v>
+        <v>0.00391666666666667</v>
       </c>
       <c r="R4" s="32" t="n">
-        <v>0</v>
+        <v>0.01175</v>
       </c>
       <c r="S4" s="32" t="n">
-        <v>0</v>
+        <v>0.00391666666666667</v>
       </c>
       <c r="T4" s="32" t="n">
-        <v>0</v>
+        <v>0.00391666666666667</v>
       </c>
       <c r="U4" s="32" t="n">
-        <v>0</v>
+        <v>0.00391666666666667</v>
       </c>
       <c r="V4" s="32" t="n">
-        <v>0</v>
+        <v>0.01175</v>
       </c>
       <c r="W4" s="32" t="n">
-        <v>0</v>
+        <v>0.047</v>
       </c>
     </row>
     <row r="5">
@@ -13351,7 +13343,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="33" t="n">
-        <v>0</v>
+        <v>0.0971</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -13422,7 +13414,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="33" t="n">
-        <v>0</v>
+        <v>0.0971</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -13493,7 +13485,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="33" t="n">
-        <v>0</v>
+        <v>0.0971</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -13517,37 +13509,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="33" t="n">
-        <v>0</v>
+        <v>0.0194166666666667</v>
       </c>
       <c r="N4" s="33" t="n">
-        <v>0</v>
+        <v>0.05825</v>
       </c>
       <c r="O4" s="33" t="n">
-        <v>0</v>
+        <v>0.0194166666666667</v>
       </c>
       <c r="P4" s="33" t="n">
-        <v>0</v>
+        <v>0.0194166666666667</v>
       </c>
       <c r="Q4" s="33" t="n">
-        <v>0</v>
+        <v>0.0194166666666667</v>
       </c>
       <c r="R4" s="33" t="n">
-        <v>0</v>
+        <v>0.05825</v>
       </c>
       <c r="S4" s="33" t="n">
-        <v>0</v>
+        <v>0.0194166666666667</v>
       </c>
       <c r="T4" s="33" t="n">
-        <v>0</v>
+        <v>0.0194166666666667</v>
       </c>
       <c r="U4" s="33" t="n">
-        <v>0</v>
+        <v>0.0194166666666667</v>
       </c>
       <c r="V4" s="33" t="n">
-        <v>0</v>
+        <v>0.05825</v>
       </c>
       <c r="W4" s="33" t="n">
-        <v>0</v>
+        <v>0.233</v>
       </c>
     </row>
     <row r="5">
@@ -13676,7 +13668,7 @@
         <v>33</v>
       </c>
       <c r="E7" s="33" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -13747,7 +13739,7 @@
         <v>33</v>
       </c>
       <c r="E8" s="33" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -13818,7 +13810,7 @@
         <v>33</v>
       </c>
       <c r="E9" s="33" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -14295,7 +14287,7 @@
         <v>33</v>
       </c>
       <c r="E7" s="34" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -14366,7 +14358,7 @@
         <v>33</v>
       </c>
       <c r="E8" s="34" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -14437,7 +14429,7 @@
         <v>33</v>
       </c>
       <c r="E9" s="34" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -14592,9 +14584,7 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="35" t="n">
-        <v>0</v>
-      </c>
+      <c r="E2" s="35"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -14635,9 +14625,7 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="35" t="n">
-        <v>0</v>
-      </c>
+      <c r="E3" s="35"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -15767,9 +15755,7 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="39" t="n">
-        <v>0</v>
-      </c>
+      <c r="E2" s="39"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -15838,9 +15824,7 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="39" t="n">
-        <v>0</v>
-      </c>
+      <c r="E3" s="39"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -16726,7 +16710,7 @@
         <v>33</v>
       </c>
       <c r="E5" s="40" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -16783,7 +16767,7 @@
         <v>33</v>
       </c>
       <c r="E6" s="40" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -16840,7 +16824,7 @@
         <v>33</v>
       </c>
       <c r="E7" s="40" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
@@ -17378,7 +17362,7 @@
         <v>33</v>
       </c>
       <c r="E8" s="41" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -17449,7 +17433,7 @@
         <v>33</v>
       </c>
       <c r="E9" s="41" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -17520,7 +17504,7 @@
         <v>33</v>
       </c>
       <c r="E10" s="41" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -17676,7 +17660,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="42" t="n">
-        <v>0</v>
+        <v>0.0312</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -17747,7 +17731,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="42" t="n">
-        <v>0</v>
+        <v>0.0312</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -17818,7 +17802,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="42" t="n">
-        <v>0</v>
+        <v>0.0312</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -17842,37 +17826,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="42" t="n">
-        <v>0</v>
+        <v>0.00624166666666667</v>
       </c>
       <c r="N4" s="42" t="n">
-        <v>0</v>
+        <v>0.018725</v>
       </c>
       <c r="O4" s="42" t="n">
-        <v>0</v>
+        <v>0.00624166666666667</v>
       </c>
       <c r="P4" s="42" t="n">
-        <v>0</v>
+        <v>0.00624166666666667</v>
       </c>
       <c r="Q4" s="42" t="n">
-        <v>0</v>
+        <v>0.00624166666666667</v>
       </c>
       <c r="R4" s="42" t="n">
-        <v>0</v>
+        <v>0.018725</v>
       </c>
       <c r="S4" s="42" t="n">
-        <v>0</v>
+        <v>0.00624166666666667</v>
       </c>
       <c r="T4" s="42" t="n">
-        <v>0</v>
+        <v>0.00624166666666667</v>
       </c>
       <c r="U4" s="42" t="n">
-        <v>0</v>
+        <v>0.00624166666666667</v>
       </c>
       <c r="V4" s="42" t="n">
-        <v>0</v>
+        <v>0.018725</v>
       </c>
       <c r="W4" s="42" t="n">
-        <v>0</v>
+        <v>0.0749</v>
       </c>
     </row>
     <row r="5">
@@ -18072,7 +18056,7 @@
         <v>33</v>
       </c>
       <c r="E8" s="42" t="n">
-        <v>0.0776</v>
+        <v>0.0278</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -18143,7 +18127,7 @@
         <v>33</v>
       </c>
       <c r="E9" s="42" t="n">
-        <v>0.0776</v>
+        <v>0.0278</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -18214,7 +18198,7 @@
         <v>33</v>
       </c>
       <c r="E10" s="42" t="n">
-        <v>0.0776</v>
+        <v>0.0278</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -18238,37 +18222,37 @@
         <v>0.0278</v>
       </c>
       <c r="M10" s="42" t="n">
-        <v>0</v>
+        <v>0.00555833333333333</v>
       </c>
       <c r="N10" s="42" t="n">
-        <v>0</v>
+        <v>0.016675</v>
       </c>
       <c r="O10" s="42" t="n">
-        <v>0</v>
+        <v>0.00555833333333333</v>
       </c>
       <c r="P10" s="42" t="n">
-        <v>0</v>
+        <v>0.00555833333333333</v>
       </c>
       <c r="Q10" s="42" t="n">
-        <v>0</v>
+        <v>0.00555833333333333</v>
       </c>
       <c r="R10" s="42" t="n">
-        <v>0</v>
+        <v>0.016675</v>
       </c>
       <c r="S10" s="42" t="n">
-        <v>0</v>
+        <v>0.00555833333333333</v>
       </c>
       <c r="T10" s="42" t="n">
-        <v>0</v>
+        <v>0.00555833333333333</v>
       </c>
       <c r="U10" s="42" t="n">
-        <v>0</v>
+        <v>0.00555833333333333</v>
       </c>
       <c r="V10" s="42" t="n">
-        <v>0</v>
+        <v>0.016675</v>
       </c>
       <c r="W10" s="42" t="n">
-        <v>0</v>
+        <v>0.0667</v>
       </c>
     </row>
   </sheetData>
@@ -18369,9 +18353,7 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="43" t="n">
-        <v>0</v>
-      </c>
+      <c r="E2" s="43"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -18412,9 +18394,7 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="43" t="n">
-        <v>0</v>
-      </c>
+      <c r="E3" s="43"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -19117,9 +19097,7 @@
       <c r="D3" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="45" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E3" s="45"/>
       <c r="F3" t="s">
         <v>27</v>
       </c>
@@ -19168,9 +19146,7 @@
       <c r="D4" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="45" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E4" s="45"/>
       <c r="F4" t="s">
         <v>28</v>
       </c>
@@ -19460,9 +19436,7 @@
       <c r="D2" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="47" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E2" s="47"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -19511,9 +19485,7 @@
       <c r="D3" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="47" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E3" s="47"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -19647,9 +19619,7 @@
       <c r="D2" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="48" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E2" s="48"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -19696,9 +19666,7 @@
       <c r="D3" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="48" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E3" s="48"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -19830,9 +19798,7 @@
       <c r="D2" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="49" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E2" s="49"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -19875,9 +19841,7 @@
       <c r="D3" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="49" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E3" s="49"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -20304,7 +20268,7 @@
         <v>33</v>
       </c>
       <c r="E2" s="50" t="n">
-        <v>0.0776</v>
+        <v>0</v>
       </c>
       <c r="F2" t="s">
         <v>29</v>
@@ -20854,7 +20818,7 @@
         <v>33</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.0776</v>
+        <v>0.1064</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -20925,7 +20889,7 @@
         <v>33</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.0776</v>
+        <v>0.1064</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -20996,7 +20960,7 @@
         <v>33</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>0.0776</v>
+        <v>0.1064</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -21020,37 +20984,37 @@
         <v>0</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>0</v>
+        <v>0.0212833333333333</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0</v>
+        <v>0.06385</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0</v>
+        <v>0.0212833333333333</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0</v>
+        <v>0.0212833333333333</v>
       </c>
       <c r="Q10" s="6" t="n">
-        <v>0</v>
+        <v>0.0212833333333333</v>
       </c>
       <c r="R10" s="6" t="n">
-        <v>0</v>
+        <v>0.06385</v>
       </c>
       <c r="S10" s="6" t="n">
-        <v>0</v>
+        <v>0.0212833333333333</v>
       </c>
       <c r="T10" s="6" t="n">
-        <v>0</v>
+        <v>0.0212833333333333</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0</v>
+        <v>0.0212833333333333</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0</v>
+        <v>0.06385</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0</v>
+        <v>0.2554</v>
       </c>
     </row>
   </sheetData>
@@ -21858,7 +21822,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="9" t="n">
-        <v>0</v>
+        <v>0.7143</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -21929,7 +21893,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="9" t="n">
-        <v>0</v>
+        <v>0.7143</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -22000,7 +21964,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="9" t="n">
-        <v>0</v>
+        <v>0.7143</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -22024,37 +21988,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="9" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.142858333333333</v>
       </c>
       <c r="N4" s="9" t="n">
-        <v>0.25</v>
+        <v>0.428575</v>
       </c>
       <c r="O4" s="9" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.142858333333333</v>
       </c>
       <c r="P4" s="9" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.142858333333333</v>
       </c>
       <c r="Q4" s="9" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.142858333333333</v>
       </c>
       <c r="R4" s="9" t="n">
-        <v>0.25</v>
+        <v>0.428575</v>
       </c>
       <c r="S4" s="9" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.142858333333333</v>
       </c>
       <c r="T4" s="9" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.142858333333333</v>
       </c>
       <c r="U4" s="9" t="n">
-        <v>0.0833333333333333</v>
+        <v>0.142858333333333</v>
       </c>
       <c r="V4" s="9" t="n">
-        <v>0.25</v>
+        <v>0.428575</v>
       </c>
       <c r="W4" s="9" t="n">
-        <v>1</v>
+        <v>1.7143</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/SORs/SOR Testing_IPS Couplings Division.xlsx
+++ b/outputs/SORs/SOR Testing_IPS Couplings Division.xlsx
@@ -51,17 +51,18 @@
     <sheet name="Wichita Falls Texas" sheetId="43" state="visible" r:id="rId43"/>
     <sheet name="Shanghai China" sheetId="44" state="visible" r:id="rId44"/>
     <sheet name="Bedford United Kingdom" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="South Beloit Gardner St Illino" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="Unna Germany" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="Columbia City Indiana" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="Guangdong China" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="Santiago Chile" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="Hyderabad Pmc India (inactive)" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="South Beloit Gardner St Illino" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="Unna Germany" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="Columbia City Indiana" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="Guangdong China" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="Santiago Chile" sheetId="51" state="visible" r:id="rId51"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
   <si>
     <t xml:space="preserve">segment_function</t>
   </si>
@@ -291,6 +292,9 @@
     <t xml:space="preserve">Bedford United Kingdom</t>
   </si>
   <si>
+    <t xml:space="preserve">Hyderabad Pmc India (inactive)</t>
+  </si>
+  <si>
     <t xml:space="preserve">South Beloit Gardner St Illinois</t>
   </si>
   <si>
@@ -310,7 +314,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="50">
+  <numFmts count="51">
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
@@ -361,6 +365,7 @@
     <numFmt numFmtId="212" formatCode="0.0%"/>
     <numFmt numFmtId="213" formatCode="0.0%"/>
     <numFmt numFmtId="214" formatCode="0.0%"/>
+    <numFmt numFmtId="215" formatCode="0.0%"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -396,7 +401,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
@@ -448,6 +453,7 @@
     <xf numFmtId="212" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="213" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="214" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="215" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2316,7 +2322,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="14" t="n">
-        <v>0.0766</v>
+        <v>0.0743</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -2387,7 +2393,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="14" t="n">
-        <v>0.0766</v>
+        <v>0.0743</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -2458,13 +2464,13 @@
         <v>26</v>
       </c>
       <c r="E4" s="14" t="n">
-        <v>0.0766</v>
+        <v>0.0743</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
       </c>
       <c r="G4" s="14" t="n">
-        <v>0.0577</v>
+        <v>0.0556</v>
       </c>
       <c r="H4" s="14" t="n">
         <v>0</v>
@@ -2473,46 +2479,46 @@
         <v>0</v>
       </c>
       <c r="J4" s="14" t="n">
-        <v>0.0569</v>
+        <v>0.0548</v>
       </c>
       <c r="K4" s="14" t="n">
         <v>0</v>
       </c>
       <c r="L4" s="14" t="n">
-        <v>0.02</v>
+        <v>0.0192</v>
       </c>
       <c r="M4" s="14" t="n">
-        <v>0.0153166666666667</v>
+        <v>0</v>
       </c>
       <c r="N4" s="14" t="n">
-        <v>0.04595</v>
+        <v>0.0189</v>
       </c>
       <c r="O4" s="14" t="n">
-        <v>0.0153166666666667</v>
+        <v>0.0123833333333333</v>
       </c>
       <c r="P4" s="14" t="n">
-        <v>0.0153166666666667</v>
+        <v>0.0123833333333333</v>
       </c>
       <c r="Q4" s="14" t="n">
-        <v>0.0153166666666667</v>
+        <v>0.0123833333333333</v>
       </c>
       <c r="R4" s="14" t="n">
-        <v>0.04595</v>
+        <v>0.03715</v>
       </c>
       <c r="S4" s="14" t="n">
-        <v>0.0153166666666667</v>
+        <v>0.0123833333333333</v>
       </c>
       <c r="T4" s="14" t="n">
-        <v>0.0153166666666667</v>
+        <v>0.0123833333333333</v>
       </c>
       <c r="U4" s="14" t="n">
-        <v>0.0153166666666667</v>
+        <v>0.0123833333333333</v>
       </c>
       <c r="V4" s="14" t="n">
-        <v>0.04595</v>
+        <v>0.03715</v>
       </c>
       <c r="W4" s="14" t="n">
-        <v>0.1838</v>
+        <v>0.1486</v>
       </c>
     </row>
     <row r="5">
@@ -2529,7 +2535,7 @@
         <v>32</v>
       </c>
       <c r="E5" s="14" t="n">
-        <v>0.5</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -2582,7 +2588,7 @@
         <v>32</v>
       </c>
       <c r="E6" s="14" t="n">
-        <v>0.5</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -2653,7 +2659,7 @@
         <v>32</v>
       </c>
       <c r="E7" s="14" t="n">
-        <v>0.5</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
@@ -2662,46 +2668,44 @@
         <v>0</v>
       </c>
       <c r="H7" s="14"/>
-      <c r="I7" s="14" t="n">
-        <v>1</v>
-      </c>
+      <c r="I7" s="14"/>
       <c r="J7" s="14" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K7" s="14"/>
       <c r="L7" s="14"/>
       <c r="M7" s="14" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="N7" s="14" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="O7" s="14" t="n">
-        <v>0.5</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="P7" s="14" t="n">
-        <v>0.5</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="Q7" s="14" t="n">
-        <v>0.5</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="R7" s="14" t="n">
-        <v>0.5</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="S7" s="14" t="n">
-        <v>0.5</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="T7" s="14" t="n">
-        <v>0.5</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="U7" s="14" t="n">
-        <v>0.5</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="V7" s="14" t="n">
-        <v>0.5</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="W7" s="14" t="n">
-        <v>0.5</v>
+        <v>0.666666666666667</v>
       </c>
     </row>
     <row r="8">
@@ -2718,7 +2722,7 @@
         <v>33</v>
       </c>
       <c r="E8" s="14" t="n">
-        <v>0.1082</v>
+        <v>0.1106</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -2789,7 +2793,7 @@
         <v>33</v>
       </c>
       <c r="E9" s="14" t="n">
-        <v>0.1082</v>
+        <v>0.1106</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -2860,7 +2864,7 @@
         <v>33</v>
       </c>
       <c r="E10" s="14" t="n">
-        <v>0.1082</v>
+        <v>0.1106</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -2869,52 +2873,52 @@
         <v>0</v>
       </c>
       <c r="H10" s="14" t="n">
+        <v>0.0217</v>
+      </c>
+      <c r="I10" s="14" t="n">
         <v>0.0213</v>
       </c>
-      <c r="I10" s="14" t="n">
-        <v>0.0208</v>
-      </c>
       <c r="J10" s="14" t="n">
-        <v>0.0428</v>
+        <v>0.0438</v>
       </c>
       <c r="K10" s="14" t="n">
-        <v>0.0217</v>
+        <v>0.0222</v>
       </c>
       <c r="L10" s="14" t="n">
-        <v>0.0444</v>
+        <v>0.0455</v>
       </c>
       <c r="M10" s="14" t="n">
-        <v>0.0216416666666667</v>
+        <v>0</v>
       </c>
       <c r="N10" s="14" t="n">
-        <v>0.064925</v>
+        <v>0.0671</v>
       </c>
       <c r="O10" s="14" t="n">
-        <v>0.0216416666666667</v>
+        <v>0.0184333333333333</v>
       </c>
       <c r="P10" s="14" t="n">
-        <v>0.0216416666666667</v>
+        <v>0.0184333333333333</v>
       </c>
       <c r="Q10" s="14" t="n">
-        <v>0.0216416666666667</v>
+        <v>0.0184333333333333</v>
       </c>
       <c r="R10" s="14" t="n">
-        <v>0.064925</v>
+        <v>0.0553</v>
       </c>
       <c r="S10" s="14" t="n">
-        <v>0.0216416666666667</v>
+        <v>0.0184333333333333</v>
       </c>
       <c r="T10" s="14" t="n">
-        <v>0.0216416666666667</v>
+        <v>0.0184333333333333</v>
       </c>
       <c r="U10" s="14" t="n">
-        <v>0.0216416666666667</v>
+        <v>0.0184333333333333</v>
       </c>
       <c r="V10" s="14" t="n">
-        <v>0.064925</v>
+        <v>0.0553</v>
       </c>
       <c r="W10" s="14" t="n">
-        <v>0.2597</v>
+        <v>0.2212</v>
       </c>
     </row>
   </sheetData>
@@ -3016,7 +3020,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="15" t="n">
-        <v>0.0889</v>
+        <v>0.1075</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -3087,7 +3091,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="15" t="n">
-        <v>0.0889</v>
+        <v>0.1075</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -3158,7 +3162,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="15" t="n">
-        <v>0.0889</v>
+        <v>0.1075</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -3170,49 +3174,49 @@
         <v>0</v>
       </c>
       <c r="I4" s="15" t="n">
+        <v>0.0213</v>
+      </c>
+      <c r="J4" s="15" t="n">
+        <v>0.0216</v>
+      </c>
+      <c r="K4" s="15" t="n">
+        <v>0.0435</v>
+      </c>
+      <c r="L4" s="15" t="n">
+        <v>0.0208</v>
+      </c>
+      <c r="M4" s="15" t="n">
         <v>0.0217</v>
       </c>
-      <c r="J4" s="15" t="n">
-        <v>0.0221</v>
-      </c>
-      <c r="K4" s="15" t="n">
-        <v>0.0444</v>
-      </c>
-      <c r="L4" s="15" t="n">
-        <v>0.0227</v>
-      </c>
-      <c r="M4" s="15" t="n">
-        <v>0.0177833333333333</v>
-      </c>
       <c r="N4" s="15" t="n">
-        <v>0.05335</v>
+        <v>0.0857</v>
       </c>
       <c r="O4" s="15" t="n">
-        <v>0.0177833333333333</v>
+        <v>0.0179166666666667</v>
       </c>
       <c r="P4" s="15" t="n">
-        <v>0.0177833333333333</v>
+        <v>0.0179166666666667</v>
       </c>
       <c r="Q4" s="15" t="n">
-        <v>0.0177833333333333</v>
+        <v>0.0179166666666667</v>
       </c>
       <c r="R4" s="15" t="n">
-        <v>0.05335</v>
+        <v>0.05375</v>
       </c>
       <c r="S4" s="15" t="n">
-        <v>0.0177833333333333</v>
+        <v>0.0179166666666667</v>
       </c>
       <c r="T4" s="15" t="n">
-        <v>0.0177833333333333</v>
+        <v>0.0179166666666667</v>
       </c>
       <c r="U4" s="15" t="n">
-        <v>0.0177833333333333</v>
+        <v>0.0179166666666667</v>
       </c>
       <c r="V4" s="15" t="n">
-        <v>0.05335</v>
+        <v>0.05375</v>
       </c>
       <c r="W4" s="15" t="n">
-        <v>0.2134</v>
+        <v>0.215</v>
       </c>
     </row>
     <row r="5">
@@ -3229,7 +3233,7 @@
         <v>32</v>
       </c>
       <c r="E5" s="15" t="n">
-        <v>0.5</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -3280,7 +3284,7 @@
         <v>32</v>
       </c>
       <c r="E6" s="15" t="n">
-        <v>0.5</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -3351,7 +3355,7 @@
         <v>32</v>
       </c>
       <c r="E7" s="15" t="n">
-        <v>0.5</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
@@ -3369,37 +3373,37 @@
       <c r="K7" s="15"/>
       <c r="L7" s="15"/>
       <c r="M7" s="15" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="N7" s="15" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="O7" s="15" t="n">
-        <v>0.5</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="P7" s="15" t="n">
-        <v>0.5</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="Q7" s="15" t="n">
-        <v>0.5</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="R7" s="15" t="n">
-        <v>0.5</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="S7" s="15" t="n">
-        <v>0.5</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="T7" s="15" t="n">
-        <v>0.5</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="U7" s="15" t="n">
-        <v>0.5</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="V7" s="15" t="n">
-        <v>0.5</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="W7" s="15" t="n">
-        <v>0.5</v>
+        <v>0.666666666666667</v>
       </c>
     </row>
     <row r="8">
@@ -3416,7 +3420,7 @@
         <v>33</v>
       </c>
       <c r="E8" s="15" t="n">
-        <v>0.0731</v>
+        <v>0.0735</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -3487,7 +3491,7 @@
         <v>33</v>
       </c>
       <c r="E9" s="15" t="n">
-        <v>0.0731</v>
+        <v>0.0735</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -3558,7 +3562,7 @@
         <v>33</v>
       </c>
       <c r="E10" s="15" t="n">
-        <v>0.0731</v>
+        <v>0.0735</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -3582,37 +3586,37 @@
         <v>0.0597</v>
       </c>
       <c r="M10" s="15" t="n">
-        <v>0.0146166666666667</v>
+        <v>0</v>
       </c>
       <c r="N10" s="15" t="n">
-        <v>0.04385</v>
+        <v>0.0588</v>
       </c>
       <c r="O10" s="15" t="n">
-        <v>0.0146166666666667</v>
+        <v>0.01225</v>
       </c>
       <c r="P10" s="15" t="n">
-        <v>0.0146166666666667</v>
+        <v>0.01225</v>
       </c>
       <c r="Q10" s="15" t="n">
-        <v>0.0146166666666667</v>
+        <v>0.01225</v>
       </c>
       <c r="R10" s="15" t="n">
-        <v>0.04385</v>
+        <v>0.03675</v>
       </c>
       <c r="S10" s="15" t="n">
-        <v>0.0146166666666667</v>
+        <v>0.01225</v>
       </c>
       <c r="T10" s="15" t="n">
-        <v>0.0146166666666667</v>
+        <v>0.01225</v>
       </c>
       <c r="U10" s="15" t="n">
-        <v>0.0146166666666667</v>
+        <v>0.01225</v>
       </c>
       <c r="V10" s="15" t="n">
-        <v>0.04385</v>
+        <v>0.03675</v>
       </c>
       <c r="W10" s="15" t="n">
-        <v>0.1754</v>
+        <v>0.147</v>
       </c>
     </row>
   </sheetData>
@@ -3714,7 +3718,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="16" t="n">
-        <v>0.0174</v>
+        <v>0.0261</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -3785,7 +3789,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="16" t="n">
-        <v>0.0174</v>
+        <v>0.0261</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -3856,7 +3860,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="16" t="n">
-        <v>0.0174</v>
+        <v>0.0261</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -3877,40 +3881,40 @@
         <v>0</v>
       </c>
       <c r="L4" s="16" t="n">
-        <v>0</v>
+        <v>0.0087</v>
       </c>
       <c r="M4" s="16" t="n">
-        <v>0.00348333333333333</v>
+        <v>0</v>
       </c>
       <c r="N4" s="16" t="n">
-        <v>0.01045</v>
+        <v>0.0087</v>
       </c>
       <c r="O4" s="16" t="n">
-        <v>0.00348333333333333</v>
+        <v>0.00435</v>
       </c>
       <c r="P4" s="16" t="n">
-        <v>0.00348333333333333</v>
+        <v>0.00435</v>
       </c>
       <c r="Q4" s="16" t="n">
-        <v>0.00348333333333333</v>
+        <v>0.00435</v>
       </c>
       <c r="R4" s="16" t="n">
-        <v>0.01045</v>
+        <v>0.01305</v>
       </c>
       <c r="S4" s="16" t="n">
-        <v>0.00348333333333333</v>
+        <v>0.00435</v>
       </c>
       <c r="T4" s="16" t="n">
-        <v>0.00348333333333333</v>
+        <v>0.00435</v>
       </c>
       <c r="U4" s="16" t="n">
-        <v>0.00348333333333333</v>
+        <v>0.00435</v>
       </c>
       <c r="V4" s="16" t="n">
-        <v>0.01045</v>
+        <v>0.01305</v>
       </c>
       <c r="W4" s="16" t="n">
-        <v>0.0418</v>
+        <v>0.0522</v>
       </c>
     </row>
     <row r="5">
@@ -4078,9 +4082,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="16"/>
-      <c r="M7" s="16" t="n">
-        <v>0</v>
-      </c>
+      <c r="M7" s="16"/>
       <c r="N7" s="16" t="n">
         <v>0</v>
       </c>
@@ -5049,7 +5051,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="18" t="n">
-        <v>0</v>
+        <v>0.0137</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -5120,7 +5122,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="18" t="n">
-        <v>0</v>
+        <v>0.0137</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -5191,7 +5193,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="18" t="n">
-        <v>0</v>
+        <v>0.0137</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -5215,36 +5217,107 @@
         <v>0</v>
       </c>
       <c r="M4" s="18" t="n">
-        <v>0</v>
+        <v>0.0137</v>
       </c>
       <c r="N4" s="18" t="n">
-        <v>0</v>
+        <v>0.0136</v>
       </c>
       <c r="O4" s="18" t="n">
-        <v>0</v>
+        <v>0.00228333333333333</v>
       </c>
       <c r="P4" s="18" t="n">
-        <v>0</v>
+        <v>0.00228333333333333</v>
       </c>
       <c r="Q4" s="18" t="n">
-        <v>0</v>
+        <v>0.00228333333333333</v>
       </c>
       <c r="R4" s="18" t="n">
-        <v>0</v>
+        <v>0.00685</v>
       </c>
       <c r="S4" s="18" t="n">
-        <v>0</v>
+        <v>0.00228333333333333</v>
       </c>
       <c r="T4" s="18" t="n">
-        <v>0</v>
+        <v>0.00228333333333333</v>
       </c>
       <c r="U4" s="18" t="n">
-        <v>0</v>
+        <v>0.00228333333333333</v>
       </c>
       <c r="V4" s="18" t="n">
-        <v>0</v>
+        <v>0.00685</v>
       </c>
       <c r="W4" s="18" t="n">
+        <v>0.0274</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" s="18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" s="18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5346,9 +5419,7 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="19" t="n">
-        <v>0</v>
-      </c>
+      <c r="E2" s="19"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -5417,9 +5488,7 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="19" t="n">
-        <v>0</v>
-      </c>
+      <c r="E3" s="19"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -5486,64 +5555,34 @@
         <v>49</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="19" t="n">
-        <v>0</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="E4" s="19"/>
       <c r="F4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" s="19" t="n">
-        <v>0</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
       <c r="P4" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="19" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q4" s="19"/>
       <c r="R4" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" s="19" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="S4" s="19"/>
+      <c r="T4" s="19"/>
+      <c r="U4" s="19"/>
+      <c r="V4" s="19"/>
       <c r="W4" s="19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -5561,170 +5600,58 @@
       </c>
       <c r="E5" s="19"/>
       <c r="F5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
+        <v>28</v>
+      </c>
+      <c r="G5" s="19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H5" s="19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I5" s="19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J5" s="19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K5" s="19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L5" s="19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M5" s="19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N5" s="19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O5" s="19" t="n">
+        <v>0.5</v>
+      </c>
       <c r="P5" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5" s="19"/>
+        <v>0.5</v>
+      </c>
+      <c r="Q5" s="19" t="n">
+        <v>0.5</v>
+      </c>
       <c r="R5" s="19" t="n">
-        <v>1</v>
-      </c>
-      <c r="S5" s="19"/>
-      <c r="T5" s="19"/>
-      <c r="U5" s="19"/>
-      <c r="V5" s="19"/>
+        <v>0.5</v>
+      </c>
+      <c r="S5" s="19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T5" s="19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="U5" s="19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="V5" s="19" t="n">
+        <v>0.5</v>
+      </c>
       <c r="W5" s="19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="19"/>
-      <c r="F6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="19" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H6" s="19" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I6" s="19" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J6" s="19" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K6" s="19" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L6" s="19" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="M6" s="19" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N6" s="19" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="O6" s="19" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="P6" s="19" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Q6" s="19" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="R6" s="19" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="S6" s="19" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="T6" s="19" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="U6" s="19" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="V6" s="19" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="W6" s="19" t="n">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" s="19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" s="19" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -5997,7 +5924,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="20" t="n">
-        <v>0.0554</v>
+        <v>0.0556</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -6068,7 +5995,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="20" t="n">
-        <v>0.0554</v>
+        <v>0.0556</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -6139,7 +6066,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="20" t="n">
-        <v>0.0554</v>
+        <v>0.0556</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -6163,37 +6090,37 @@
         <v>0.0385</v>
       </c>
       <c r="M4" s="20" t="n">
-        <v>0.0110833333333333</v>
+        <v>0</v>
       </c>
       <c r="N4" s="20" t="n">
-        <v>0.03325</v>
+        <v>0.0566</v>
       </c>
       <c r="O4" s="20" t="n">
-        <v>0.0110833333333333</v>
+        <v>0.00926666666666667</v>
       </c>
       <c r="P4" s="20" t="n">
-        <v>0.0110833333333333</v>
+        <v>0.00926666666666667</v>
       </c>
       <c r="Q4" s="20" t="n">
-        <v>0.0110833333333333</v>
+        <v>0.00926666666666667</v>
       </c>
       <c r="R4" s="20" t="n">
-        <v>0.03325</v>
+        <v>0.0278</v>
       </c>
       <c r="S4" s="20" t="n">
-        <v>0.0110833333333333</v>
+        <v>0.00926666666666667</v>
       </c>
       <c r="T4" s="20" t="n">
-        <v>0.0110833333333333</v>
+        <v>0.00926666666666667</v>
       </c>
       <c r="U4" s="20" t="n">
-        <v>0.0110833333333333</v>
+        <v>0.00926666666666667</v>
       </c>
       <c r="V4" s="20" t="n">
-        <v>0.03325</v>
+        <v>0.0278</v>
       </c>
       <c r="W4" s="20" t="n">
-        <v>0.133</v>
+        <v>0.1112</v>
       </c>
     </row>
     <row r="5">
@@ -6209,7 +6136,9 @@
       <c r="D5" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="20"/>
+      <c r="E5" s="20" t="n">
+        <v>0.5</v>
+      </c>
       <c r="F5" t="s">
         <v>27</v>
       </c>
@@ -6250,7 +6179,9 @@
       <c r="D6" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="20"/>
+      <c r="E6" s="20" t="n">
+        <v>0.5</v>
+      </c>
       <c r="F6" t="s">
         <v>28</v>
       </c>
@@ -6317,64 +6248,52 @@
         <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E7" s="20" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="F7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" s="20" t="n">
-        <v>0</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
       <c r="M7" s="20" t="n">
-        <v>0.0196</v>
+        <v>0.5</v>
       </c>
       <c r="N7" s="20" t="n">
-        <v>0.0193</v>
+        <v>0.5</v>
       </c>
       <c r="O7" s="20" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="P7" s="20" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="Q7" s="20" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R7" s="20" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="S7" s="20" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="T7" s="20" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="U7" s="20" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="V7" s="20" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="W7" s="20" t="n">
-        <v>0.0195</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="8">
@@ -6394,7 +6313,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G8" s="20" t="n">
         <v>0</v>
@@ -6415,10 +6334,10 @@
         <v>0</v>
       </c>
       <c r="M8" s="20" t="n">
-        <v>0.01764</v>
+        <v>0.0196</v>
       </c>
       <c r="N8" s="20" t="n">
-        <v>0.01737</v>
+        <v>0.0193</v>
       </c>
       <c r="O8" s="20" t="n">
         <v>0</v>
@@ -6445,7 +6364,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="20" t="n">
-        <v>0.01755</v>
+        <v>0.0195</v>
       </c>
     </row>
     <row r="9">
@@ -6465,57 +6384,128 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" s="20" t="n">
+        <v>0.01764</v>
+      </c>
+      <c r="N9" s="20" t="n">
+        <v>0.01737</v>
+      </c>
+      <c r="O9" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" s="20" t="n">
+        <v>0.01755</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" s="20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" s="20" t="n">
+      <c r="G10" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" s="20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" s="20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6618,7 +6608,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="21" t="n">
-        <v>0.0323</v>
+        <v>0.0485</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -6689,7 +6679,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="21" t="n">
-        <v>0.0323</v>
+        <v>0.0485</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -6760,7 +6750,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="21" t="n">
-        <v>0.0323</v>
+        <v>0.0485</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -6784,37 +6774,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="21" t="n">
-        <v>0.00645833333333333</v>
+        <v>0.0164</v>
       </c>
       <c r="N4" s="21" t="n">
-        <v>0.019375</v>
+        <v>0.0328</v>
       </c>
       <c r="O4" s="21" t="n">
-        <v>0.00645833333333333</v>
+        <v>0.00808333333333333</v>
       </c>
       <c r="P4" s="21" t="n">
-        <v>0.00645833333333333</v>
+        <v>0.00808333333333333</v>
       </c>
       <c r="Q4" s="21" t="n">
-        <v>0.00645833333333333</v>
+        <v>0.00808333333333333</v>
       </c>
       <c r="R4" s="21" t="n">
-        <v>0.019375</v>
+        <v>0.02425</v>
       </c>
       <c r="S4" s="21" t="n">
-        <v>0.00645833333333333</v>
+        <v>0.00808333333333333</v>
       </c>
       <c r="T4" s="21" t="n">
-        <v>0.00645833333333333</v>
+        <v>0.00808333333333333</v>
       </c>
       <c r="U4" s="21" t="n">
-        <v>0.00645833333333333</v>
+        <v>0.00808333333333333</v>
       </c>
       <c r="V4" s="21" t="n">
-        <v>0.019375</v>
+        <v>0.02425</v>
       </c>
       <c r="W4" s="21" t="n">
-        <v>0.0775</v>
+        <v>0.097</v>
       </c>
     </row>
     <row r="5">
@@ -6964,12 +6954,8 @@
       </c>
       <c r="K7" s="21"/>
       <c r="L7" s="21"/>
-      <c r="M7" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" s="21" t="n">
-        <v>0</v>
-      </c>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
       <c r="O7" s="21" t="n">
         <v>0</v>
       </c>
@@ -8210,37 +8196,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="24" t="n">
-        <v>0.0666583333333333</v>
+        <v>0</v>
       </c>
       <c r="N4" s="24" t="n">
-        <v>0.199975</v>
+        <v>0</v>
       </c>
       <c r="O4" s="24" t="n">
-        <v>0.0666583333333333</v>
+        <v>0.05555</v>
       </c>
       <c r="P4" s="24" t="n">
-        <v>0.0666583333333333</v>
+        <v>0.05555</v>
       </c>
       <c r="Q4" s="24" t="n">
-        <v>0.0666583333333333</v>
+        <v>0.05555</v>
       </c>
       <c r="R4" s="24" t="n">
-        <v>0.199975</v>
+        <v>0.16665</v>
       </c>
       <c r="S4" s="24" t="n">
-        <v>0.0666583333333333</v>
+        <v>0.05555</v>
       </c>
       <c r="T4" s="24" t="n">
-        <v>0.0666583333333333</v>
+        <v>0.05555</v>
       </c>
       <c r="U4" s="24" t="n">
-        <v>0.0666583333333333</v>
+        <v>0.05555</v>
       </c>
       <c r="V4" s="24" t="n">
-        <v>0.199975</v>
+        <v>0.16665</v>
       </c>
       <c r="W4" s="24" t="n">
-        <v>0.7999</v>
+        <v>0.6666</v>
       </c>
     </row>
   </sheetData>
@@ -8508,37 +8494,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="25" t="n">
-        <v>0.0227166666666667</v>
+        <v>0</v>
       </c>
       <c r="N4" s="25" t="n">
-        <v>0.06815</v>
+        <v>0</v>
       </c>
       <c r="O4" s="25" t="n">
-        <v>0.0227166666666667</v>
+        <v>0.0189333333333333</v>
       </c>
       <c r="P4" s="25" t="n">
-        <v>0.0227166666666667</v>
+        <v>0.0189333333333333</v>
       </c>
       <c r="Q4" s="25" t="n">
-        <v>0.0227166666666667</v>
+        <v>0.0189333333333333</v>
       </c>
       <c r="R4" s="25" t="n">
-        <v>0.06815</v>
+        <v>0.0568</v>
       </c>
       <c r="S4" s="25" t="n">
-        <v>0.0227166666666667</v>
+        <v>0.0189333333333333</v>
       </c>
       <c r="T4" s="25" t="n">
-        <v>0.0227166666666667</v>
+        <v>0.0189333333333333</v>
       </c>
       <c r="U4" s="25" t="n">
-        <v>0.0227166666666667</v>
+        <v>0.0189333333333333</v>
       </c>
       <c r="V4" s="25" t="n">
-        <v>0.06815</v>
+        <v>0.0568</v>
       </c>
       <c r="W4" s="25" t="n">
-        <v>0.2726</v>
+        <v>0.2272</v>
       </c>
     </row>
     <row r="5">
@@ -8570,12 +8556,8 @@
       </c>
       <c r="K5" s="25"/>
       <c r="L5" s="25"/>
-      <c r="M5" s="25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" s="25" t="n">
-        <v>0</v>
-      </c>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
       <c r="O5" s="25" t="n">
         <v>0</v>
       </c>
@@ -8618,7 +8600,7 @@
         <v>33</v>
       </c>
       <c r="E6" s="25" t="n">
-        <v>0.0806</v>
+        <v>0.1695</v>
       </c>
       <c r="F6" t="s">
         <v>27</v>
@@ -8689,7 +8671,7 @@
         <v>33</v>
       </c>
       <c r="E7" s="25" t="n">
-        <v>0.0806</v>
+        <v>0.1695</v>
       </c>
       <c r="F7" t="s">
         <v>28</v>
@@ -8760,7 +8742,7 @@
         <v>33</v>
       </c>
       <c r="E8" s="25" t="n">
-        <v>0.0806</v>
+        <v>0.1695</v>
       </c>
       <c r="F8" t="s">
         <v>29</v>
@@ -8784,37 +8766,37 @@
         <v>0</v>
       </c>
       <c r="M8" s="25" t="n">
-        <v>0.0161166666666667</v>
+        <v>0.0833</v>
       </c>
       <c r="N8" s="25" t="n">
-        <v>0.04835</v>
+        <v>0.1667</v>
       </c>
       <c r="O8" s="25" t="n">
-        <v>0.0161166666666667</v>
+        <v>0.02825</v>
       </c>
       <c r="P8" s="25" t="n">
-        <v>0.0161166666666667</v>
+        <v>0.02825</v>
       </c>
       <c r="Q8" s="25" t="n">
-        <v>0.0161166666666667</v>
+        <v>0.02825</v>
       </c>
       <c r="R8" s="25" t="n">
-        <v>0.04835</v>
+        <v>0.08475</v>
       </c>
       <c r="S8" s="25" t="n">
-        <v>0.0161166666666667</v>
+        <v>0.02825</v>
       </c>
       <c r="T8" s="25" t="n">
-        <v>0.0161166666666667</v>
+        <v>0.02825</v>
       </c>
       <c r="U8" s="25" t="n">
-        <v>0.0161166666666667</v>
+        <v>0.02825</v>
       </c>
       <c r="V8" s="25" t="n">
-        <v>0.04835</v>
+        <v>0.08475</v>
       </c>
       <c r="W8" s="25" t="n">
-        <v>0.1934</v>
+        <v>0.339</v>
       </c>
     </row>
   </sheetData>
@@ -9214,7 +9196,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="27" t="n">
-        <v>0.2273</v>
+        <v>0.2308</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -9285,7 +9267,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="27" t="n">
-        <v>0.2273</v>
+        <v>0.2308</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -9356,7 +9338,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="27" t="n">
-        <v>0.2273</v>
+        <v>0.2308</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -9380,37 +9362,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="27" t="n">
-        <v>0.0454583333333333</v>
+        <v>0</v>
       </c>
       <c r="N4" s="27" t="n">
-        <v>0.136375</v>
+        <v>0</v>
       </c>
       <c r="O4" s="27" t="n">
-        <v>0.0454583333333333</v>
+        <v>0.0384666666666667</v>
       </c>
       <c r="P4" s="27" t="n">
-        <v>0.0454583333333333</v>
+        <v>0.0384666666666667</v>
       </c>
       <c r="Q4" s="27" t="n">
-        <v>0.0454583333333333</v>
+        <v>0.0384666666666667</v>
       </c>
       <c r="R4" s="27" t="n">
-        <v>0.136375</v>
+        <v>0.1154</v>
       </c>
       <c r="S4" s="27" t="n">
-        <v>0.0454583333333333</v>
+        <v>0.0384666666666667</v>
       </c>
       <c r="T4" s="27" t="n">
-        <v>0.0454583333333333</v>
+        <v>0.0384666666666667</v>
       </c>
       <c r="U4" s="27" t="n">
-        <v>0.0454583333333333</v>
+        <v>0.0384666666666667</v>
       </c>
       <c r="V4" s="27" t="n">
-        <v>0.136375</v>
+        <v>0.1154</v>
       </c>
       <c r="W4" s="27" t="n">
-        <v>0.5455</v>
+        <v>0.4616</v>
       </c>
     </row>
     <row r="5">
@@ -9427,7 +9409,7 @@
         <v>33</v>
       </c>
       <c r="E5" s="27" t="n">
-        <v>0.0513</v>
+        <v>0.0556</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -9498,7 +9480,7 @@
         <v>33</v>
       </c>
       <c r="E6" s="27" t="n">
-        <v>0.0513</v>
+        <v>0.0556</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -9569,7 +9551,7 @@
         <v>33</v>
       </c>
       <c r="E7" s="27" t="n">
-        <v>0.0513</v>
+        <v>0.0556</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
@@ -9593,37 +9575,37 @@
         <v>0</v>
       </c>
       <c r="M7" s="27" t="n">
-        <v>0.0102583333333333</v>
+        <v>0</v>
       </c>
       <c r="N7" s="27" t="n">
-        <v>0.030775</v>
+        <v>0</v>
       </c>
       <c r="O7" s="27" t="n">
-        <v>0.0102583333333333</v>
+        <v>0.00926666666666667</v>
       </c>
       <c r="P7" s="27" t="n">
-        <v>0.0102583333333333</v>
+        <v>0.00926666666666667</v>
       </c>
       <c r="Q7" s="27" t="n">
-        <v>0.0102583333333333</v>
+        <v>0.00926666666666667</v>
       </c>
       <c r="R7" s="27" t="n">
-        <v>0.030775</v>
+        <v>0.0278</v>
       </c>
       <c r="S7" s="27" t="n">
-        <v>0.0102583333333333</v>
+        <v>0.00926666666666667</v>
       </c>
       <c r="T7" s="27" t="n">
-        <v>0.0102583333333333</v>
+        <v>0.00926666666666667</v>
       </c>
       <c r="U7" s="27" t="n">
-        <v>0.0102583333333333</v>
+        <v>0.00926666666666667</v>
       </c>
       <c r="V7" s="27" t="n">
-        <v>0.030775</v>
+        <v>0.0278</v>
       </c>
       <c r="W7" s="27" t="n">
-        <v>0.1231</v>
+        <v>0.1112</v>
       </c>
     </row>
   </sheetData>
@@ -9725,7 +9707,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="28" t="n">
-        <v>0.1705</v>
+        <v>0.1734</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -9796,7 +9778,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="28" t="n">
-        <v>0.1705</v>
+        <v>0.1734</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -9867,7 +9849,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="28" t="n">
-        <v>0.1705</v>
+        <v>0.1734</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -9891,37 +9873,37 @@
         <v>0.0625</v>
       </c>
       <c r="M4" s="28" t="n">
-        <v>0.0341</v>
+        <v>0</v>
       </c>
       <c r="N4" s="28" t="n">
-        <v>0.1023</v>
+        <v>0.1227</v>
       </c>
       <c r="O4" s="28" t="n">
-        <v>0.0341</v>
+        <v>0.0289</v>
       </c>
       <c r="P4" s="28" t="n">
-        <v>0.0341</v>
+        <v>0.0289</v>
       </c>
       <c r="Q4" s="28" t="n">
-        <v>0.0341</v>
+        <v>0.0289</v>
       </c>
       <c r="R4" s="28" t="n">
-        <v>0.1023</v>
+        <v>0.0867</v>
       </c>
       <c r="S4" s="28" t="n">
-        <v>0.0341</v>
+        <v>0.0289</v>
       </c>
       <c r="T4" s="28" t="n">
-        <v>0.0341</v>
+        <v>0.0289</v>
       </c>
       <c r="U4" s="28" t="n">
-        <v>0.0341</v>
+        <v>0.0289</v>
       </c>
       <c r="V4" s="28" t="n">
-        <v>0.1023</v>
+        <v>0.0867</v>
       </c>
       <c r="W4" s="28" t="n">
-        <v>0.4092</v>
+        <v>0.3468</v>
       </c>
     </row>
     <row r="5">
@@ -10073,9 +10055,7 @@
       <c r="L7" s="28" t="n">
         <v>1</v>
       </c>
-      <c r="M7" s="28" t="n">
-        <v>1</v>
-      </c>
+      <c r="M7" s="28"/>
       <c r="N7" s="28" t="n">
         <v>1</v>
       </c>
@@ -10121,7 +10101,7 @@
         <v>33</v>
       </c>
       <c r="E8" s="28" t="n">
-        <v>0.098</v>
+        <v>0.0966</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -10192,7 +10172,7 @@
         <v>33</v>
       </c>
       <c r="E9" s="28" t="n">
-        <v>0.098</v>
+        <v>0.0966</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -10263,7 +10243,7 @@
         <v>33</v>
       </c>
       <c r="E10" s="28" t="n">
-        <v>0.098</v>
+        <v>0.0966</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -10287,37 +10267,37 @@
         <v>0.05</v>
       </c>
       <c r="M10" s="28" t="n">
-        <v>0.0196</v>
+        <v>0</v>
       </c>
       <c r="N10" s="28" t="n">
-        <v>0.0588</v>
+        <v>0.0476</v>
       </c>
       <c r="O10" s="28" t="n">
-        <v>0.0196</v>
+        <v>0.0161</v>
       </c>
       <c r="P10" s="28" t="n">
-        <v>0.0196</v>
+        <v>0.0161</v>
       </c>
       <c r="Q10" s="28" t="n">
-        <v>0.0196</v>
+        <v>0.0161</v>
       </c>
       <c r="R10" s="28" t="n">
-        <v>0.0588</v>
+        <v>0.0483</v>
       </c>
       <c r="S10" s="28" t="n">
-        <v>0.0196</v>
+        <v>0.0161</v>
       </c>
       <c r="T10" s="28" t="n">
-        <v>0.0196</v>
+        <v>0.0161</v>
       </c>
       <c r="U10" s="28" t="n">
-        <v>0.0196</v>
+        <v>0.0161</v>
       </c>
       <c r="V10" s="28" t="n">
-        <v>0.0588</v>
+        <v>0.0483</v>
       </c>
       <c r="W10" s="28" t="n">
-        <v>0.2352</v>
+        <v>0.1932</v>
       </c>
     </row>
   </sheetData>
@@ -10585,37 +10565,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="29" t="n">
-        <v>0.00515833333333333</v>
+        <v>0</v>
       </c>
       <c r="N4" s="29" t="n">
-        <v>0.015475</v>
+        <v>0</v>
       </c>
       <c r="O4" s="29" t="n">
-        <v>0.00515833333333333</v>
+        <v>0.0043</v>
       </c>
       <c r="P4" s="29" t="n">
-        <v>0.00515833333333333</v>
+        <v>0.0043</v>
       </c>
       <c r="Q4" s="29" t="n">
-        <v>0.00515833333333333</v>
+        <v>0.0043</v>
       </c>
       <c r="R4" s="29" t="n">
-        <v>0.015475</v>
+        <v>0.0129</v>
       </c>
       <c r="S4" s="29" t="n">
-        <v>0.00515833333333333</v>
+        <v>0.0043</v>
       </c>
       <c r="T4" s="29" t="n">
-        <v>0.00515833333333333</v>
+        <v>0.0043</v>
       </c>
       <c r="U4" s="29" t="n">
-        <v>0.00515833333333333</v>
+        <v>0.0043</v>
       </c>
       <c r="V4" s="29" t="n">
-        <v>0.015475</v>
+        <v>0.0129</v>
       </c>
       <c r="W4" s="29" t="n">
-        <v>0.0619</v>
+        <v>0.0516</v>
       </c>
     </row>
     <row r="5">
@@ -10632,7 +10612,7 @@
         <v>32</v>
       </c>
       <c r="E5" s="29" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -10691,7 +10671,7 @@
         <v>32</v>
       </c>
       <c r="E6" s="29" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -10762,7 +10742,7 @@
         <v>32</v>
       </c>
       <c r="E7" s="29" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
@@ -10784,37 +10764,37 @@
         <v>0</v>
       </c>
       <c r="M7" s="29" t="n">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="N7" s="29" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="O7" s="29" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="P7" s="29" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="Q7" s="29" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="R7" s="29" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="S7" s="29" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="T7" s="29" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="U7" s="29" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="V7" s="29" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="W7" s="29" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
@@ -11082,37 +11062,37 @@
         <v>0.0256</v>
       </c>
       <c r="M4" s="3" t="n">
-        <v>0.00508333333333333</v>
+        <v>0</v>
       </c>
       <c r="N4" s="3" t="n">
-        <v>0.01525</v>
+        <v>0.0254</v>
       </c>
       <c r="O4" s="3" t="n">
-        <v>0.00508333333333333</v>
+        <v>0.00423333333333333</v>
       </c>
       <c r="P4" s="3" t="n">
-        <v>0.00508333333333333</v>
+        <v>0.00423333333333333</v>
       </c>
       <c r="Q4" s="3" t="n">
-        <v>0.00508333333333333</v>
+        <v>0.00423333333333333</v>
       </c>
       <c r="R4" s="3" t="n">
-        <v>0.01525</v>
+        <v>0.0127</v>
       </c>
       <c r="S4" s="3" t="n">
-        <v>0.00508333333333333</v>
+        <v>0.00423333333333333</v>
       </c>
       <c r="T4" s="3" t="n">
-        <v>0.00508333333333333</v>
+        <v>0.00423333333333333</v>
       </c>
       <c r="U4" s="3" t="n">
-        <v>0.00508333333333333</v>
+        <v>0.00423333333333333</v>
       </c>
       <c r="V4" s="3" t="n">
-        <v>0.01525</v>
+        <v>0.0127</v>
       </c>
       <c r="W4" s="3" t="n">
-        <v>0.061</v>
+        <v>0.0508</v>
       </c>
     </row>
     <row r="5">
@@ -11266,12 +11246,8 @@
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
-      <c r="M7" s="3" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N7" s="3" t="n">
-        <v>0.5</v>
-      </c>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
       <c r="O7" s="3" t="n">
         <v>0.5</v>
       </c>
@@ -11314,7 +11290,7 @@
         <v>33</v>
       </c>
       <c r="E8" s="3" t="n">
-        <v>0.1014</v>
+        <v>0.1197</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -11385,7 +11361,7 @@
         <v>33</v>
       </c>
       <c r="E9" s="3" t="n">
-        <v>0.1014</v>
+        <v>0.1197</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -11456,61 +11432,61 @@
         <v>33</v>
       </c>
       <c r="E10" s="3" t="n">
-        <v>0.1014</v>
+        <v>0.1197</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
       </c>
       <c r="G10" s="3" t="n">
-        <v>0.0124</v>
+        <v>0.0123</v>
       </c>
       <c r="H10" s="3" t="n">
-        <v>0.0248</v>
+        <v>0.0247</v>
       </c>
       <c r="I10" s="3" t="n">
-        <v>0.0321</v>
+        <v>0.0318</v>
       </c>
       <c r="J10" s="3" t="n">
-        <v>0.0691</v>
+        <v>0.0686</v>
       </c>
       <c r="K10" s="3" t="n">
-        <v>0.0258</v>
+        <v>0.0256</v>
       </c>
       <c r="L10" s="3" t="n">
-        <v>0.0064</v>
+        <v>0.0127</v>
       </c>
       <c r="M10" s="3" t="n">
-        <v>0.0202833333333333</v>
+        <v>0.0127</v>
       </c>
       <c r="N10" s="3" t="n">
-        <v>0.06085</v>
+        <v>0.051</v>
       </c>
       <c r="O10" s="3" t="n">
-        <v>0.0202833333333333</v>
+        <v>0.01995</v>
       </c>
       <c r="P10" s="3" t="n">
-        <v>0.0202833333333333</v>
+        <v>0.01995</v>
       </c>
       <c r="Q10" s="3" t="n">
-        <v>0.0202833333333333</v>
+        <v>0.01995</v>
       </c>
       <c r="R10" s="3" t="n">
-        <v>0.06085</v>
+        <v>0.05985</v>
       </c>
       <c r="S10" s="3" t="n">
-        <v>0.0202833333333333</v>
+        <v>0.01995</v>
       </c>
       <c r="T10" s="3" t="n">
-        <v>0.0202833333333333</v>
+        <v>0.01995</v>
       </c>
       <c r="U10" s="3" t="n">
-        <v>0.0202833333333333</v>
+        <v>0.01995</v>
       </c>
       <c r="V10" s="3" t="n">
-        <v>0.06085</v>
+        <v>0.05985</v>
       </c>
       <c r="W10" s="3" t="n">
-        <v>0.2434</v>
+        <v>0.2394</v>
       </c>
     </row>
   </sheetData>
@@ -11612,7 +11588,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="30" t="n">
-        <v>0.2381</v>
+        <v>0.2362</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -11683,7 +11659,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="30" t="n">
-        <v>0.2381</v>
+        <v>0.2362</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -11754,7 +11730,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="30" t="n">
-        <v>0.2381</v>
+        <v>0.2362</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -11778,37 +11754,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="30" t="n">
-        <v>0.0476166666666667</v>
+        <v>0</v>
       </c>
       <c r="N4" s="30" t="n">
-        <v>0.14285</v>
+        <v>0</v>
       </c>
       <c r="O4" s="30" t="n">
-        <v>0.0476166666666667</v>
+        <v>0.0393666666666667</v>
       </c>
       <c r="P4" s="30" t="n">
-        <v>0.0476166666666667</v>
+        <v>0.0393666666666667</v>
       </c>
       <c r="Q4" s="30" t="n">
-        <v>0.0476166666666667</v>
+        <v>0.0393666666666667</v>
       </c>
       <c r="R4" s="30" t="n">
-        <v>0.14285</v>
+        <v>0.1181</v>
       </c>
       <c r="S4" s="30" t="n">
-        <v>0.0476166666666667</v>
+        <v>0.0393666666666667</v>
       </c>
       <c r="T4" s="30" t="n">
-        <v>0.0476166666666667</v>
+        <v>0.0393666666666667</v>
       </c>
       <c r="U4" s="30" t="n">
-        <v>0.0476166666666667</v>
+        <v>0.0393666666666667</v>
       </c>
       <c r="V4" s="30" t="n">
-        <v>0.14285</v>
+        <v>0.1181</v>
       </c>
       <c r="W4" s="30" t="n">
-        <v>0.5714</v>
+        <v>0.4724</v>
       </c>
     </row>
     <row r="5">
@@ -11945,7 +11921,7 @@
         <v>33</v>
       </c>
       <c r="E7" s="30" t="n">
-        <v>0.0692</v>
+        <v>0.0693</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -12016,7 +11992,7 @@
         <v>33</v>
       </c>
       <c r="E8" s="30" t="n">
-        <v>0.0692</v>
+        <v>0.0693</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -12087,7 +12063,7 @@
         <v>33</v>
       </c>
       <c r="E9" s="30" t="n">
-        <v>0.0692</v>
+        <v>0.0693</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -12111,37 +12087,37 @@
         <v>0.0179</v>
       </c>
       <c r="M9" s="30" t="n">
-        <v>0.0138416666666667</v>
+        <v>0</v>
       </c>
       <c r="N9" s="30" t="n">
-        <v>0.041525</v>
+        <v>0.0351</v>
       </c>
       <c r="O9" s="30" t="n">
-        <v>0.0138416666666667</v>
+        <v>0.01155</v>
       </c>
       <c r="P9" s="30" t="n">
-        <v>0.0138416666666667</v>
+        <v>0.01155</v>
       </c>
       <c r="Q9" s="30" t="n">
-        <v>0.0138416666666667</v>
+        <v>0.01155</v>
       </c>
       <c r="R9" s="30" t="n">
-        <v>0.041525</v>
+        <v>0.03465</v>
       </c>
       <c r="S9" s="30" t="n">
-        <v>0.0138416666666667</v>
+        <v>0.01155</v>
       </c>
       <c r="T9" s="30" t="n">
-        <v>0.0138416666666667</v>
+        <v>0.01155</v>
       </c>
       <c r="U9" s="30" t="n">
-        <v>0.0138416666666667</v>
+        <v>0.01155</v>
       </c>
       <c r="V9" s="30" t="n">
-        <v>0.041525</v>
+        <v>0.03465</v>
       </c>
       <c r="W9" s="30" t="n">
-        <v>0.1661</v>
+        <v>0.1386</v>
       </c>
     </row>
   </sheetData>
@@ -12243,7 +12219,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="31" t="n">
-        <v>0</v>
+        <v>0.0286</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -12314,7 +12290,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="31" t="n">
-        <v>0</v>
+        <v>0.0286</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -12385,7 +12361,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="31" t="n">
-        <v>0</v>
+        <v>0.0286</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -12409,37 +12385,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="31" t="n">
-        <v>0</v>
+        <v>0.0286</v>
       </c>
       <c r="N4" s="31" t="n">
-        <v>0</v>
+        <v>0.0292</v>
       </c>
       <c r="O4" s="31" t="n">
-        <v>0</v>
+        <v>0.00476666666666667</v>
       </c>
       <c r="P4" s="31" t="n">
-        <v>0</v>
+        <v>0.00476666666666667</v>
       </c>
       <c r="Q4" s="31" t="n">
-        <v>0</v>
+        <v>0.00476666666666667</v>
       </c>
       <c r="R4" s="31" t="n">
-        <v>0</v>
+        <v>0.0143</v>
       </c>
       <c r="S4" s="31" t="n">
-        <v>0</v>
+        <v>0.00476666666666667</v>
       </c>
       <c r="T4" s="31" t="n">
-        <v>0</v>
+        <v>0.00476666666666667</v>
       </c>
       <c r="U4" s="31" t="n">
-        <v>0</v>
+        <v>0.00476666666666667</v>
       </c>
       <c r="V4" s="31" t="n">
-        <v>0</v>
+        <v>0.0143</v>
       </c>
       <c r="W4" s="31" t="n">
-        <v>0</v>
+        <v>0.0572</v>
       </c>
     </row>
     <row r="5">
@@ -12637,7 +12613,7 @@
         <v>33</v>
       </c>
       <c r="E8" s="31" t="n">
-        <v>0</v>
+        <v>0.0144</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -12708,7 +12684,7 @@
         <v>33</v>
       </c>
       <c r="E9" s="31" t="n">
-        <v>0</v>
+        <v>0.0144</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -12779,7 +12755,7 @@
         <v>33</v>
       </c>
       <c r="E10" s="31" t="n">
-        <v>0</v>
+        <v>0.0144</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -12803,37 +12779,37 @@
         <v>0</v>
       </c>
       <c r="M10" s="31" t="n">
-        <v>0</v>
+        <v>0.0142</v>
       </c>
       <c r="N10" s="31" t="n">
-        <v>0</v>
+        <v>0.0145</v>
       </c>
       <c r="O10" s="31" t="n">
-        <v>0</v>
+        <v>0.0024</v>
       </c>
       <c r="P10" s="31" t="n">
-        <v>0</v>
+        <v>0.0024</v>
       </c>
       <c r="Q10" s="31" t="n">
-        <v>0</v>
+        <v>0.0024</v>
       </c>
       <c r="R10" s="31" t="n">
-        <v>0</v>
+        <v>0.0072</v>
       </c>
       <c r="S10" s="31" t="n">
-        <v>0</v>
+        <v>0.0024</v>
       </c>
       <c r="T10" s="31" t="n">
-        <v>0</v>
+        <v>0.0024</v>
       </c>
       <c r="U10" s="31" t="n">
-        <v>0</v>
+        <v>0.0024</v>
       </c>
       <c r="V10" s="31" t="n">
-        <v>0</v>
+        <v>0.0072</v>
       </c>
       <c r="W10" s="31" t="n">
-        <v>0</v>
+        <v>0.0288</v>
       </c>
     </row>
   </sheetData>
@@ -12935,7 +12911,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="32" t="n">
-        <v>0.0196</v>
+        <v>0.0195</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -13006,7 +12982,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="32" t="n">
-        <v>0.0196</v>
+        <v>0.0195</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -13077,7 +13053,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="32" t="n">
-        <v>0.0196</v>
+        <v>0.0195</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -13101,37 +13077,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="32" t="n">
-        <v>0.00391666666666667</v>
+        <v>0</v>
       </c>
       <c r="N4" s="32" t="n">
-        <v>0.01175</v>
+        <v>0</v>
       </c>
       <c r="O4" s="32" t="n">
-        <v>0.00391666666666667</v>
+        <v>0.00325</v>
       </c>
       <c r="P4" s="32" t="n">
-        <v>0.00391666666666667</v>
+        <v>0.00325</v>
       </c>
       <c r="Q4" s="32" t="n">
-        <v>0.00391666666666667</v>
+        <v>0.00325</v>
       </c>
       <c r="R4" s="32" t="n">
-        <v>0.01175</v>
+        <v>0.00975</v>
       </c>
       <c r="S4" s="32" t="n">
-        <v>0.00391666666666667</v>
+        <v>0.00325</v>
       </c>
       <c r="T4" s="32" t="n">
-        <v>0.00391666666666667</v>
+        <v>0.00325</v>
       </c>
       <c r="U4" s="32" t="n">
-        <v>0.00391666666666667</v>
+        <v>0.00325</v>
       </c>
       <c r="V4" s="32" t="n">
-        <v>0.01175</v>
+        <v>0.00975</v>
       </c>
       <c r="W4" s="32" t="n">
-        <v>0.047</v>
+        <v>0.039</v>
       </c>
     </row>
     <row r="5">
@@ -13343,7 +13319,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="33" t="n">
-        <v>0.0971</v>
+        <v>0.1163</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -13414,7 +13390,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="33" t="n">
-        <v>0.0971</v>
+        <v>0.1163</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -13485,7 +13461,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="33" t="n">
-        <v>0.0971</v>
+        <v>0.1163</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -13497,10 +13473,10 @@
         <v>0</v>
       </c>
       <c r="I4" s="33" t="n">
-        <v>0.1176</v>
+        <v>0.1333</v>
       </c>
       <c r="J4" s="33" t="n">
-        <v>0.0844</v>
+        <v>0.0922</v>
       </c>
       <c r="K4" s="33" t="n">
         <v>0</v>
@@ -13509,37 +13485,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="33" t="n">
-        <v>0.0194166666666667</v>
+        <v>0</v>
       </c>
       <c r="N4" s="33" t="n">
-        <v>0.05825</v>
+        <v>0</v>
       </c>
       <c r="O4" s="33" t="n">
-        <v>0.0194166666666667</v>
+        <v>0.0193833333333333</v>
       </c>
       <c r="P4" s="33" t="n">
-        <v>0.0194166666666667</v>
+        <v>0.0193833333333333</v>
       </c>
       <c r="Q4" s="33" t="n">
-        <v>0.0194166666666667</v>
+        <v>0.0193833333333333</v>
       </c>
       <c r="R4" s="33" t="n">
-        <v>0.05825</v>
+        <v>0.05815</v>
       </c>
       <c r="S4" s="33" t="n">
-        <v>0.0194166666666667</v>
+        <v>0.0193833333333333</v>
       </c>
       <c r="T4" s="33" t="n">
-        <v>0.0194166666666667</v>
+        <v>0.0193833333333333</v>
       </c>
       <c r="U4" s="33" t="n">
-        <v>0.0194166666666667</v>
+        <v>0.0193833333333333</v>
       </c>
       <c r="V4" s="33" t="n">
-        <v>0.05825</v>
+        <v>0.05815</v>
       </c>
       <c r="W4" s="33" t="n">
-        <v>0.233</v>
+        <v>0.2326</v>
       </c>
     </row>
     <row r="5">
@@ -13831,9 +13807,7 @@
         <v>0</v>
       </c>
       <c r="L9" s="33"/>
-      <c r="M9" s="33" t="n">
-        <v>0</v>
-      </c>
+      <c r="M9" s="33"/>
       <c r="N9" s="33" t="n">
         <v>0</v>
       </c>
@@ -16089,7 +16063,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -16160,7 +16134,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -16231,7 +16205,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -16255,37 +16229,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0</v>
+        <v>0.0166666666666667</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0</v>
+        <v>0.0166666666666667</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0</v>
+        <v>0.0166666666666667</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0</v>
+        <v>0.0166666666666667</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>0</v>
+        <v>0.0166666666666667</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>0</v>
+        <v>0.0166666666666667</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="5">
@@ -16709,9 +16683,7 @@
       <c r="D5" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="40" t="n">
-        <v>0</v>
-      </c>
+      <c r="E5" s="40"/>
       <c r="F5" t="s">
         <v>27</v>
       </c>
@@ -16766,9 +16738,7 @@
       <c r="D6" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="40" t="n">
-        <v>0</v>
-      </c>
+      <c r="E6" s="40"/>
       <c r="F6" t="s">
         <v>28</v>
       </c>
@@ -16808,69 +16778,6 @@
       </c>
       <c r="W6" s="40" t="n">
         <v>1.50003</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" s="40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" s="40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" s="40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" s="40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" s="40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T7" s="40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" s="40" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" s="40" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" s="40" t="n">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -17314,12 +17221,8 @@
       </c>
       <c r="K7" s="41"/>
       <c r="L7" s="41"/>
-      <c r="M7" s="41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" s="41" t="n">
-        <v>0</v>
-      </c>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41"/>
       <c r="O7" s="41" t="n">
         <v>0</v>
       </c>
@@ -17826,37 +17729,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="42" t="n">
-        <v>0.00624166666666667</v>
+        <v>0</v>
       </c>
       <c r="N4" s="42" t="n">
-        <v>0.018725</v>
+        <v>0</v>
       </c>
       <c r="O4" s="42" t="n">
-        <v>0.00624166666666667</v>
+        <v>0.0052</v>
       </c>
       <c r="P4" s="42" t="n">
-        <v>0.00624166666666667</v>
+        <v>0.0052</v>
       </c>
       <c r="Q4" s="42" t="n">
-        <v>0.00624166666666667</v>
+        <v>0.0052</v>
       </c>
       <c r="R4" s="42" t="n">
-        <v>0.018725</v>
+        <v>0.0156</v>
       </c>
       <c r="S4" s="42" t="n">
-        <v>0.00624166666666667</v>
+        <v>0.0052</v>
       </c>
       <c r="T4" s="42" t="n">
-        <v>0.00624166666666667</v>
+        <v>0.0052</v>
       </c>
       <c r="U4" s="42" t="n">
-        <v>0.00624166666666667</v>
+        <v>0.0052</v>
       </c>
       <c r="V4" s="42" t="n">
-        <v>0.018725</v>
+        <v>0.0156</v>
       </c>
       <c r="W4" s="42" t="n">
-        <v>0.0749</v>
+        <v>0.0624</v>
       </c>
     </row>
     <row r="5">
@@ -18008,12 +17911,8 @@
       </c>
       <c r="K7" s="42"/>
       <c r="L7" s="42"/>
-      <c r="M7" s="42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" s="42" t="n">
-        <v>1</v>
-      </c>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42"/>
       <c r="O7" s="42" t="n">
         <v>1</v>
       </c>
@@ -18222,37 +18121,37 @@
         <v>0.0278</v>
       </c>
       <c r="M10" s="42" t="n">
-        <v>0.00555833333333333</v>
+        <v>0</v>
       </c>
       <c r="N10" s="42" t="n">
-        <v>0.016675</v>
+        <v>0.0278</v>
       </c>
       <c r="O10" s="42" t="n">
-        <v>0.00555833333333333</v>
+        <v>0.00463333333333333</v>
       </c>
       <c r="P10" s="42" t="n">
-        <v>0.00555833333333333</v>
+        <v>0.00463333333333333</v>
       </c>
       <c r="Q10" s="42" t="n">
-        <v>0.00555833333333333</v>
+        <v>0.00463333333333333</v>
       </c>
       <c r="R10" s="42" t="n">
-        <v>0.016675</v>
+        <v>0.0139</v>
       </c>
       <c r="S10" s="42" t="n">
-        <v>0.00555833333333333</v>
+        <v>0.00463333333333333</v>
       </c>
       <c r="T10" s="42" t="n">
-        <v>0.00555833333333333</v>
+        <v>0.00463333333333333</v>
       </c>
       <c r="U10" s="42" t="n">
-        <v>0.00555833333333333</v>
+        <v>0.00463333333333333</v>
       </c>
       <c r="V10" s="42" t="n">
-        <v>0.016675</v>
+        <v>0.0139</v>
       </c>
       <c r="W10" s="42" t="n">
-        <v>0.0667</v>
+        <v>0.0556</v>
       </c>
     </row>
   </sheetData>
@@ -18823,7 +18722,9 @@
       <c r="D5" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="44"/>
+      <c r="E5" s="44" t="n">
+        <v>0</v>
+      </c>
       <c r="F5" t="s">
         <v>27</v>
       </c>
@@ -18872,7 +18773,9 @@
       <c r="D6" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="44"/>
+      <c r="E6" s="44" t="n">
+        <v>0</v>
+      </c>
       <c r="F6" t="s">
         <v>28</v>
       </c>
@@ -18926,6 +18829,65 @@
       </c>
       <c r="W6" s="44" t="n">
         <v>0.5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" s="44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" s="44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" s="44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" s="44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" s="44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" s="44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" s="44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" s="44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" s="44" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -19304,9 +19266,7 @@
       <c r="L2" s="46" t="n">
         <v>0</v>
       </c>
-      <c r="M2" s="46" t="n">
-        <v>0</v>
-      </c>
+      <c r="M2" s="46"/>
       <c r="N2" s="46" t="n">
         <v>0</v>
       </c>
@@ -19434,11 +19394,13 @@
         <v>77</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="47"/>
+        <v>26</v>
+      </c>
+      <c r="E2" s="47" t="n">
+        <v>0</v>
+      </c>
       <c r="F2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G2" s="47" t="n">
         <v>0</v>
@@ -19455,69 +19417,40 @@
       <c r="K2" s="47" t="n">
         <v>0</v>
       </c>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
+      <c r="L2" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" s="47" t="n">
+        <v>0</v>
+      </c>
       <c r="N2" s="47" t="n">
         <v>0</v>
       </c>
-      <c r="O2" s="47"/>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="47"/>
-      <c r="S2" s="47"/>
-      <c r="T2" s="47"/>
-      <c r="U2" s="47"/>
-      <c r="V2" s="47"/>
+      <c r="O2" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" s="47" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" s="47" t="n">
+        <v>0</v>
+      </c>
       <c r="W2" s="47" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="47"/>
-      <c r="F3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="47" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" s="47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" s="47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" s="47" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" s="47"/>
-      <c r="M3" s="47"/>
-      <c r="N3" s="47" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" s="47"/>
-      <c r="P3" s="47"/>
-      <c r="Q3" s="47"/>
-      <c r="R3" s="47"/>
-      <c r="S3" s="47"/>
-      <c r="T3" s="47"/>
-      <c r="U3" s="47"/>
-      <c r="V3" s="47"/>
-      <c r="W3" s="47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19623,15 +19556,17 @@
       <c r="F2" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="48"/>
+      <c r="G2" s="48" t="n">
+        <v>0</v>
+      </c>
       <c r="H2" s="48" t="n">
         <v>0</v>
       </c>
       <c r="I2" s="48" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J2" s="48" t="n">
-        <v>0.6667</v>
+        <v>0</v>
       </c>
       <c r="K2" s="48" t="n">
         <v>0</v>
@@ -19650,7 +19585,7 @@
       <c r="U2" s="48"/>
       <c r="V2" s="48"/>
       <c r="W2" s="48" t="n">
-        <v>0.5882</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -19670,15 +19605,17 @@
       <c r="F3" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="48"/>
+      <c r="G3" s="48" t="n">
+        <v>0</v>
+      </c>
       <c r="H3" s="48" t="n">
         <v>0</v>
       </c>
       <c r="I3" s="48" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="J3" s="48" t="n">
-        <v>0.60003</v>
+        <v>0</v>
       </c>
       <c r="K3" s="48" t="n">
         <v>0</v>
@@ -19697,7 +19634,7 @@
       <c r="U3" s="48"/>
       <c r="V3" s="48"/>
       <c r="W3" s="48" t="n">
-        <v>0.52938</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -19803,18 +19740,22 @@
         <v>27</v>
       </c>
       <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
+      <c r="H2" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" s="49" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J2" s="49" t="n">
+        <v>0.6667</v>
+      </c>
       <c r="K2" s="49" t="n">
-        <v>1</v>
-      </c>
-      <c r="L2" s="49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L2" s="49"/>
       <c r="M2" s="49"/>
       <c r="N2" s="49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O2" s="49"/>
       <c r="P2" s="49"/>
@@ -19825,7 +19766,7 @@
       <c r="U2" s="49"/>
       <c r="V2" s="49"/>
       <c r="W2" s="49" t="n">
-        <v>1</v>
+        <v>0.5882</v>
       </c>
     </row>
     <row r="3">
@@ -19846,18 +19787,22 @@
         <v>28</v>
       </c>
       <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
-      <c r="J3" s="49"/>
+      <c r="H3" s="49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" s="49" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="J3" s="49" t="n">
+        <v>0.60003</v>
+      </c>
       <c r="K3" s="49" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="L3" s="49" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="L3" s="49"/>
       <c r="M3" s="49"/>
       <c r="N3" s="49" t="n">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="O3" s="49"/>
       <c r="P3" s="49"/>
@@ -19868,7 +19813,7 @@
       <c r="U3" s="49"/>
       <c r="V3" s="49"/>
       <c r="W3" s="49" t="n">
-        <v>0.9</v>
+        <v>0.52938</v>
       </c>
     </row>
   </sheetData>
@@ -20267,57 +20212,228 @@
       <c r="D2" t="s">
         <v>33</v>
       </c>
-      <c r="E2" s="50" t="n">
+      <c r="E2" s="50"/>
+      <c r="F2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" s="50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" s="50"/>
+      <c r="N2" s="50" t="n">
+        <v>1</v>
+      </c>
+      <c r="O2" s="50"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="50"/>
+      <c r="R2" s="50"/>
+      <c r="S2" s="50"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="50"/>
+      <c r="V2" s="50"/>
+      <c r="W2" s="50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="50"/>
+      <c r="F3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="L3" s="50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" s="50"/>
+      <c r="N3" s="50" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="O3" s="50"/>
+      <c r="P3" s="50"/>
+      <c r="Q3" s="50"/>
+      <c r="R3" s="50"/>
+      <c r="S3" s="50"/>
+      <c r="T3" s="50"/>
+      <c r="U3" s="50"/>
+      <c r="V3" s="50"/>
+      <c r="W3" s="50" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="51" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" s="50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" s="50" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" s="50" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" s="50" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" s="50" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" s="50" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" s="50" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="50" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" s="50" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" s="50" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" s="50" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" s="50" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" s="50" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" s="50" t="n">
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" s="51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" s="51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20420,7 +20536,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="6" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -20491,7 +20607,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="6" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -20562,7 +20678,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="6" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -20586,37 +20702,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="6" t="n">
-        <v>0</v>
+        <v>0.0312</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0</v>
+        <v>0.0303</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="Q4" s="6" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="R4" s="6" t="n">
-        <v>0</v>
+        <v>0.015</v>
       </c>
       <c r="S4" s="6" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="T4" s="6" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0</v>
+        <v>0.005</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0</v>
+        <v>0.015</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="5">
@@ -20770,12 +20886,8 @@
       </c>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
-      <c r="M7" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" s="6" t="n">
-        <v>0</v>
-      </c>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
       <c r="O7" s="6" t="n">
         <v>0</v>
       </c>
@@ -20818,7 +20930,7 @@
         <v>33</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.1064</v>
+        <v>0.1061</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -20889,7 +21001,7 @@
         <v>33</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.1064</v>
+        <v>0.1061</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -20960,7 +21072,7 @@
         <v>33</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>0.1064</v>
+        <v>0.1061</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -20984,37 +21096,37 @@
         <v>0</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>0.0212833333333333</v>
+        <v>0</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.06385</v>
+        <v>0</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0212833333333333</v>
+        <v>0.0176833333333333</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0212833333333333</v>
+        <v>0.0176833333333333</v>
       </c>
       <c r="Q10" s="6" t="n">
-        <v>0.0212833333333333</v>
+        <v>0.0176833333333333</v>
       </c>
       <c r="R10" s="6" t="n">
-        <v>0.06385</v>
+        <v>0.05305</v>
       </c>
       <c r="S10" s="6" t="n">
-        <v>0.0212833333333333</v>
+        <v>0.0176833333333333</v>
       </c>
       <c r="T10" s="6" t="n">
-        <v>0.0212833333333333</v>
+        <v>0.0176833333333333</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.0212833333333333</v>
+        <v>0.0176833333333333</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06385</v>
+        <v>0.05305</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2554</v>
+        <v>0.2122</v>
       </c>
     </row>
   </sheetData>
@@ -21822,7 +21934,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="9" t="n">
-        <v>0.7143</v>
+        <v>0.7692</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -21893,7 +22005,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="9" t="n">
-        <v>0.7143</v>
+        <v>0.7692</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -21964,7 +22076,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="9" t="n">
-        <v>0.7143</v>
+        <v>0.7692</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -21988,37 +22100,37 @@
         <v>0</v>
       </c>
       <c r="M4" s="9" t="n">
-        <v>0.142858333333333</v>
+        <v>0</v>
       </c>
       <c r="N4" s="9" t="n">
-        <v>0.428575</v>
+        <v>0</v>
       </c>
       <c r="O4" s="9" t="n">
-        <v>0.142858333333333</v>
+        <v>0.1282</v>
       </c>
       <c r="P4" s="9" t="n">
-        <v>0.142858333333333</v>
+        <v>0.1282</v>
       </c>
       <c r="Q4" s="9" t="n">
-        <v>0.142858333333333</v>
+        <v>0.1282</v>
       </c>
       <c r="R4" s="9" t="n">
-        <v>0.428575</v>
+        <v>0.3846</v>
       </c>
       <c r="S4" s="9" t="n">
-        <v>0.142858333333333</v>
+        <v>0.1282</v>
       </c>
       <c r="T4" s="9" t="n">
-        <v>0.142858333333333</v>
+        <v>0.1282</v>
       </c>
       <c r="U4" s="9" t="n">
-        <v>0.142858333333333</v>
+        <v>0.1282</v>
       </c>
       <c r="V4" s="9" t="n">
-        <v>0.428575</v>
+        <v>0.3846</v>
       </c>
       <c r="W4" s="9" t="n">
-        <v>1.7143</v>
+        <v>1.5384</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/SORs/SOR Testing_IPS Couplings Division.xlsx
+++ b/outputs/SORs/SOR Testing_IPS Couplings Division.xlsx
@@ -57,12 +57,13 @@
     <sheet name="Columbia City Indiana" sheetId="49" state="visible" r:id="rId49"/>
     <sheet name="Guangdong China" sheetId="50" state="visible" r:id="rId50"/>
     <sheet name="Santiago Chile" sheetId="51" state="visible" r:id="rId51"/>
+    <sheet name="Heidelberg Germany" sheetId="52" state="visible" r:id="rId52"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <si>
     <t xml:space="preserve">segment_function</t>
   </si>
@@ -309,12 +310,15 @@
   <si>
     <t xml:space="preserve">Santiago Chile</t>
   </si>
+  <si>
+    <t xml:space="preserve">Heidelberg Germany</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="51">
+  <numFmts count="52">
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
@@ -366,6 +370,7 @@
     <numFmt numFmtId="213" formatCode="0.0%"/>
     <numFmt numFmtId="214" formatCode="0.0%"/>
     <numFmt numFmtId="215" formatCode="0.0%"/>
+    <numFmt numFmtId="216" formatCode="0.0%"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -401,7 +406,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
@@ -454,6 +459,7 @@
     <xf numFmtId="213" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="214" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf numFmtId="215" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="216" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2322,7 +2328,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="14" t="n">
-        <v>0.0743</v>
+        <v>0.076</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -2393,7 +2399,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="14" t="n">
-        <v>0.0743</v>
+        <v>0.076</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -2464,13 +2470,13 @@
         <v>26</v>
       </c>
       <c r="E4" s="14" t="n">
-        <v>0.0743</v>
+        <v>0.076</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
       </c>
       <c r="G4" s="14" t="n">
-        <v>0.0556</v>
+        <v>0.0566</v>
       </c>
       <c r="H4" s="14" t="n">
         <v>0</v>
@@ -2479,46 +2485,46 @@
         <v>0</v>
       </c>
       <c r="J4" s="14" t="n">
-        <v>0.0548</v>
+        <v>0.0559</v>
       </c>
       <c r="K4" s="14" t="n">
         <v>0</v>
       </c>
       <c r="L4" s="14" t="n">
+        <v>0.0196</v>
+      </c>
+      <c r="M4" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" s="14" t="n">
         <v>0.0192</v>
       </c>
-      <c r="M4" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" s="14" t="n">
-        <v>0.0189</v>
-      </c>
       <c r="O4" s="14" t="n">
-        <v>0.0123833333333333</v>
+        <v>0</v>
       </c>
       <c r="P4" s="14" t="n">
-        <v>0.0123833333333333</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="14" t="n">
-        <v>0.0123833333333333</v>
+        <v>0</v>
       </c>
       <c r="R4" s="14" t="n">
-        <v>0.03715</v>
+        <v>0</v>
       </c>
       <c r="S4" s="14" t="n">
-        <v>0.0123833333333333</v>
+        <v>0</v>
       </c>
       <c r="T4" s="14" t="n">
-        <v>0.0123833333333333</v>
+        <v>0</v>
       </c>
       <c r="U4" s="14" t="n">
-        <v>0.0123833333333333</v>
+        <v>0</v>
       </c>
       <c r="V4" s="14" t="n">
-        <v>0.03715</v>
+        <v>0</v>
       </c>
       <c r="W4" s="14" t="n">
-        <v>0.1486</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -2680,9 +2686,7 @@
       <c r="N7" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="O7" s="14" t="n">
-        <v>0.666666666666667</v>
-      </c>
+      <c r="O7" s="14"/>
       <c r="P7" s="14" t="n">
         <v>0.666666666666667</v>
       </c>
@@ -2722,7 +2726,7 @@
         <v>33</v>
       </c>
       <c r="E8" s="14" t="n">
-        <v>0.1106</v>
+        <v>0.108</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -2793,7 +2797,7 @@
         <v>33</v>
       </c>
       <c r="E9" s="14" t="n">
-        <v>0.1106</v>
+        <v>0.108</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -2864,7 +2868,7 @@
         <v>33</v>
       </c>
       <c r="E10" s="14" t="n">
-        <v>0.1106</v>
+        <v>0.108</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -2873,52 +2877,52 @@
         <v>0</v>
       </c>
       <c r="H10" s="14" t="n">
+        <v>0.0213</v>
+      </c>
+      <c r="I10" s="14" t="n">
+        <v>0.0208</v>
+      </c>
+      <c r="J10" s="14" t="n">
+        <v>0.0428</v>
+      </c>
+      <c r="K10" s="14" t="n">
         <v>0.0217</v>
       </c>
-      <c r="I10" s="14" t="n">
-        <v>0.0213</v>
-      </c>
-      <c r="J10" s="14" t="n">
-        <v>0.0438</v>
-      </c>
-      <c r="K10" s="14" t="n">
-        <v>0.0222</v>
-      </c>
       <c r="L10" s="14" t="n">
-        <v>0.0455</v>
+        <v>0.0444</v>
       </c>
       <c r="M10" s="14" t="n">
         <v>0</v>
       </c>
       <c r="N10" s="14" t="n">
-        <v>0.0671</v>
+        <v>0.0656</v>
       </c>
       <c r="O10" s="14" t="n">
-        <v>0.0184333333333333</v>
+        <v>0</v>
       </c>
       <c r="P10" s="14" t="n">
-        <v>0.0184333333333333</v>
+        <v>0.015425</v>
       </c>
       <c r="Q10" s="14" t="n">
-        <v>0.0184333333333333</v>
+        <v>0.015425</v>
       </c>
       <c r="R10" s="14" t="n">
-        <v>0.0553</v>
+        <v>0.046275</v>
       </c>
       <c r="S10" s="14" t="n">
-        <v>0.0184333333333333</v>
+        <v>0.015425</v>
       </c>
       <c r="T10" s="14" t="n">
-        <v>0.0184333333333333</v>
+        <v>0.015425</v>
       </c>
       <c r="U10" s="14" t="n">
-        <v>0.0184333333333333</v>
+        <v>0.015425</v>
       </c>
       <c r="V10" s="14" t="n">
-        <v>0.0553</v>
+        <v>0.046275</v>
       </c>
       <c r="W10" s="14" t="n">
-        <v>0.2212</v>
+        <v>0.1851</v>
       </c>
     </row>
   </sheetData>
@@ -3020,7 +3024,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="15" t="n">
-        <v>0.1075</v>
+        <v>0.1261</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -3091,7 +3095,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="15" t="n">
-        <v>0.1075</v>
+        <v>0.1261</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -3162,7 +3166,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="15" t="n">
-        <v>0.1075</v>
+        <v>0.1261</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -3174,49 +3178,49 @@
         <v>0</v>
       </c>
       <c r="I4" s="15" t="n">
+        <v>0.0208</v>
+      </c>
+      <c r="J4" s="15" t="n">
+        <v>0.0211</v>
+      </c>
+      <c r="K4" s="15" t="n">
+        <v>0.0426</v>
+      </c>
+      <c r="L4" s="15" t="n">
+        <v>0.0204</v>
+      </c>
+      <c r="M4" s="15" t="n">
         <v>0.0213</v>
       </c>
-      <c r="J4" s="15" t="n">
-        <v>0.0216</v>
-      </c>
-      <c r="K4" s="15" t="n">
-        <v>0.0435</v>
-      </c>
-      <c r="L4" s="15" t="n">
+      <c r="N4" s="15" t="n">
+        <v>0.0839</v>
+      </c>
+      <c r="O4" s="15" t="n">
         <v>0.0208</v>
       </c>
-      <c r="M4" s="15" t="n">
-        <v>0.0217</v>
-      </c>
-      <c r="N4" s="15" t="n">
-        <v>0.0857</v>
-      </c>
-      <c r="O4" s="15" t="n">
-        <v>0.0179166666666667</v>
-      </c>
       <c r="P4" s="15" t="n">
-        <v>0.0179166666666667</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="15" t="n">
-        <v>0.0179166666666667</v>
+        <v>0</v>
       </c>
       <c r="R4" s="15" t="n">
-        <v>0.05375</v>
+        <v>0</v>
       </c>
       <c r="S4" s="15" t="n">
-        <v>0.0179166666666667</v>
+        <v>0</v>
       </c>
       <c r="T4" s="15" t="n">
-        <v>0.0179166666666667</v>
+        <v>0</v>
       </c>
       <c r="U4" s="15" t="n">
-        <v>0.0179166666666667</v>
+        <v>0</v>
       </c>
       <c r="V4" s="15" t="n">
-        <v>0.05375</v>
+        <v>0</v>
       </c>
       <c r="W4" s="15" t="n">
-        <v>0.215</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -3233,7 +3237,7 @@
         <v>32</v>
       </c>
       <c r="E5" s="15" t="n">
-        <v>0.666666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -3284,7 +3288,7 @@
         <v>32</v>
       </c>
       <c r="E6" s="15" t="n">
-        <v>0.666666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -3355,7 +3359,7 @@
         <v>32</v>
       </c>
       <c r="E7" s="15" t="n">
-        <v>0.666666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
@@ -3364,11 +3368,9 @@
       <c r="H7" s="15" t="n">
         <v>0</v>
       </c>
-      <c r="I7" s="15" t="n">
-        <v>1</v>
-      </c>
+      <c r="I7" s="15"/>
       <c r="J7" s="15" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K7" s="15"/>
       <c r="L7" s="15"/>
@@ -3378,32 +3380,30 @@
       <c r="N7" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="O7" s="15" t="n">
-        <v>0.666666666666667</v>
-      </c>
+      <c r="O7" s="15"/>
       <c r="P7" s="15" t="n">
-        <v>0.666666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="Q7" s="15" t="n">
-        <v>0.666666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="R7" s="15" t="n">
-        <v>0.666666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="S7" s="15" t="n">
-        <v>0.666666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="T7" s="15" t="n">
-        <v>0.666666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="U7" s="15" t="n">
-        <v>0.666666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="V7" s="15" t="n">
-        <v>0.666666666666667</v>
+        <v>0.5</v>
       </c>
       <c r="W7" s="15" t="n">
-        <v>0.666666666666667</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="8">
@@ -3420,7 +3420,7 @@
         <v>33</v>
       </c>
       <c r="E8" s="15" t="n">
-        <v>0.0735</v>
+        <v>0.0846</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -3491,7 +3491,7 @@
         <v>33</v>
       </c>
       <c r="E9" s="15" t="n">
-        <v>0.0735</v>
+        <v>0.0846</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -3562,13 +3562,13 @@
         <v>33</v>
       </c>
       <c r="E10" s="15" t="n">
-        <v>0.0735</v>
+        <v>0.0846</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
       </c>
       <c r="G10" s="15" t="n">
-        <v>0.0149</v>
+        <v>0.0143</v>
       </c>
       <c r="H10" s="15" t="n">
         <v>0</v>
@@ -3577,46 +3577,46 @@
         <v>0</v>
       </c>
       <c r="J10" s="15" t="n">
-        <v>0.0147</v>
+        <v>0.0141</v>
       </c>
       <c r="K10" s="15" t="n">
         <v>0</v>
       </c>
       <c r="L10" s="15" t="n">
-        <v>0.0597</v>
+        <v>0.0571</v>
       </c>
       <c r="M10" s="15" t="n">
         <v>0</v>
       </c>
       <c r="N10" s="15" t="n">
-        <v>0.0588</v>
+        <v>0.0563</v>
       </c>
       <c r="O10" s="15" t="n">
-        <v>0.01225</v>
+        <v>0.0143</v>
       </c>
       <c r="P10" s="15" t="n">
-        <v>0.01225</v>
+        <v>0.0120833333333333</v>
       </c>
       <c r="Q10" s="15" t="n">
-        <v>0.01225</v>
+        <v>0.0120833333333333</v>
       </c>
       <c r="R10" s="15" t="n">
-        <v>0.03675</v>
+        <v>0.03625</v>
       </c>
       <c r="S10" s="15" t="n">
-        <v>0.01225</v>
+        <v>0.0120833333333333</v>
       </c>
       <c r="T10" s="15" t="n">
-        <v>0.01225</v>
+        <v>0.0120833333333333</v>
       </c>
       <c r="U10" s="15" t="n">
-        <v>0.01225</v>
+        <v>0.0120833333333333</v>
       </c>
       <c r="V10" s="15" t="n">
-        <v>0.03675</v>
+        <v>0.03625</v>
       </c>
       <c r="W10" s="15" t="n">
-        <v>0.147</v>
+        <v>0.145</v>
       </c>
     </row>
   </sheetData>
@@ -3718,7 +3718,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="16" t="n">
-        <v>0.0261</v>
+        <v>0.0259</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -3789,7 +3789,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="16" t="n">
-        <v>0.0261</v>
+        <v>0.0259</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -3860,61 +3860,61 @@
         <v>26</v>
       </c>
       <c r="E4" s="16" t="n">
-        <v>0.0261</v>
+        <v>0.0259</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
       </c>
       <c r="G4" s="16" t="n">
+        <v>0.0085</v>
+      </c>
+      <c r="H4" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" s="16" t="n">
         <v>0.0086</v>
       </c>
-      <c r="H4" s="16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="16" t="n">
-        <v>0.0087</v>
-      </c>
       <c r="J4" s="16" t="n">
-        <v>0.0173</v>
+        <v>0.0172</v>
       </c>
       <c r="K4" s="16" t="n">
         <v>0</v>
       </c>
       <c r="L4" s="16" t="n">
-        <v>0.0087</v>
+        <v>0.0086</v>
       </c>
       <c r="M4" s="16" t="n">
         <v>0</v>
       </c>
       <c r="N4" s="16" t="n">
-        <v>0.0087</v>
+        <v>0.0086</v>
       </c>
       <c r="O4" s="16" t="n">
-        <v>0.00435</v>
+        <v>0</v>
       </c>
       <c r="P4" s="16" t="n">
-        <v>0.00435</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="16" t="n">
-        <v>0.00435</v>
+        <v>0</v>
       </c>
       <c r="R4" s="16" t="n">
-        <v>0.01305</v>
+        <v>0</v>
       </c>
       <c r="S4" s="16" t="n">
-        <v>0.00435</v>
+        <v>0</v>
       </c>
       <c r="T4" s="16" t="n">
-        <v>0.00435</v>
+        <v>0</v>
       </c>
       <c r="U4" s="16" t="n">
-        <v>0.00435</v>
+        <v>0</v>
       </c>
       <c r="V4" s="16" t="n">
-        <v>0.01305</v>
+        <v>0</v>
       </c>
       <c r="W4" s="16" t="n">
-        <v>0.0522</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -4086,9 +4086,7 @@
       <c r="N7" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="O7" s="16" t="n">
-        <v>0</v>
-      </c>
+      <c r="O7" s="16"/>
       <c r="P7" s="16" t="n">
         <v>0</v>
       </c>
@@ -4426,7 +4424,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="17" t="n">
-        <v>0</v>
+        <v>0.0357</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -4497,7 +4495,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="17" t="n">
-        <v>0</v>
+        <v>0.0357</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -4568,7 +4566,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="17" t="n">
-        <v>0</v>
+        <v>0.0357</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -4598,7 +4596,7 @@
         <v>0</v>
       </c>
       <c r="O4" s="17" t="n">
-        <v>0</v>
+        <v>0.0345</v>
       </c>
       <c r="P4" s="17" t="n">
         <v>0</v>
@@ -4753,7 +4751,7 @@
         <v>33</v>
       </c>
       <c r="E7" s="17" t="n">
-        <v>0</v>
+        <v>0.0552</v>
       </c>
       <c r="F7" t="s">
         <v>27</v>
@@ -4824,7 +4822,7 @@
         <v>33</v>
       </c>
       <c r="E8" s="17" t="n">
-        <v>0</v>
+        <v>0.0552</v>
       </c>
       <c r="F8" t="s">
         <v>28</v>
@@ -4895,7 +4893,7 @@
         <v>33</v>
       </c>
       <c r="E9" s="17" t="n">
-        <v>0</v>
+        <v>0.0552</v>
       </c>
       <c r="F9" t="s">
         <v>29</v>
@@ -4925,31 +4923,31 @@
         <v>0</v>
       </c>
       <c r="O9" s="17" t="n">
-        <v>0</v>
+        <v>0.0556</v>
       </c>
       <c r="P9" s="17" t="n">
-        <v>0</v>
+        <v>0.00788333333333333</v>
       </c>
       <c r="Q9" s="17" t="n">
-        <v>0</v>
+        <v>0.00788333333333333</v>
       </c>
       <c r="R9" s="17" t="n">
-        <v>0</v>
+        <v>0.02365</v>
       </c>
       <c r="S9" s="17" t="n">
-        <v>0</v>
+        <v>0.00788333333333333</v>
       </c>
       <c r="T9" s="17" t="n">
-        <v>0</v>
+        <v>0.00788333333333333</v>
       </c>
       <c r="U9" s="17" t="n">
-        <v>0</v>
+        <v>0.00788333333333333</v>
       </c>
       <c r="V9" s="17" t="n">
-        <v>0</v>
+        <v>0.02365</v>
       </c>
       <c r="W9" s="17" t="n">
-        <v>0</v>
+        <v>0.0946</v>
       </c>
     </row>
   </sheetData>
@@ -5051,7 +5049,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="18" t="n">
-        <v>0.0137</v>
+        <v>0.0135</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -5122,7 +5120,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="18" t="n">
-        <v>0.0137</v>
+        <v>0.0135</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -5193,7 +5191,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="18" t="n">
-        <v>0.0137</v>
+        <v>0.0135</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -5217,107 +5215,36 @@
         <v>0</v>
       </c>
       <c r="M4" s="18" t="n">
-        <v>0.0137</v>
+        <v>0.0135</v>
       </c>
       <c r="N4" s="18" t="n">
-        <v>0.0136</v>
+        <v>0.0134</v>
       </c>
       <c r="O4" s="18" t="n">
-        <v>0.00228333333333333</v>
+        <v>0</v>
       </c>
       <c r="P4" s="18" t="n">
-        <v>0.00228333333333333</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="18" t="n">
-        <v>0.00228333333333333</v>
+        <v>0</v>
       </c>
       <c r="R4" s="18" t="n">
-        <v>0.00685</v>
+        <v>0</v>
       </c>
       <c r="S4" s="18" t="n">
-        <v>0.00228333333333333</v>
+        <v>0</v>
       </c>
       <c r="T4" s="18" t="n">
-        <v>0.00228333333333333</v>
+        <v>0</v>
       </c>
       <c r="U4" s="18" t="n">
-        <v>0.00228333333333333</v>
+        <v>0</v>
       </c>
       <c r="V4" s="18" t="n">
-        <v>0.00685</v>
+        <v>0</v>
       </c>
       <c r="W4" s="18" t="n">
-        <v>0.0274</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" s="18" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" s="18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5924,7 +5851,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="20" t="n">
-        <v>0.0556</v>
+        <v>0.0557</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -5995,7 +5922,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="20" t="n">
-        <v>0.0556</v>
+        <v>0.0557</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -6066,7 +5993,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="20" t="n">
-        <v>0.0556</v>
+        <v>0.0557</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -6096,31 +6023,31 @@
         <v>0.0566</v>
       </c>
       <c r="O4" s="20" t="n">
-        <v>0.00926666666666667</v>
+        <v>0</v>
       </c>
       <c r="P4" s="20" t="n">
-        <v>0.00926666666666667</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="20" t="n">
-        <v>0.00926666666666667</v>
+        <v>0</v>
       </c>
       <c r="R4" s="20" t="n">
-        <v>0.0278</v>
+        <v>0</v>
       </c>
       <c r="S4" s="20" t="n">
-        <v>0.00926666666666667</v>
+        <v>0</v>
       </c>
       <c r="T4" s="20" t="n">
-        <v>0.00926666666666667</v>
+        <v>0</v>
       </c>
       <c r="U4" s="20" t="n">
-        <v>0.00926666666666667</v>
+        <v>0</v>
       </c>
       <c r="V4" s="20" t="n">
-        <v>0.0278</v>
+        <v>0</v>
       </c>
       <c r="W4" s="20" t="n">
-        <v>0.1112</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -6137,7 +6064,7 @@
         <v>32</v>
       </c>
       <c r="E5" s="20" t="n">
-        <v>0.5</v>
+        <v>0.933333333333333</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -6180,7 +6107,7 @@
         <v>32</v>
       </c>
       <c r="E6" s="20" t="n">
-        <v>0.5</v>
+        <v>0.933333333333333</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -6251,7 +6178,7 @@
         <v>32</v>
       </c>
       <c r="E7" s="20" t="n">
-        <v>0.5</v>
+        <v>0.933333333333333</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
@@ -6263,37 +6190,37 @@
       <c r="K7" s="20"/>
       <c r="L7" s="20"/>
       <c r="M7" s="20" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="N7" s="20" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="O7" s="20" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P7" s="20" t="n">
-        <v>0.5</v>
+        <v>0.933333333333333</v>
       </c>
       <c r="Q7" s="20" t="n">
-        <v>0.5</v>
+        <v>0.933333333333333</v>
       </c>
       <c r="R7" s="20" t="n">
-        <v>0.5</v>
+        <v>0.933333333333333</v>
       </c>
       <c r="S7" s="20" t="n">
-        <v>0.5</v>
+        <v>0.933333333333333</v>
       </c>
       <c r="T7" s="20" t="n">
-        <v>0.5</v>
+        <v>0.933333333333333</v>
       </c>
       <c r="U7" s="20" t="n">
-        <v>0.5</v>
+        <v>0.933333333333333</v>
       </c>
       <c r="V7" s="20" t="n">
-        <v>0.5</v>
+        <v>0.933333333333333</v>
       </c>
       <c r="W7" s="20" t="n">
-        <v>0.5</v>
+        <v>0.933333333333333</v>
       </c>
     </row>
     <row r="8">
@@ -6608,7 +6535,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="21" t="n">
-        <v>0.0485</v>
+        <v>0.0487</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -6679,7 +6606,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="21" t="n">
-        <v>0.0485</v>
+        <v>0.0487</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -6750,7 +6677,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="21" t="n">
-        <v>0.0485</v>
+        <v>0.0487</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -6780,31 +6707,31 @@
         <v>0.0328</v>
       </c>
       <c r="O4" s="21" t="n">
-        <v>0.00808333333333333</v>
+        <v>0</v>
       </c>
       <c r="P4" s="21" t="n">
-        <v>0.00808333333333333</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="21" t="n">
-        <v>0.00808333333333333</v>
+        <v>0</v>
       </c>
       <c r="R4" s="21" t="n">
-        <v>0.02425</v>
+        <v>0</v>
       </c>
       <c r="S4" s="21" t="n">
-        <v>0.00808333333333333</v>
+        <v>0</v>
       </c>
       <c r="T4" s="21" t="n">
-        <v>0.00808333333333333</v>
+        <v>0</v>
       </c>
       <c r="U4" s="21" t="n">
-        <v>0.00808333333333333</v>
+        <v>0</v>
       </c>
       <c r="V4" s="21" t="n">
-        <v>0.02425</v>
+        <v>0</v>
       </c>
       <c r="W4" s="21" t="n">
-        <v>0.097</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -6821,7 +6748,7 @@
         <v>32</v>
       </c>
       <c r="E5" s="21" t="n">
-        <v>0</v>
+        <v>0.944444444444444</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -6868,7 +6795,7 @@
         <v>32</v>
       </c>
       <c r="E6" s="21" t="n">
-        <v>0</v>
+        <v>0.944444444444444</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -6939,7 +6866,7 @@
         <v>32</v>
       </c>
       <c r="E7" s="21" t="n">
-        <v>0</v>
+        <v>0.944444444444444</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
@@ -6957,31 +6884,31 @@
       <c r="M7" s="21"/>
       <c r="N7" s="21"/>
       <c r="O7" s="21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" s="21" t="n">
-        <v>0</v>
+        <v>0.944444444444444</v>
       </c>
       <c r="Q7" s="21" t="n">
-        <v>0</v>
+        <v>0.944444444444444</v>
       </c>
       <c r="R7" s="21" t="n">
-        <v>0</v>
+        <v>0.944444444444444</v>
       </c>
       <c r="S7" s="21" t="n">
-        <v>0</v>
+        <v>0.944444444444444</v>
       </c>
       <c r="T7" s="21" t="n">
-        <v>0</v>
+        <v>0.944444444444444</v>
       </c>
       <c r="U7" s="21" t="n">
-        <v>0</v>
+        <v>0.944444444444444</v>
       </c>
       <c r="V7" s="21" t="n">
-        <v>0</v>
+        <v>0.944444444444444</v>
       </c>
       <c r="W7" s="21" t="n">
-        <v>0</v>
+        <v>0.944444444444444</v>
       </c>
     </row>
     <row r="8">
@@ -8202,31 +8129,31 @@
         <v>0</v>
       </c>
       <c r="O4" s="24" t="n">
-        <v>0.05555</v>
+        <v>0</v>
       </c>
       <c r="P4" s="24" t="n">
-        <v>0.05555</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="24" t="n">
-        <v>0.05555</v>
+        <v>0</v>
       </c>
       <c r="R4" s="24" t="n">
-        <v>0.16665</v>
+        <v>0</v>
       </c>
       <c r="S4" s="24" t="n">
-        <v>0.05555</v>
+        <v>0</v>
       </c>
       <c r="T4" s="24" t="n">
-        <v>0.05555</v>
+        <v>0</v>
       </c>
       <c r="U4" s="24" t="n">
-        <v>0.05555</v>
+        <v>0</v>
       </c>
       <c r="V4" s="24" t="n">
-        <v>0.16665</v>
+        <v>0</v>
       </c>
       <c r="W4" s="24" t="n">
-        <v>0.6666</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -8328,7 +8255,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="25" t="n">
-        <v>0.1136</v>
+        <v>0.2299</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -8399,7 +8326,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="25" t="n">
-        <v>0.1136</v>
+        <v>0.2299</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -8470,7 +8397,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="25" t="n">
-        <v>0.1136</v>
+        <v>0.2299</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -8500,31 +8427,31 @@
         <v>0</v>
       </c>
       <c r="O4" s="25" t="n">
-        <v>0.0189333333333333</v>
+        <v>0.125</v>
       </c>
       <c r="P4" s="25" t="n">
-        <v>0.0189333333333333</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="25" t="n">
-        <v>0.0189333333333333</v>
+        <v>0</v>
       </c>
       <c r="R4" s="25" t="n">
-        <v>0.0568</v>
+        <v>0</v>
       </c>
       <c r="S4" s="25" t="n">
-        <v>0.0189333333333333</v>
+        <v>0</v>
       </c>
       <c r="T4" s="25" t="n">
-        <v>0.0189333333333333</v>
+        <v>0</v>
       </c>
       <c r="U4" s="25" t="n">
-        <v>0.0189333333333333</v>
+        <v>0</v>
       </c>
       <c r="V4" s="25" t="n">
-        <v>0.0568</v>
+        <v>0</v>
       </c>
       <c r="W4" s="25" t="n">
-        <v>0.2272</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -8558,9 +8485,7 @@
       <c r="L5" s="25"/>
       <c r="M5" s="25"/>
       <c r="N5" s="25"/>
-      <c r="O5" s="25" t="n">
-        <v>0</v>
-      </c>
+      <c r="O5" s="25"/>
       <c r="P5" s="25" t="n">
         <v>0</v>
       </c>
@@ -8600,7 +8525,7 @@
         <v>33</v>
       </c>
       <c r="E6" s="25" t="n">
-        <v>0.1695</v>
+        <v>0.1681</v>
       </c>
       <c r="F6" t="s">
         <v>27</v>
@@ -8671,7 +8596,7 @@
         <v>33</v>
       </c>
       <c r="E7" s="25" t="n">
-        <v>0.1695</v>
+        <v>0.1681</v>
       </c>
       <c r="F7" t="s">
         <v>28</v>
@@ -8742,7 +8667,7 @@
         <v>33</v>
       </c>
       <c r="E8" s="25" t="n">
-        <v>0.1695</v>
+        <v>0.1681</v>
       </c>
       <c r="F8" t="s">
         <v>29</v>
@@ -8772,31 +8697,31 @@
         <v>0.1667</v>
       </c>
       <c r="O8" s="25" t="n">
-        <v>0.02825</v>
+        <v>0</v>
       </c>
       <c r="P8" s="25" t="n">
-        <v>0.02825</v>
+        <v>0.0240166666666667</v>
       </c>
       <c r="Q8" s="25" t="n">
-        <v>0.02825</v>
+        <v>0.0240166666666667</v>
       </c>
       <c r="R8" s="25" t="n">
-        <v>0.08475</v>
+        <v>0.07205</v>
       </c>
       <c r="S8" s="25" t="n">
-        <v>0.02825</v>
+        <v>0.0240166666666667</v>
       </c>
       <c r="T8" s="25" t="n">
-        <v>0.02825</v>
+        <v>0.0240166666666667</v>
       </c>
       <c r="U8" s="25" t="n">
-        <v>0.02825</v>
+        <v>0.0240166666666667</v>
       </c>
       <c r="V8" s="25" t="n">
-        <v>0.08475</v>
+        <v>0.07205</v>
       </c>
       <c r="W8" s="25" t="n">
-        <v>0.339</v>
+        <v>0.2882</v>
       </c>
     </row>
   </sheetData>
@@ -9196,7 +9121,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="27" t="n">
-        <v>0.2308</v>
+        <v>0.2564</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -9267,7 +9192,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="27" t="n">
-        <v>0.2308</v>
+        <v>0.2564</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -9338,22 +9263,22 @@
         <v>26</v>
       </c>
       <c r="E4" s="27" t="n">
-        <v>0.2308</v>
+        <v>0.2564</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
       </c>
       <c r="G4" s="27" t="n">
-        <v>0.0667</v>
+        <v>0.0714</v>
       </c>
       <c r="H4" s="27" t="n">
-        <v>0.0714</v>
+        <v>0.0769</v>
       </c>
       <c r="I4" s="27" t="n">
-        <v>0.0769</v>
+        <v>0.0833</v>
       </c>
       <c r="J4" s="27" t="n">
-        <v>0.2143</v>
+        <v>0.2308</v>
       </c>
       <c r="K4" s="27" t="n">
         <v>0</v>
@@ -9368,31 +9293,31 @@
         <v>0</v>
       </c>
       <c r="O4" s="27" t="n">
-        <v>0.0384666666666667</v>
+        <v>0</v>
       </c>
       <c r="P4" s="27" t="n">
-        <v>0.0384666666666667</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="27" t="n">
-        <v>0.0384666666666667</v>
+        <v>0</v>
       </c>
       <c r="R4" s="27" t="n">
-        <v>0.1154</v>
+        <v>0</v>
       </c>
       <c r="S4" s="27" t="n">
-        <v>0.0384666666666667</v>
+        <v>0</v>
       </c>
       <c r="T4" s="27" t="n">
-        <v>0.0384666666666667</v>
+        <v>0</v>
       </c>
       <c r="U4" s="27" t="n">
-        <v>0.0384666666666667</v>
+        <v>0</v>
       </c>
       <c r="V4" s="27" t="n">
-        <v>0.1154</v>
+        <v>0</v>
       </c>
       <c r="W4" s="27" t="n">
-        <v>0.4616</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -9409,7 +9334,7 @@
         <v>33</v>
       </c>
       <c r="E5" s="27" t="n">
-        <v>0.0556</v>
+        <v>0.0595</v>
       </c>
       <c r="F5" t="s">
         <v>27</v>
@@ -9480,7 +9405,7 @@
         <v>33</v>
       </c>
       <c r="E6" s="27" t="n">
-        <v>0.0556</v>
+        <v>0.0595</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -9551,7 +9476,7 @@
         <v>33</v>
       </c>
       <c r="E7" s="27" t="n">
-        <v>0.0556</v>
+        <v>0.0595</v>
       </c>
       <c r="F7" t="s">
         <v>29</v>
@@ -9581,31 +9506,31 @@
         <v>0</v>
       </c>
       <c r="O7" s="27" t="n">
-        <v>0.00926666666666667</v>
+        <v>0</v>
       </c>
       <c r="P7" s="27" t="n">
-        <v>0.00926666666666667</v>
+        <v>0.0085</v>
       </c>
       <c r="Q7" s="27" t="n">
-        <v>0.00926666666666667</v>
+        <v>0.0085</v>
       </c>
       <c r="R7" s="27" t="n">
-        <v>0.0278</v>
+        <v>0.0255</v>
       </c>
       <c r="S7" s="27" t="n">
-        <v>0.00926666666666667</v>
+        <v>0.0085</v>
       </c>
       <c r="T7" s="27" t="n">
-        <v>0.00926666666666667</v>
+        <v>0.0085</v>
       </c>
       <c r="U7" s="27" t="n">
-        <v>0.00926666666666667</v>
+        <v>0.0085</v>
       </c>
       <c r="V7" s="27" t="n">
-        <v>0.0278</v>
+        <v>0.0255</v>
       </c>
       <c r="W7" s="27" t="n">
-        <v>0.1112</v>
+        <v>0.102</v>
       </c>
     </row>
   </sheetData>
@@ -9707,7 +9632,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="28" t="n">
-        <v>0.1734</v>
+        <v>0.1754</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -9778,7 +9703,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="28" t="n">
-        <v>0.1734</v>
+        <v>0.1754</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -9849,7 +9774,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="28" t="n">
-        <v>0.1734</v>
+        <v>0.1754</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -9879,31 +9804,31 @@
         <v>0.1227</v>
       </c>
       <c r="O4" s="28" t="n">
-        <v>0.0289</v>
+        <v>0</v>
       </c>
       <c r="P4" s="28" t="n">
-        <v>0.0289</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="28" t="n">
-        <v>0.0289</v>
+        <v>0</v>
       </c>
       <c r="R4" s="28" t="n">
-        <v>0.0867</v>
+        <v>0</v>
       </c>
       <c r="S4" s="28" t="n">
-        <v>0.0289</v>
+        <v>0</v>
       </c>
       <c r="T4" s="28" t="n">
-        <v>0.0289</v>
+        <v>0</v>
       </c>
       <c r="U4" s="28" t="n">
-        <v>0.0289</v>
+        <v>0</v>
       </c>
       <c r="V4" s="28" t="n">
-        <v>0.0867</v>
+        <v>0</v>
       </c>
       <c r="W4" s="28" t="n">
-        <v>0.3468</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -10059,9 +9984,7 @@
       <c r="N7" s="28" t="n">
         <v>1</v>
       </c>
-      <c r="O7" s="28" t="n">
-        <v>1</v>
-      </c>
+      <c r="O7" s="28"/>
       <c r="P7" s="28" t="n">
         <v>1</v>
       </c>
@@ -10101,7 +10024,7 @@
         <v>33</v>
       </c>
       <c r="E8" s="28" t="n">
-        <v>0.0966</v>
+        <v>0.1435</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -10172,7 +10095,7 @@
         <v>33</v>
       </c>
       <c r="E9" s="28" t="n">
-        <v>0.0966</v>
+        <v>0.1435</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -10243,7 +10166,7 @@
         <v>33</v>
       </c>
       <c r="E10" s="28" t="n">
-        <v>0.0966</v>
+        <v>0.1435</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -10273,31 +10196,31 @@
         <v>0.0476</v>
       </c>
       <c r="O10" s="28" t="n">
-        <v>0.0161</v>
+        <v>0.0455</v>
       </c>
       <c r="P10" s="28" t="n">
-        <v>0.0161</v>
+        <v>0.0205</v>
       </c>
       <c r="Q10" s="28" t="n">
-        <v>0.0161</v>
+        <v>0.0205</v>
       </c>
       <c r="R10" s="28" t="n">
-        <v>0.0483</v>
+        <v>0.0615</v>
       </c>
       <c r="S10" s="28" t="n">
-        <v>0.0161</v>
+        <v>0.0205</v>
       </c>
       <c r="T10" s="28" t="n">
-        <v>0.0161</v>
+        <v>0.0205</v>
       </c>
       <c r="U10" s="28" t="n">
-        <v>0.0161</v>
+        <v>0.0205</v>
       </c>
       <c r="V10" s="28" t="n">
-        <v>0.0483</v>
+        <v>0.0615</v>
       </c>
       <c r="W10" s="28" t="n">
-        <v>0.1932</v>
+        <v>0.246</v>
       </c>
     </row>
   </sheetData>
@@ -10399,7 +10322,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="29" t="n">
-        <v>0.0258</v>
+        <v>0.0493</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -10470,7 +10393,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="29" t="n">
-        <v>0.0258</v>
+        <v>0.0493</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -10541,7 +10464,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="29" t="n">
-        <v>0.0258</v>
+        <v>0.0493</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -10553,10 +10476,10 @@
         <v>0</v>
       </c>
       <c r="I4" s="29" t="n">
-        <v>0.0263</v>
+        <v>0.025</v>
       </c>
       <c r="J4" s="29" t="n">
-        <v>0.0261</v>
+        <v>0.0248</v>
       </c>
       <c r="K4" s="29" t="n">
         <v>0</v>
@@ -10571,31 +10494,31 @@
         <v>0</v>
       </c>
       <c r="O4" s="29" t="n">
-        <v>0.0043</v>
+        <v>0.025</v>
       </c>
       <c r="P4" s="29" t="n">
-        <v>0.0043</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="29" t="n">
-        <v>0.0043</v>
+        <v>0</v>
       </c>
       <c r="R4" s="29" t="n">
-        <v>0.0129</v>
+        <v>0</v>
       </c>
       <c r="S4" s="29" t="n">
-        <v>0.0043</v>
+        <v>0</v>
       </c>
       <c r="T4" s="29" t="n">
-        <v>0.0043</v>
+        <v>0</v>
       </c>
       <c r="U4" s="29" t="n">
-        <v>0.0043</v>
+        <v>0</v>
       </c>
       <c r="V4" s="29" t="n">
-        <v>0.0129</v>
+        <v>0</v>
       </c>
       <c r="W4" s="29" t="n">
-        <v>0.0516</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -10769,9 +10692,7 @@
       <c r="N7" s="29" t="n">
         <v>0.5</v>
       </c>
-      <c r="O7" s="29" t="n">
-        <v>0.5</v>
-      </c>
+      <c r="O7" s="29"/>
       <c r="P7" s="29" t="n">
         <v>0.5</v>
       </c>
@@ -10896,7 +10817,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="3" t="n">
-        <v>0.0254</v>
+        <v>0.0242</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -10967,7 +10888,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="3" t="n">
-        <v>0.0254</v>
+        <v>0.0242</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -11038,7 +10959,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="3" t="n">
-        <v>0.0254</v>
+        <v>0.0242</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -11059,40 +10980,40 @@
         <v>0</v>
       </c>
       <c r="L4" s="3" t="n">
-        <v>0.0256</v>
+        <v>0.0244</v>
       </c>
       <c r="M4" s="3" t="n">
         <v>0</v>
       </c>
       <c r="N4" s="3" t="n">
-        <v>0.0254</v>
+        <v>0.0242</v>
       </c>
       <c r="O4" s="3" t="n">
-        <v>0.00423333333333333</v>
+        <v>0</v>
       </c>
       <c r="P4" s="3" t="n">
-        <v>0.00423333333333333</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="3" t="n">
-        <v>0.00423333333333333</v>
+        <v>0</v>
       </c>
       <c r="R4" s="3" t="n">
-        <v>0.0127</v>
+        <v>0</v>
       </c>
       <c r="S4" s="3" t="n">
-        <v>0.00423333333333333</v>
+        <v>0</v>
       </c>
       <c r="T4" s="3" t="n">
-        <v>0.00423333333333333</v>
+        <v>0</v>
       </c>
       <c r="U4" s="3" t="n">
-        <v>0.00423333333333333</v>
+        <v>0</v>
       </c>
       <c r="V4" s="3" t="n">
-        <v>0.0127</v>
+        <v>0</v>
       </c>
       <c r="W4" s="3" t="n">
-        <v>0.0508</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -11248,9 +11169,7 @@
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
-      <c r="O7" s="3" t="n">
-        <v>0.5</v>
-      </c>
+      <c r="O7" s="3"/>
       <c r="P7" s="3" t="n">
         <v>0.5</v>
       </c>
@@ -11290,7 +11209,7 @@
         <v>33</v>
       </c>
       <c r="E8" s="3" t="n">
-        <v>0.1197</v>
+        <v>0.1323</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -11361,7 +11280,7 @@
         <v>33</v>
       </c>
       <c r="E9" s="3" t="n">
-        <v>0.1197</v>
+        <v>0.1323</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -11432,7 +11351,7 @@
         <v>33</v>
       </c>
       <c r="E10" s="3" t="n">
-        <v>0.1197</v>
+        <v>0.1323</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -11462,31 +11381,31 @@
         <v>0.051</v>
       </c>
       <c r="O10" s="3" t="n">
-        <v>0.01995</v>
+        <v>0.0126</v>
       </c>
       <c r="P10" s="3" t="n">
-        <v>0.01995</v>
+        <v>0.0189</v>
       </c>
       <c r="Q10" s="3" t="n">
-        <v>0.01995</v>
+        <v>0.0189</v>
       </c>
       <c r="R10" s="3" t="n">
-        <v>0.05985</v>
+        <v>0.0567</v>
       </c>
       <c r="S10" s="3" t="n">
-        <v>0.01995</v>
+        <v>0.0189</v>
       </c>
       <c r="T10" s="3" t="n">
-        <v>0.01995</v>
+        <v>0.0189</v>
       </c>
       <c r="U10" s="3" t="n">
-        <v>0.01995</v>
+        <v>0.0189</v>
       </c>
       <c r="V10" s="3" t="n">
-        <v>0.05985</v>
+        <v>0.0567</v>
       </c>
       <c r="W10" s="3" t="n">
-        <v>0.2394</v>
+        <v>0.2268</v>
       </c>
     </row>
   </sheetData>
@@ -11588,7 +11507,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="30" t="n">
-        <v>0.2362</v>
+        <v>0.219</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -11659,7 +11578,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="30" t="n">
-        <v>0.2362</v>
+        <v>0.219</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -11730,22 +11649,22 @@
         <v>26</v>
       </c>
       <c r="E4" s="30" t="n">
-        <v>0.2362</v>
+        <v>0.219</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
       </c>
       <c r="G4" s="30" t="n">
-        <v>0.1667</v>
+        <v>0.1538</v>
       </c>
       <c r="H4" s="30" t="n">
         <v>0</v>
       </c>
       <c r="I4" s="30" t="n">
-        <v>0.0833</v>
+        <v>0.0769</v>
       </c>
       <c r="J4" s="30" t="n">
-        <v>0.2439</v>
+        <v>0.2256</v>
       </c>
       <c r="K4" s="30" t="n">
         <v>0</v>
@@ -11760,31 +11679,31 @@
         <v>0</v>
       </c>
       <c r="O4" s="30" t="n">
-        <v>0.0393666666666667</v>
+        <v>0</v>
       </c>
       <c r="P4" s="30" t="n">
-        <v>0.0393666666666667</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="30" t="n">
-        <v>0.0393666666666667</v>
+        <v>0</v>
       </c>
       <c r="R4" s="30" t="n">
-        <v>0.1181</v>
+        <v>0</v>
       </c>
       <c r="S4" s="30" t="n">
-        <v>0.0393666666666667</v>
+        <v>0</v>
       </c>
       <c r="T4" s="30" t="n">
-        <v>0.0393666666666667</v>
+        <v>0</v>
       </c>
       <c r="U4" s="30" t="n">
-        <v>0.0393666666666667</v>
+        <v>0</v>
       </c>
       <c r="V4" s="30" t="n">
-        <v>0.1181</v>
+        <v>0</v>
       </c>
       <c r="W4" s="30" t="n">
-        <v>0.4724</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -11800,7 +11719,9 @@
       <c r="D5" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="30"/>
+      <c r="E5" s="30" t="n">
+        <v>1</v>
+      </c>
       <c r="F5" t="s">
         <v>27</v>
       </c>
@@ -11851,7 +11772,9 @@
       <c r="D6" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="30"/>
+      <c r="E6" s="30" t="n">
+        <v>1</v>
+      </c>
       <c r="F6" t="s">
         <v>28</v>
       </c>
@@ -11918,64 +11841,48 @@
         <v>60</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E7" s="30" t="n">
-        <v>0.0693</v>
+        <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="30" t="n">
-        <v>0.0455</v>
-      </c>
-      <c r="J7" s="30" t="n">
-        <v>0.0447</v>
-      </c>
-      <c r="K7" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" s="30" t="n">
-        <v>0.0227</v>
-      </c>
-      <c r="M7" s="30" t="n">
-        <v>0.0233</v>
-      </c>
-      <c r="N7" s="30" t="n">
-        <v>0.0458</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
       <c r="O7" s="30" t="n">
-        <v>0.0444</v>
+        <v>1</v>
       </c>
       <c r="P7" s="30" t="n">
-        <v>0.0233</v>
+        <v>1</v>
       </c>
       <c r="Q7" s="30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7" s="30" t="n">
-        <v>0.0667</v>
+        <v>1</v>
       </c>
       <c r="S7" s="30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T7" s="30" t="n">
-        <v>0.0192</v>
+        <v>1</v>
       </c>
       <c r="U7" s="30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V7" s="30" t="n">
-        <v>0.0189</v>
+        <v>1</v>
       </c>
       <c r="W7" s="30" t="n">
-        <v>0.1717</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -11992,10 +11899,10 @@
         <v>33</v>
       </c>
       <c r="E8" s="30" t="n">
-        <v>0.0693</v>
+        <v>0.1222</v>
       </c>
       <c r="F8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G8" s="30" t="n">
         <v>0</v>
@@ -12004,49 +11911,49 @@
         <v>0</v>
       </c>
       <c r="I8" s="30" t="n">
-        <v>0.04095</v>
+        <v>0.0455</v>
       </c>
       <c r="J8" s="30" t="n">
-        <v>0.04023</v>
+        <v>0.0447</v>
       </c>
       <c r="K8" s="30" t="n">
         <v>0</v>
       </c>
       <c r="L8" s="30" t="n">
-        <v>0.02043</v>
+        <v>0.0227</v>
       </c>
       <c r="M8" s="30" t="n">
-        <v>0.02097</v>
+        <v>0.0233</v>
       </c>
       <c r="N8" s="30" t="n">
-        <v>0.04122</v>
+        <v>0.0458</v>
       </c>
       <c r="O8" s="30" t="n">
-        <v>0.03996</v>
+        <v>0.0444</v>
       </c>
       <c r="P8" s="30" t="n">
-        <v>0.02097</v>
+        <v>0.0233</v>
       </c>
       <c r="Q8" s="30" t="n">
         <v>0</v>
       </c>
       <c r="R8" s="30" t="n">
-        <v>0.06003</v>
+        <v>0.0667</v>
       </c>
       <c r="S8" s="30" t="n">
         <v>0</v>
       </c>
       <c r="T8" s="30" t="n">
-        <v>0.01728</v>
+        <v>0.0192</v>
       </c>
       <c r="U8" s="30" t="n">
         <v>0</v>
       </c>
       <c r="V8" s="30" t="n">
-        <v>0.01701</v>
+        <v>0.0189</v>
       </c>
       <c r="W8" s="30" t="n">
-        <v>0.15453</v>
+        <v>0.1717</v>
       </c>
     </row>
     <row r="9">
@@ -12063,61 +11970,132 @@
         <v>33</v>
       </c>
       <c r="E9" s="30" t="n">
-        <v>0.0693</v>
+        <v>0.1222</v>
       </c>
       <c r="F9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="30" t="n">
+        <v>0.04095</v>
+      </c>
+      <c r="J9" s="30" t="n">
+        <v>0.04023</v>
+      </c>
+      <c r="K9" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" s="30" t="n">
+        <v>0.02043</v>
+      </c>
+      <c r="M9" s="30" t="n">
+        <v>0.02097</v>
+      </c>
+      <c r="N9" s="30" t="n">
+        <v>0.04122</v>
+      </c>
+      <c r="O9" s="30" t="n">
+        <v>0.03996</v>
+      </c>
+      <c r="P9" s="30" t="n">
+        <v>0.02097</v>
+      </c>
+      <c r="Q9" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" s="30" t="n">
+        <v>0.06003</v>
+      </c>
+      <c r="S9" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" s="30" t="n">
+        <v>0.01728</v>
+      </c>
+      <c r="U9" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" s="30" t="n">
+        <v>0.01701</v>
+      </c>
+      <c r="W9" s="30" t="n">
+        <v>0.15453</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="30" t="n">
+        <v>0.1222</v>
+      </c>
+      <c r="F10" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="30" t="n">
+      <c r="G10" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="30" t="n">
         <v>0.0345</v>
       </c>
-      <c r="I9" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="30" t="n">
+      <c r="I10" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="30" t="n">
         <v>0.0343</v>
       </c>
-      <c r="K9" s="30" t="n">
+      <c r="K10" s="30" t="n">
         <v>0.0172</v>
       </c>
-      <c r="L9" s="30" t="n">
+      <c r="L10" s="30" t="n">
         <v>0.0179</v>
       </c>
-      <c r="M9" s="30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" s="30" t="n">
+      <c r="M10" s="30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" s="30" t="n">
         <v>0.0351</v>
       </c>
-      <c r="O9" s="30" t="n">
-        <v>0.01155</v>
-      </c>
-      <c r="P9" s="30" t="n">
-        <v>0.01155</v>
-      </c>
-      <c r="Q9" s="30" t="n">
-        <v>0.01155</v>
-      </c>
-      <c r="R9" s="30" t="n">
-        <v>0.03465</v>
-      </c>
-      <c r="S9" s="30" t="n">
-        <v>0.01155</v>
-      </c>
-      <c r="T9" s="30" t="n">
-        <v>0.01155</v>
-      </c>
-      <c r="U9" s="30" t="n">
-        <v>0.01155</v>
-      </c>
-      <c r="V9" s="30" t="n">
-        <v>0.03465</v>
-      </c>
-      <c r="W9" s="30" t="n">
-        <v>0.1386</v>
+      <c r="O10" s="30" t="n">
+        <v>0.0545</v>
+      </c>
+      <c r="P10" s="30" t="n">
+        <v>0.0174583333333333</v>
+      </c>
+      <c r="Q10" s="30" t="n">
+        <v>0.0174583333333333</v>
+      </c>
+      <c r="R10" s="30" t="n">
+        <v>0.052375</v>
+      </c>
+      <c r="S10" s="30" t="n">
+        <v>0.0174583333333333</v>
+      </c>
+      <c r="T10" s="30" t="n">
+        <v>0.0174583333333333</v>
+      </c>
+      <c r="U10" s="30" t="n">
+        <v>0.0174583333333333</v>
+      </c>
+      <c r="V10" s="30" t="n">
+        <v>0.052375</v>
+      </c>
+      <c r="W10" s="30" t="n">
+        <v>0.2095</v>
       </c>
     </row>
   </sheetData>
@@ -12391,31 +12369,31 @@
         <v>0.0292</v>
       </c>
       <c r="O4" s="31" t="n">
-        <v>0.00476666666666667</v>
+        <v>0</v>
       </c>
       <c r="P4" s="31" t="n">
-        <v>0.00476666666666667</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="31" t="n">
-        <v>0.00476666666666667</v>
+        <v>0</v>
       </c>
       <c r="R4" s="31" t="n">
-        <v>0.0143</v>
+        <v>0</v>
       </c>
       <c r="S4" s="31" t="n">
-        <v>0.00476666666666667</v>
+        <v>0</v>
       </c>
       <c r="T4" s="31" t="n">
-        <v>0.00476666666666667</v>
+        <v>0</v>
       </c>
       <c r="U4" s="31" t="n">
-        <v>0.00476666666666667</v>
+        <v>0</v>
       </c>
       <c r="V4" s="31" t="n">
-        <v>0.0143</v>
+        <v>0</v>
       </c>
       <c r="W4" s="31" t="n">
-        <v>0.0572</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -12613,7 +12591,7 @@
         <v>33</v>
       </c>
       <c r="E8" s="31" t="n">
-        <v>0.0144</v>
+        <v>0.0288</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -12684,7 +12662,7 @@
         <v>33</v>
       </c>
       <c r="E9" s="31" t="n">
-        <v>0.0144</v>
+        <v>0.0288</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -12755,7 +12733,7 @@
         <v>33</v>
       </c>
       <c r="E10" s="31" t="n">
-        <v>0.0144</v>
+        <v>0.0288</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -12785,31 +12763,31 @@
         <v>0.0145</v>
       </c>
       <c r="O10" s="31" t="n">
-        <v>0.0024</v>
+        <v>0.0141</v>
       </c>
       <c r="P10" s="31" t="n">
-        <v>0.0024</v>
+        <v>0.00411666666666667</v>
       </c>
       <c r="Q10" s="31" t="n">
-        <v>0.0024</v>
+        <v>0.00411666666666667</v>
       </c>
       <c r="R10" s="31" t="n">
-        <v>0.0072</v>
+        <v>0.01235</v>
       </c>
       <c r="S10" s="31" t="n">
-        <v>0.0024</v>
+        <v>0.00411666666666667</v>
       </c>
       <c r="T10" s="31" t="n">
-        <v>0.0024</v>
+        <v>0.00411666666666667</v>
       </c>
       <c r="U10" s="31" t="n">
-        <v>0.0024</v>
+        <v>0.00411666666666667</v>
       </c>
       <c r="V10" s="31" t="n">
-        <v>0.0072</v>
+        <v>0.01235</v>
       </c>
       <c r="W10" s="31" t="n">
-        <v>0.0288</v>
+        <v>0.0494</v>
       </c>
     </row>
   </sheetData>
@@ -13083,31 +13061,31 @@
         <v>0</v>
       </c>
       <c r="O4" s="32" t="n">
-        <v>0.00325</v>
+        <v>0</v>
       </c>
       <c r="P4" s="32" t="n">
-        <v>0.00325</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="32" t="n">
-        <v>0.00325</v>
+        <v>0</v>
       </c>
       <c r="R4" s="32" t="n">
-        <v>0.00975</v>
+        <v>0</v>
       </c>
       <c r="S4" s="32" t="n">
-        <v>0.00325</v>
+        <v>0</v>
       </c>
       <c r="T4" s="32" t="n">
-        <v>0.00325</v>
+        <v>0</v>
       </c>
       <c r="U4" s="32" t="n">
-        <v>0.00325</v>
+        <v>0</v>
       </c>
       <c r="V4" s="32" t="n">
-        <v>0.00975</v>
+        <v>0</v>
       </c>
       <c r="W4" s="32" t="n">
-        <v>0.039</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -13218,6 +13196,61 @@
       </c>
       <c r="W6" s="32" t="n">
         <v>0.5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S7" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" s="32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" s="32" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -13319,7 +13352,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="33" t="n">
-        <v>0.1163</v>
+        <v>0.1802</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -13390,7 +13423,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="33" t="n">
-        <v>0.1163</v>
+        <v>0.1802</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -13461,7 +13494,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="33" t="n">
-        <v>0.1163</v>
+        <v>0.1802</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -13473,10 +13506,10 @@
         <v>0</v>
       </c>
       <c r="I4" s="33" t="n">
-        <v>0.1333</v>
+        <v>0.2</v>
       </c>
       <c r="J4" s="33" t="n">
-        <v>0.0922</v>
+        <v>0.1198</v>
       </c>
       <c r="K4" s="33" t="n">
         <v>0</v>
@@ -13491,31 +13524,31 @@
         <v>0</v>
       </c>
       <c r="O4" s="33" t="n">
-        <v>0.0193833333333333</v>
+        <v>0</v>
       </c>
       <c r="P4" s="33" t="n">
-        <v>0.0193833333333333</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="33" t="n">
-        <v>0.0193833333333333</v>
+        <v>0</v>
       </c>
       <c r="R4" s="33" t="n">
-        <v>0.05815</v>
+        <v>0</v>
       </c>
       <c r="S4" s="33" t="n">
-        <v>0.0193833333333333</v>
+        <v>0</v>
       </c>
       <c r="T4" s="33" t="n">
-        <v>0.0193833333333333</v>
+        <v>0</v>
       </c>
       <c r="U4" s="33" t="n">
-        <v>0.0193833333333333</v>
+        <v>0</v>
       </c>
       <c r="V4" s="33" t="n">
-        <v>0.05815</v>
+        <v>0</v>
       </c>
       <c r="W4" s="33" t="n">
-        <v>0.2326</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -13811,9 +13844,7 @@
       <c r="N9" s="33" t="n">
         <v>0</v>
       </c>
-      <c r="O9" s="33" t="n">
-        <v>0</v>
-      </c>
+      <c r="O9" s="33"/>
       <c r="P9" s="33" t="n">
         <v>0</v>
       </c>
@@ -14150,7 +14181,9 @@
       <c r="D5" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="34"/>
+      <c r="E5" s="34" t="n">
+        <v>1</v>
+      </c>
       <c r="F5" t="s">
         <v>27</v>
       </c>
@@ -14191,7 +14224,9 @@
       <c r="D6" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="34"/>
+      <c r="E6" s="34" t="n">
+        <v>1</v>
+      </c>
       <c r="F6" t="s">
         <v>28</v>
       </c>
@@ -14258,64 +14293,48 @@
         <v>64</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E7" s="34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" s="34" t="n">
-        <v>0</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
       <c r="O7" s="34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7" s="34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7" s="34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7" s="34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S7" s="34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T7" s="34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U7" s="34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V7" s="34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W7" s="34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -14335,7 +14354,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G8" s="34" t="n">
         <v>0</v>
@@ -14406,57 +14425,128 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" s="34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="W9" s="34" t="n">
+      <c r="G10" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" s="34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" s="34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16063,7 +16153,7 @@
         <v>26</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0.1</v>
+        <v>0.101</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -16134,7 +16224,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>0.1</v>
+        <v>0.101</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -16205,7 +16295,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0.1</v>
+        <v>0.101</v>
       </c>
       <c r="F4" t="s">
         <v>29</v>
@@ -16235,31 +16325,31 @@
         <v>0.1</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.0166666666666667</v>
+        <v>0</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.0166666666666667</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.0166666666666667</v>
+        <v>0</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.0166666666666667</v>
+        <v>0</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>0.0166666666666667</v>
+        <v>0</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>0.0166666666666667</v>
+        <v>0</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -16275,7 +16365,9 @@
       <c r="D5" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="4"/>
+      <c r="E5" s="4" t="n">
+        <v>1</v>
+      </c>
       <c r="F5" t="s">
         <v>27</v>
       </c>
@@ -16316,7 +16408,9 @@
       <c r="D6" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="4"/>
+      <c r="E6" s="4" t="n">
+        <v>1</v>
+      </c>
       <c r="F6" t="s">
         <v>28</v>
       </c>
@@ -16370,6 +16464,61 @@
       </c>
       <c r="W6" s="4" t="n">
         <v>0.5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="S7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="T7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="U7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="W7" s="4" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -17223,9 +17372,7 @@
       <c r="L7" s="41"/>
       <c r="M7" s="41"/>
       <c r="N7" s="41"/>
-      <c r="O7" s="41" t="n">
-        <v>0</v>
-      </c>
+      <c r="O7" s="41"/>
       <c r="P7" s="41" t="n">
         <v>0</v>
       </c>
@@ -17735,31 +17882,31 @@
         <v>0</v>
       </c>
       <c r="O4" s="42" t="n">
-        <v>0.0052</v>
+        <v>0</v>
       </c>
       <c r="P4" s="42" t="n">
-        <v>0.0052</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="42" t="n">
-        <v>0.0052</v>
+        <v>0</v>
       </c>
       <c r="R4" s="42" t="n">
-        <v>0.0156</v>
+        <v>0</v>
       </c>
       <c r="S4" s="42" t="n">
-        <v>0.0052</v>
+        <v>0</v>
       </c>
       <c r="T4" s="42" t="n">
-        <v>0.0052</v>
+        <v>0</v>
       </c>
       <c r="U4" s="42" t="n">
-        <v>0.0052</v>
+        <v>0</v>
       </c>
       <c r="V4" s="42" t="n">
-        <v>0.0156</v>
+        <v>0</v>
       </c>
       <c r="W4" s="42" t="n">
-        <v>0.0624</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -17913,9 +18060,7 @@
       <c r="L7" s="42"/>
       <c r="M7" s="42"/>
       <c r="N7" s="42"/>
-      <c r="O7" s="42" t="n">
-        <v>1</v>
-      </c>
+      <c r="O7" s="42"/>
       <c r="P7" s="42" t="n">
         <v>1</v>
       </c>
@@ -18127,31 +18272,31 @@
         <v>0.0278</v>
       </c>
       <c r="O10" s="42" t="n">
-        <v>0.00463333333333333</v>
+        <v>0</v>
       </c>
       <c r="P10" s="42" t="n">
-        <v>0.00463333333333333</v>
+        <v>0.003975</v>
       </c>
       <c r="Q10" s="42" t="n">
-        <v>0.00463333333333333</v>
+        <v>0.003975</v>
       </c>
       <c r="R10" s="42" t="n">
-        <v>0.0139</v>
+        <v>0.011925</v>
       </c>
       <c r="S10" s="42" t="n">
-        <v>0.00463333333333333</v>
+        <v>0.003975</v>
       </c>
       <c r="T10" s="42" t="n">
-        <v>0.00463333333333333</v>
+        <v>0.003975</v>
       </c>
       <c r="U10" s="42" t="n">
-        <v>0.00463333333333333</v>
+        <v>0.003975</v>
       </c>
       <c r="V10" s="42" t="n">
-        <v>0.0139</v>
+        <v>0.011925</v>
       </c>
       <c r="W10" s="42" t="n">
-        <v>0.0556</v>
+        <v>0.0477</v>
       </c>
     </row>
   </sheetData>
@@ -18862,9 +19007,7 @@
       <c r="N7" s="44" t="n">
         <v>0</v>
       </c>
-      <c r="O7" s="44" t="n">
-        <v>0</v>
-      </c>
+      <c r="O7" s="44"/>
       <c r="P7" s="44" t="n">
         <v>0</v>
       </c>
@@ -19270,9 +19413,7 @@
       <c r="N2" s="46" t="n">
         <v>0</v>
       </c>
-      <c r="O2" s="46" t="n">
-        <v>0</v>
-      </c>
+      <c r="O2" s="46"/>
       <c r="P2" s="46" t="n">
         <v>0</v>
       </c>
@@ -20443,6 +20584,146 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" s="52" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="52" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" s="52" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" s="52" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" s="52" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" s="52" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" s="52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" s="52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1"/>
@@ -20708,31 +20989,31 @@
         <v>0.0303</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="6" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="R4" s="6" t="n">
-        <v>0.015</v>
+        <v>0</v>
       </c>
       <c r="S4" s="6" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="T4" s="6" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.015</v>
+        <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -20888,9 +21169,7 @@
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
-      <c r="O7" s="6" t="n">
-        <v>0</v>
-      </c>
+      <c r="O7" s="6"/>
       <c r="P7" s="6" t="n">
         <v>0</v>
       </c>
@@ -20930,7 +21209,7 @@
         <v>33</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.1061</v>
+        <v>0.105</v>
       </c>
       <c r="F8" t="s">
         <v>27</v>
@@ -21001,7 +21280,7 @@
         <v>33</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.1061</v>
+        <v>0.105</v>
       </c>
       <c r="F9" t="s">
         <v>28</v>
@@ -21072,7 +21351,7 @@
         <v>33</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>0.1061</v>
+        <v>0.105</v>
       </c>
       <c r="F10" t="s">
         <v>29</v>
@@ -21102,31 +21381,31 @@
         <v>0</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0176833333333333</v>
+        <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0176833333333333</v>
+        <v>0.015</v>
       </c>
       <c r="Q10" s="6" t="n">
-        <v>0.0176833333333333</v>
+        <v>0.015</v>
       </c>
       <c r="R10" s="6" t="n">
-        <v>0.05305</v>
+        <v>0.045</v>
       </c>
       <c r="S10" s="6" t="n">
-        <v>0.0176833333333333</v>
+        <v>0.015</v>
       </c>
       <c r="T10" s="6" t="n">
-        <v>0.0176833333333333</v>
+        <v>0.015</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.0176833333333333</v>
+        <v>0.015</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05305</v>
+        <v>0.045</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2122</v>
+        <v>0.18</v>
       </c>
     </row>
   </sheetData>
@@ -21525,9 +21804,7 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="8" t="n">
-        <v>0</v>
-      </c>
+      <c r="E2" s="8"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -21596,9 +21873,7 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="8" t="n">
-        <v>0</v>
-      </c>
+      <c r="E3" s="8"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -21665,64 +21940,34 @@
         <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="8" t="n">
-        <v>0</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="E4" s="8"/>
       <c r="F4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R4" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S4" s="8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" s="8" t="n">
-        <v>0</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
       <c r="U4" s="8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V4" s="8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W4" s="8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -21740,98 +21985,57 @@
       </c>
       <c r="E5" s="8"/>
       <c r="F5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
+        <v>28</v>
+      </c>
+      <c r="G5" s="8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H5" s="8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I5" s="8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="J5" s="8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K5" s="8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L5" s="8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M5" s="8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N5" s="8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="O5" s="8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P5" s="8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q5" s="8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="R5" s="8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="S5" s="8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="T5" s="8" t="n">
+        <v>0.5</v>
+      </c>
       <c r="U5" s="8" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="V5" s="8" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="W5" s="8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E6" s="8"/>
-      <c r="F6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="8" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H6" s="8" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="I6" s="8" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J6" s="8" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="K6" s="8" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="L6" s="8" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="M6" s="8" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="N6" s="8" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="O6" s="8" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="P6" s="8" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Q6" s="8" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="R6" s="8" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="S6" s="8" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="T6" s="8" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="U6" s="8" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="V6" s="8" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="W6" s="8" t="n">
         <v>0.5</v>
       </c>
     </row>
@@ -22106,31 +22310,31 @@
         <v>0</v>
       </c>
       <c r="O4" s="9" t="n">
-        <v>0.1282</v>
+        <v>0</v>
       </c>
       <c r="P4" s="9" t="n">
-        <v>0.1282</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="Q4" s="9" t="n">
-        <v>0.1282</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="R4" s="9" t="n">
-        <v>0.3846</v>
+        <v>0.25</v>
       </c>
       <c r="S4" s="9" t="n">
-        <v>0.1282</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="T4" s="9" t="n">
-        <v>0.1282</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="U4" s="9" t="n">
-        <v>0.1282</v>
+        <v>0.0833333333333333</v>
       </c>
       <c r="V4" s="9" t="n">
-        <v>0.3846</v>
+        <v>0.25</v>
       </c>
       <c r="W4" s="9" t="n">
-        <v>1.5384</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
